--- a/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/ligand/LOO_XPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/ligand/LOO_XPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.534</v>
+        <v>0.459</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.915</v>
+        <v>19.374</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-6448441944.782</v>
+        <v>-0.09</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1407384.081</v>
+        <v>18.298</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.923</v>
+        <v>0.722</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.906</v>
+        <v>15.067</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-1605972.245227153</v>
+        <v>25.50411629447316</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>-777184.9224998468</v>
+        <v>25.60028483011589</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>-419299.775785392</v>
+        <v>25.62190829136721</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-2726098.890587439</v>
+        <v>25.52256682971921</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>-350150.4613065186</v>
+        <v>25.59506886026416</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-336010.726003807</v>
+        <v>25.6115446498371</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-2824600.026642675</v>
+        <v>25.5654977948272</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>634969.6597985441</v>
+        <v>25.6235239978958</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>722731.0741446341</v>
+        <v>25.63711651841087</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>237199.7325609721</v>
+        <v>25.6495192390485</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>677576.3163206767</v>
+        <v>25.67487467191881</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>786120.6091985041</v>
+        <v>25.69216008910344</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>-765632.5460552804</v>
+        <v>25.53890370624356</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>271937.1061637343</v>
+        <v>25.64299066211743</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>758871.0967798418</v>
+        <v>25.66885143833585</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-264902.8032377784</v>
+        <v>25.49173964526627</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>640649.8221888209</v>
+        <v>25.63149853619237</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1083270.966560894</v>
+        <v>25.67495528440386</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-881085.7640045487</v>
+        <v>25.49924520618953</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>358589.5835899701</v>
+        <v>25.60868292050917</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1004064.214643961</v>
+        <v>25.64746863559505</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-808451.8473877991</v>
+        <v>25.56541954551993</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1359149.160069561</v>
+        <v>25.65282171779516</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>2216553.537405089</v>
+        <v>25.68460207509782</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>826153.9732416067</v>
+        <v>25.69056465518665</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1335786.385307383</v>
+        <v>25.73298470995257</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1430728.862620805</v>
+        <v>25.76836986417568</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>-52202.27287836743</v>
+        <v>25.54961994155963</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1515480.843577237</v>
+        <v>25.71222875547883</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1724339.446317288</v>
+        <v>25.76490361861098</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>-26850.64608160218</v>
+        <v>25.50913534600225</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1130197.903761311</v>
+        <v>25.67628065087161</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1428071.989710978</v>
+        <v>25.72044456425071</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>-597333.9203655837</v>
+        <v>25.52643633338052</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>887589.2192220716</v>
+        <v>25.66407228658408</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1287989.10825829</v>
+        <v>25.70380914841686</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>-536357.7908795917</v>
+        <v>25.60641900536933</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>2019980.342018521</v>
+        <v>25.7172655091898</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>2556685.010916262</v>
+        <v>25.74966834502327</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1711405.497777946</v>
+        <v>25.80313321978146</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>2050954.932320734</v>
+        <v>25.84930482646308</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>2333358.270706678</v>
+        <v>25.88982573574516</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>340693.4518789074</v>
+        <v>25.62168776481391</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>1953709.729330797</v>
+        <v>25.82456833101762</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>2166302.94514266</v>
+        <v>25.87781097079086</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>-1080221.951214101</v>
+        <v>25.51596393772421</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>646702.7675072094</v>
+        <v>25.63270983416356</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>1159085.046645213</v>
+        <v>25.65352051194372</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>-1466198.017564805</v>
+        <v>25.54220036214418</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>1260759.762797001</v>
+        <v>25.63303703524279</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>1562162.452893564</v>
+        <v>25.64794503079542</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>-1187377.846986868</v>
+        <v>25.59335347045107</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>2607071.791041914</v>
+        <v>25.66621761242873</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>2835912.740069508</v>
+        <v>25.67838043638728</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>1807168.391768183</v>
+        <v>25.70064964693108</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>2330595.512680824</v>
+        <v>25.73411617870382</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>2300807.369020813</v>
+        <v>25.74966242356537</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>-304825.1033619831</v>
+        <v>25.56251773796058</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>1462372.289323559</v>
+        <v>25.69307981759165</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>1909710.755077983</v>
+        <v>25.71601087999546</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>-397875.415266223</v>
+        <v>25.48579466927531</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>694174.5424997817</v>
+        <v>25.65379621888623</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>1106387.056423625</v>
+        <v>25.69786212037486</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>-1043656.182077545</v>
+        <v>25.49853313825751</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>419500.0611353777</v>
+        <v>25.63307013289165</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>852064.2171259491</v>
+        <v>25.67176854759109</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>-703793.4519403293</v>
+        <v>25.57799308112494</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>1406065.484290855</v>
+        <v>25.68571540076275</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>1940438.767103504</v>
+        <v>25.71720246769943</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>741244.1466196997</v>
+        <v>25.73063957454321</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>1143057.852488746</v>
+        <v>25.78462481365489</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>1151805.220875001</v>
+        <v>25.81949764551929</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>-330914.4889215123</v>
+        <v>25.55530897816439</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>1146495.899982099</v>
+        <v>25.75521195327966</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>1338802.232472516</v>
+        <v>25.80624109012174</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>-337501.4235418934</v>
+        <v>25.50525395649558</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>857402.2340216655</v>
+        <v>25.70562338550372</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>1204029.011473012</v>
+        <v>25.74975999583357</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>-941824.6579207086</v>
+        <v>25.52774421653216</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>714170.1004773113</v>
+        <v>25.69574844673052</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>994962.7913848511</v>
+        <v>25.73467466946019</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>-592514.0233480347</v>
+        <v>25.62425922817014</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>1753547.795108426</v>
+        <v>25.75982714029901</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>2074989.591414695</v>
+        <v>25.79134022295775</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>1304191.098347281</v>
+        <v>25.8575204531103</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>1675436.774787981</v>
+        <v>25.91622345140001</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>1745716.140047543</v>
+        <v>25.95680947178591</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>-136820.1521189861</v>
+        <v>25.63528336501133</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>1470281.43463218</v>
+        <v>25.88275327615253</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>1568378.814191742</v>
+        <v>25.93331457375212</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>-857811.5157153967</v>
+        <v>25.51213666817468</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>445312.0154933735</v>
+        <v>25.62800704885865</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>860264.0852829526</v>
+        <v>25.64847721041657</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>-1256187.224345939</v>
+        <v>25.53778269014054</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>1102145.360997369</v>
+        <v>25.62750004745221</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>1252412.577402884</v>
+        <v>25.64205731036826</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>-957831.7066672605</v>
+        <v>25.58896353456348</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>2439572.982428838</v>
+        <v>25.66090770366424</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>2496689.422525013</v>
+        <v>25.67276219246759</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>1382543.728932389</v>
+        <v>25.69579279559706</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>1940797.005725895</v>
+        <v>25.72853754968415</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>1894540.529895029</v>
+        <v>25.74373477268303</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>-55205.74208411866</v>
+        <v>25.55816340239001</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>1471290.952062819</v>
+        <v>25.6873043941828</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>1775194.978074686</v>
+        <v>25.70969833998651</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>-140969.7721494551</v>
+        <v>25.48688447065858</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>877491.5165733013</v>
+        <v>25.65383596574209</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>1160277.209868753</v>
+        <v>25.69734689248264</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>-753501.0488300404</v>
+        <v>25.4993133493052</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>654914.7775438984</v>
+        <v>25.6325011878064</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>923834.2068905986</v>
+        <v>25.67060442690112</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>-446411.5226500318</v>
+        <v>25.57861574476864</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>1612540.219901503</v>
+        <v>25.68522549537123</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>1972029.048412653</v>
+        <v>25.71619953174277</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>862236.5345993293</v>
+        <v>25.7317629480969</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>1233866.374943407</v>
+        <v>25.78471297208218</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>1194254.205834982</v>
+        <v>25.81900146104727</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>-58024.07384612379</v>
+        <v>25.55688031206551</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>1282440.515749307</v>
+        <v>25.7550140690985</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>1338302.500417582</v>
+        <v>25.80517858683239</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>-63812.74541068451</v>
+        <v>25.50792990082153</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>1055398.293330367</v>
+        <v>25.70733226571524</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>1320296.774266772</v>
+        <v>25.75090504667208</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>-683533.7058258781</v>
+        <v>25.53043870228455</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>921637.3680988945</v>
+        <v>25.69718998177236</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>1093008.627465131</v>
+        <v>25.73551318882118</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>-412216.4647976267</v>
+        <v>25.62670251667364</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>1885525.238822447</v>
+        <v>25.7612341497648</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>2091909.411814873</v>
+        <v>25.7922282873647</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>1489400.69535123</v>
+        <v>25.86100371754233</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>1798237.50384468</v>
+        <v>25.91865675757052</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>1834280.934446542</v>
+        <v>25.95860567671786</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>178354.4959978358</v>
+        <v>25.63908431731648</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>1664147.509113959</v>
+        <v>25.88492402058851</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>1682205.742373772</v>
+        <v>25.93461068796188</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>-1118107.010222649</v>
+        <v>25.49305065770097</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>-521776.6015654396</v>
+        <v>25.58832322697781</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>-303059.1631581885</v>
+        <v>25.60957515397443</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>-2015102.706345169</v>
+        <v>25.50992704113668</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>3695.461604851343</v>
+        <v>25.58093139279821</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>-117292.9609913574</v>
+        <v>25.59680568619931</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>-2057790.679918356</v>
+        <v>25.55263534429569</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>965877.0244662792</v>
+        <v>25.60938511911411</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>937669.1283851631</v>
+        <v>25.62248917242515</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>537524.6906352696</v>
+        <v>25.6308717943621</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>761376.2366933649</v>
+        <v>25.65541670260353</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>1051172.721243377</v>
+        <v>25.67293546744878</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>904805.8417177043</v>
+        <v>25.52167635214916</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>1534285.371263405</v>
+        <v>25.6237635641545</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>1967092.999551863</v>
+        <v>25.64882505132974</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>-312118.8793772976</v>
+        <v>25.4726165053243</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>519916.0353721016</v>
+        <v>25.61103035010789</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>872215.0509305664</v>
+        <v>25.65415701673497</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>-746564.0147035694</v>
+        <v>25.47757407211964</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>354115.3735614412</v>
+        <v>25.58480354884267</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>892836.6112047958</v>
+        <v>25.62298208508093</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>-697045.8323065112</v>
+        <v>25.54364516535279</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>1285963.820888976</v>
+        <v>25.62917158988722</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>2041387.692850298</v>
+        <v>25.66045863728531</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>553115.4408104443</v>
+        <v>25.66043143707127</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>976720.0074497479</v>
+        <v>25.7016575499226</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>1280352.405177863</v>
+        <v>25.73764524699669</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>48530.6361114774</v>
+        <v>25.52149997461933</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>1395531.340329363</v>
+        <v>25.68124771160522</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>1575120.265008812</v>
+        <v>25.73309684622487</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>-31992.63705873798</v>
+        <v>25.49184774048035</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>870768.1320101931</v>
+        <v>25.65793871966848</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>1205171.084058446</v>
+        <v>25.70166166473353</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>-570754.3807640262</v>
+        <v>25.50646766646786</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>601202.3002827411</v>
+        <v>25.64218489925044</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>1025123.798909878</v>
+        <v>25.68118061183177</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>-447259.3093450168</v>
+        <v>25.58662051413633</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>1743497.532947568</v>
+        <v>25.6958354475294</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>2322117.11575492</v>
+        <v>25.72763419776694</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>1388298.800043095</v>
+        <v>25.77592737321281</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>1647057.58656108</v>
+        <v>25.82082556389185</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>2119621.240497557</v>
+        <v>25.86190923019218</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>451818.1778257521</v>
+        <v>25.59594614184559</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>1684084.120043005</v>
+        <v>25.79633655058419</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>1944906.357199748</v>
+        <v>25.8485417591037</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>-222196.6625155202</v>
+        <v>25.52589051889291</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>1367218.617223228</v>
+        <v>25.62547756751797</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>1504740.124592389</v>
+        <v>25.64590681046051</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>-1076650.432197485</v>
+        <v>25.5480328726204</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>2113660.07713674</v>
+        <v>25.62468544875653</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>1948209.356027408</v>
+        <v>25.63976318932132</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>-685328.1577715768</v>
+        <v>25.59043807779281</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>3686394.325806046</v>
+        <v>25.65187526035506</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>3562037.230715859</v>
+        <v>25.664331442467</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>2087841.388366842</v>
+        <v>25.6835989292796</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>2451040.852218959</v>
+        <v>25.71054771242335</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>2617319.972113008</v>
+        <v>25.72705179365517</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>119823.4889707559</v>
+        <v>25.56912902982719</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>1032012.218925711</v>
+        <v>25.67839713574501</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>1360332.730061338</v>
+        <v>25.70233328256338</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>195594.3190720822</v>
+        <v>25.5204869725226</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>1561606.061849548</v>
+        <v>25.6646458195429</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>1616151.785675278</v>
+        <v>25.70608194828451</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-629273.8853586909</v>
+        <v>25.53304554298631</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>1174818.468148997</v>
+        <v>25.64780072677919</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>1392409.05155229</v>
+        <v>25.68421798031476</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>-410457.2147080952</v>
+        <v>25.59856509562111</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>2358532.457773507</v>
+        <v>25.69035027151455</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>2761110.583781197</v>
+        <v>25.72019924879282</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>1400831.194771807</v>
+        <v>25.73629560185536</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>1865332.12660402</v>
+        <v>25.78065823728104</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>1966465.079401481</v>
+        <v>25.81486968151761</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>472127.6704463784</v>
+        <v>25.59092025355753</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>2106317.142127894</v>
+        <v>25.76013475751664</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>1985794.443678687</v>
+        <v>25.80964394389057</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>240542.1028237641</v>
+        <v>25.53162969828437</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>1532560.172833682</v>
+        <v>25.70327378240119</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>1748504.717880186</v>
+        <v>25.74526248169502</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>-578613.0898511893</v>
+        <v>25.55329911712927</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>1118803.761734583</v>
+        <v>25.69636571770495</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>1409139.297864439</v>
+        <v>25.73354430181166</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>-410628.7002106807</v>
+        <v>25.6330142740681</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>2367938.253822082</v>
+        <v>25.74834442004766</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>2807118.611072703</v>
+        <v>25.77866494660974</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>1978135.344734339</v>
+        <v>25.84083210291562</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>2261502.344388249</v>
+        <v>25.88895497287966</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>2641753.899675107</v>
+        <v>25.92804586849591</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>599695.9195907635</v>
+        <v>25.65485003026535</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>2138098.668615748</v>
+        <v>25.86449575792433</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>2239119.692098979</v>
+        <v>25.91425615425288</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>-527133.7747947412</v>
+        <v>25.48717608312871</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>321466.7906078938</v>
+        <v>25.63857535699253</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>518588.1601075586</v>
+        <v>25.66320807612559</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>-612802.2933334196</v>
+        <v>25.52172307205433</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>851721.7343471816</v>
+        <v>25.64113121563303</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>882815.636232833</v>
+        <v>25.65781524742216</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>-382226.7045456071</v>
+        <v>25.58730531348335</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>1690923.395031066</v>
+        <v>25.68328837601967</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>1704605.132915321</v>
+        <v>25.69697906100057</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>993486.7968915323</v>
+        <v>25.72694928613419</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>1233746.159994587</v>
+        <v>25.77048187534108</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>1339868.592779967</v>
+        <v>25.78953411179719</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>-380305.6438802926</v>
+        <v>25.54964149099824</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>-167871.6846410278</v>
+        <v>25.71961725317851</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>-17947.71988729935</v>
+        <v>25.74621928676105</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>-91098.73383679082</v>
+        <v>25.48131210583462</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>750716.9610800578</v>
+        <v>25.6996121200544</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>788108.4973615322</v>
+        <v>25.75215465715165</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>-560308.3102119934</v>
+        <v>25.50247419127122</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>550643.3669509199</v>
+        <v>25.6796481714731</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>579089.8781684161</v>
+        <v>25.72458116617382</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>-325824.4556741797</v>
+        <v>25.60333198154237</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>1173230.908940474</v>
+        <v>25.74548297994084</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>1255842.721133875</v>
+        <v>25.78213997307211</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>572100.4385069369</v>
+        <v>25.8113295240739</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>849343.6389961995</v>
+        <v>25.88158900847582</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>890452.3947922218</v>
+        <v>25.92421133605771</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>74643.33253347003</v>
+        <v>25.58699758850702</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>949399.7510686818</v>
+        <v>25.84754963295045</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>920451.0417098018</v>
+        <v>25.90739441389851</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>-75152.03641557624</v>
+        <v>25.49714921496585</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>656715.4038337992</v>
+        <v>25.75649216077622</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>778818.9000541708</v>
+        <v>25.80888646241292</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>-517554.7893365821</v>
+        <v>25.5298983671762</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>510434.7136583867</v>
+        <v>25.74950682812423</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>579916.7730191606</v>
+        <v>25.79444894769576</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>-301324.4251914498</v>
+        <v>25.65258932028004</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>1123447.106015522</v>
+        <v>25.83005038942385</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>1232990.664330125</v>
+        <v>25.8665127730139</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>810427.7448667447</v>
+        <v>25.96080660319133</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>1013875.60093527</v>
+        <v>26.03700897608406</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>1110344.970535373</v>
+        <v>26.08619424826128</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>51217.06738023346</v>
+        <v>25.67719963292639</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>941492.3871063998</v>
+        <v>25.99814583005486</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>938190.3946811851</v>
+        <v>26.05692476287699</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>-1103188.769056297</v>
+        <v>25.43235943895726</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>-815232.3813933813</v>
+        <v>25.5702950722744</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>-568732.6482384363</v>
+        <v>25.59869003104309</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>-1287913.136983019</v>
+        <v>25.45579846348539</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>-431472.7291546116</v>
+        <v>25.55889281335024</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>-399972.4714151716</v>
+        <v>25.58003674006262</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>-1359936.7077533</v>
+        <v>25.52176905793733</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>24582.98629589573</v>
+        <v>25.60435446322914</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>49553.32517847556</v>
+        <v>25.62164791385831</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>-192696.5607035553</v>
+        <v>25.63331531235767</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>112554.1589089464</v>
+        <v>25.67021474205261</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>100784.7906452027</v>
+        <v>25.69195533907491</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>-548123.8073660878</v>
+        <v>25.4702857622709</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>-218172.3066083695</v>
+        <v>25.61968255202126</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>-93788.76283636113</v>
+        <v>25.65231205529533</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>-221878.6072978704</v>
+        <v>25.41753949997666</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>141682.173919715</v>
+        <v>25.61833275654473</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>405804.0490676943</v>
+        <v>25.67731463552867</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>-535526.149390052</v>
+        <v>25.4241972227061</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>-135.0792626484561</v>
+        <v>25.58023909583075</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>267213.4357783977</v>
+        <v>25.63279902738039</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>-362346.5868518797</v>
+        <v>25.52527430602863</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>517138.0153922206</v>
+        <v>25.65002332590992</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>859040.4726775654</v>
+        <v>25.69287275465419</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>203031.9850633967</v>
+        <v>25.69625121470453</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>424553.2385025402</v>
+        <v>25.75800285093469</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>453884.6357702886</v>
+        <v>25.80467100495795</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>-96131.41153150628</v>
+        <v>25.48847086574585</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>483219.9797631094</v>
+        <v>25.72238967124538</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>573047.6151737528</v>
+        <v>25.79227316095528</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>-93972.48332150117</v>
+        <v>25.45510274805688</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>398806.9853656567</v>
+        <v>25.696617995926</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>612185.8059526056</v>
+        <v>25.75600251627924</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>-369056.0089435045</v>
+        <v>25.47578629862948</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>338299.6971273531</v>
+        <v>25.67389711448021</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>516632.1480452901</v>
+        <v>25.72713973012601</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>-209424.1704507671</v>
+        <v>25.597351699765</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>873224.9403725346</v>
+        <v>25.75708098147522</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>1091892.527239323</v>
+        <v>25.80027523282465</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>692438.0047464786</v>
+        <v>25.87365813611849</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>874856.4654477669</v>
+        <v>25.94125787697552</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>941702.3222656955</v>
+        <v>25.99535267205851</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>153989.213291622</v>
+        <v>25.60689814710769</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>852176.3062876395</v>
+        <v>25.90070006397637</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>932115.0303331845</v>
+        <v>25.97063576807799</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>-1660525.712621539</v>
+        <v>25.46116600482652</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>-1301509.83083419</v>
+        <v>25.57352168283434</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>-1165356.743672622</v>
+        <v>25.59705408237783</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>-2117633.679306793</v>
+        <v>25.48027981573543</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>-668251.6556006493</v>
+        <v>25.56583331913183</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>-785988.5641877031</v>
+        <v>25.58324128173182</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>-2461436.798877457</v>
+        <v>25.53110049824696</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>-172445.0851705952</v>
+        <v>25.59960436478536</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>-246807.8356353941</v>
+        <v>25.61396929813524</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>-375329.4531881212</v>
+        <v>25.62213275447399</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>-230668.8465668904</v>
+        <v>25.65220061056113</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>-82410.0917511693</v>
+        <v>25.67133757375876</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>-917587.4105447003</v>
+        <v>25.49197892047436</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>-678450.0945725964</v>
+        <v>25.61445556921738</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>-514898.3689420206</v>
+        <v>25.64188957992604</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>-889673.7426846733</v>
+        <v>25.42938842916494</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>-471579.0331635933</v>
+        <v>25.5920816319141</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>-304135.9186608201</v>
+        <v>25.63993430405883</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>-1300269.365833762</v>
+        <v>25.43465711414956</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>-630921.1450406672</v>
+        <v>25.56291449634399</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>-356031.7263085196</v>
+        <v>25.60507662864859</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>-1490594.630648312</v>
+        <v>25.51306918011066</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>-145911.9577444169</v>
+        <v>25.61555504504111</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>299632.4146305945</v>
+        <v>25.65008908144534</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>-380077.1678868413</v>
+        <v>25.64830272985834</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>-42888.34957741197</v>
+        <v>25.69799840416986</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>200562.4566009879</v>
+        <v>25.73771278415905</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>-717495.0391281828</v>
+        <v>25.48303150731128</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>81513.66125135036</v>
+        <v>25.67308427296275</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>22276.25571018799</v>
+        <v>25.73014702719518</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>-628856.9517069103</v>
+        <v>25.44184156515309</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>-136636.8411005722</v>
+        <v>25.63620587477732</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>376473.2573136281</v>
+        <v>25.68477436850903</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>-1129009.760211191</v>
+        <v>25.45726058450599</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>-378213.0374453512</v>
+        <v>25.6181493536646</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>195228.9774977856</v>
+        <v>25.6612796967755</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>-1194536.309160231</v>
+        <v>25.55216767698295</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>320050.380056886</v>
+        <v>25.68179049914716</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>1049630.410288104</v>
+        <v>25.71694496983414</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>292521.6230565683</v>
+        <v>25.7675935401804</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>599675.2837066484</v>
+        <v>25.82163977058631</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>1126075.739523232</v>
+        <v>25.86711519441851</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>-457543.7518820592</v>
+        <v>25.5554861928157</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>345392.2993039461</v>
+        <v>25.7921152540966</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>666495.9016848712</v>
+        <v>25.84958476676639</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>-1028471.782434953</v>
+        <v>25.52414188452978</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>246393.4808648233</v>
+        <v>25.66585715279989</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>761212.0873511472</v>
+        <v>25.68923040630111</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>-942709.25437137</v>
+        <v>25.5609746263266</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>1232034.35128402</v>
+        <v>25.6731396599247</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>1453614.831455415</v>
+        <v>25.68953955589033</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>-587850.9219395391</v>
+        <v>25.62225347515793</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>2366576.623036845</v>
+        <v>25.71255298361222</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>2573294.074745102</v>
+        <v>25.72593744901843</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>1588164.357679199</v>
+        <v>25.76560727892646</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>2052405.575741996</v>
+        <v>25.80657285026982</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>2040855.190767738</v>
+        <v>25.82346955044729</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>64396.34929354241</v>
+        <v>25.60018156565394</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>1103062.078449001</v>
+        <v>25.76029248520909</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>1528214.72112528</v>
+        <v>25.78612266044481</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>-344767.5300797527</v>
+        <v>25.49711258284889</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>415361.885938886</v>
+        <v>25.70099125419186</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>641750.0806573963</v>
+        <v>25.75029522723375</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-843355.0599148063</v>
+        <v>25.51942688224159</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>247937.0004019608</v>
+        <v>25.68534044156047</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>441907.2768425213</v>
+        <v>25.72809181497221</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>-568486.2097335118</v>
+        <v>25.61444648367045</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>988222.9901127259</v>
+        <v>25.74773205860269</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>1266134.535382135</v>
+        <v>25.78252031384418</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>527471.1756018146</v>
+        <v>25.81656775049542</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>759594.6179500682</v>
+        <v>25.88235591988283</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>750874.5798892896</v>
+        <v>25.92045456996506</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>-38711.72248031444</v>
+        <v>25.60691096513182</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>886988.445778832</v>
+        <v>25.85137901287387</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>921006.9915295226</v>
+        <v>25.90818235649356</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>-228763.7199185851</v>
+        <v>25.51101895180308</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>512202.1996296909</v>
+        <v>25.75278933476839</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>746685.4391609395</v>
+        <v>25.80214586570454</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>-660204.3304123349</v>
+        <v>25.54452109737827</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>458397.5960521877</v>
+        <v>25.74962209772808</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>611213.0935717174</v>
+        <v>25.79261369255476</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>-436749.3482136963</v>
+        <v>25.65938837870647</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>1160553.256198358</v>
+        <v>25.82527629968718</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>1357395.609104717</v>
+        <v>25.8600732759921</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>927773.6366589463</v>
+        <v>25.95390466440962</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>1128416.33853049</v>
+        <v>26.02524388924375</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>1160489.09595875</v>
+        <v>26.06970072238502</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>69522.1879329564</v>
+        <v>25.68953110021491</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>1076838.654591574</v>
+        <v>25.9897894144567</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>1131409.082729673</v>
+        <v>26.04601242057212</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>-1323668.103066206</v>
+        <v>25.4492749100283</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>-917541.5880325935</v>
+        <v>25.56475575240228</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>-497185.4500151927</v>
+        <v>25.59116765897553</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>-1842830.655274227</v>
+        <v>25.46600436789227</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>-957457.0905426162</v>
+        <v>25.55173832562144</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>-623587.6667364454</v>
+        <v>25.57222904571773</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>-2008239.246714399</v>
+        <v>25.52139694811807</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>-476937.3184337605</v>
+        <v>25.58979564078632</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>-173487.1343277202</v>
+        <v>25.60657454533562</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>-268475.1033940777</v>
+        <v>25.60610656865342</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>-73847.75716664722</v>
+        <v>25.63750485009381</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>-34958.80054465777</v>
+        <v>25.65794797392591</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>-1005463.370784376</v>
+        <v>25.46622629489244</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>-266138.7836364925</v>
+        <v>25.59123244427298</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>-20845.4036554641</v>
+        <v>25.62203812386853</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>-539444.5262359077</v>
+        <v>25.41778724885951</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>-160999.7828241879</v>
+        <v>25.58546660264027</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>322671.7689883691</v>
+        <v>25.63968118855708</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>-910495.0093239641</v>
+        <v>25.41829253699787</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>-392596.4701239841</v>
+        <v>25.54757280429843</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>145411.6284131132</v>
+        <v>25.59683509135197</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>-791455.0837759257</v>
+        <v>25.50373876053968</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>125617.371865103</v>
+        <v>25.60672121411567</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>759026.2625010249</v>
+        <v>25.64691505961971</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>-100136.3979142261</v>
+        <v>25.631719650927</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>174589.7770702849</v>
+        <v>25.68401638371396</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>268671.6089770661</v>
+        <v>25.72734777036493</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>-579095.7096866006</v>
+        <v>25.45320527477918</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>155474.3818735527</v>
+        <v>25.64840837152095</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>448121.9092886724</v>
+        <v>25.71360129000432</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>-413010.2443078929</v>
+        <v>25.4483925087603</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>136536.6601858593</v>
+        <v>25.65051652716821</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>627970.0654849015</v>
+        <v>25.70544582071661</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>-741427.8272669036</v>
+        <v>25.46044082726163</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>7060.587191384338</v>
+        <v>25.62528997862728</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>508240.3983796307</v>
+        <v>25.67554303436252</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>-607088.4629164026</v>
+        <v>25.56367247249377</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>583714.6498323564</v>
+        <v>25.69622992645239</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>1147427.335330442</v>
+        <v>25.73705747227116</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>450050.3261660446</v>
+        <v>25.78092010696409</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>686786.4630032852</v>
+        <v>25.8382007683347</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>986307.7202483582</v>
+        <v>25.88853559897481</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>-220631.4004350758</v>
+        <v>25.55217926054075</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>638750.1402139714</v>
+        <v>25.79799516314803</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>924297.5265231585</v>
+        <v>25.86378240773502</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>-1820784.316129393</v>
+        <v>25.50262031405151</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>-1319823.528863642</v>
+        <v>25.6203902984797</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>-1092045.784559635</v>
+        <v>25.64124124098029</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>-2160626.651534413</v>
+        <v>25.52648741317661</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>-916701.9854085462</v>
+        <v>25.61721314180748</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>-833247.0835536059</v>
+        <v>25.6317647604456</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>-2467981.243912323</v>
+        <v>25.57816423271144</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>-418994.6602030242</v>
+        <v>25.65079200863376</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>-417295.0424988598</v>
+        <v>25.66267873409245</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>-475328.7084659645</v>
+        <v>25.68052605795026</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>-296854.9867268275</v>
+        <v>25.71364137641111</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>-158866.0176884399</v>
+        <v>25.72989511504668</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>-1293218.074743752</v>
+        <v>25.53989694423492</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>-856009.9083431674</v>
+        <v>25.67038113204038</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>-712228.5922993716</v>
+        <v>25.69282062981011</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>-274240.3814826147</v>
+        <v>25.49299481249222</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>655909.0071751652</v>
+        <v>25.66295172639064</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>753893.929340668</v>
+        <v>25.70764173884563</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>-769284.0978086432</v>
+        <v>25.5047417972082</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>475559.5355712131</v>
+        <v>25.6397476383373</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>575809.6432789637</v>
+        <v>25.67862614197936</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>-621295.7828017462</v>
+        <v>25.58449037104652</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>1166324.551182772</v>
+        <v>25.69239682777421</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>1325783.889669171</v>
+        <v>25.7240488154967</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>547861.7673459462</v>
+        <v>25.73754327236035</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>881767.2748919674</v>
+        <v>25.79130307354309</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>891046.3356885097</v>
+        <v>25.82777018320878</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>-157356.8604506413</v>
+        <v>25.5590044657882</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>986605.2089496674</v>
+        <v>25.75983193092353</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>980823.9687116712</v>
+        <v>25.81100096738466</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>-151770.915845233</v>
+        <v>25.51663307173993</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>836203.0346952628</v>
+        <v>25.72005137068436</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>999235.8198366094</v>
+        <v>25.76469627534814</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>-671744.615316365</v>
+        <v>25.53854030211878</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>709958.5944456836</v>
+        <v>25.70814851879818</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>802859.3668419421</v>
+        <v>25.74711884859045</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>-470955.8462907601</v>
+        <v>25.63595119930064</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>1495582.519741984</v>
+        <v>25.77264690145359</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>1618941.216567015</v>
+        <v>25.8042098205071</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>1180594.637747237</v>
+        <v>25.87308334837228</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>1422870.516701116</v>
+        <v>25.93164598213295</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>1521657.581797684</v>
+        <v>25.9738098075132</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>62200.1730834351</v>
+        <v>25.64600451635684</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>1323238.669769499</v>
+        <v>25.89599530022908</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>1294572.461761019</v>
+        <v>25.9464337814719</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>-1355777.771114545</v>
+        <v>25.46821327751437</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>-932241.9451443453</v>
+        <v>25.57265013473776</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>-638538.2935163891</v>
+        <v>25.59329605823246</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>-1934483.741733589</v>
+        <v>25.48419880076858</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>-737957.8221190409</v>
+        <v>25.56156889270926</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>-671205.8599153385</v>
+        <v>25.57647896325642</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>-2019387.917581615</v>
+        <v>25.53377436927485</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>20868.81380488372</v>
+        <v>25.59557199821598</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>24278.7630711514</v>
+        <v>25.60771877649851</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>-229483.9703843381</v>
+        <v>25.61257348418108</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>100460.8489042372</v>
+        <v>25.64038542529484</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>112153.8834703914</v>
+        <v>25.65630555183612</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>-578604.5607596762</v>
+        <v>25.4879304594851</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>56990.24119819763</v>
+        <v>25.60056361198401</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>279709.4213108527</v>
+        <v>25.62329549980831</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>-786369.3863034212</v>
+        <v>25.42783532887164</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>-384432.0117402525</v>
+        <v>25.57901718421764</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>-79281.55612615989</v>
+        <v>25.62302102918121</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>-1276475.077637538</v>
+        <v>25.42797825703534</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>-648588.9936298247</v>
+        <v>25.5441020367694</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>-338020.9276892312</v>
+        <v>25.58301248581088</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>-1299595.213856788</v>
+        <v>25.50481954848003</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>-140630.8436817493</v>
+        <v>25.59741012415489</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>257228.6661344286</v>
+        <v>25.62905591065409</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>-289950.5899105423</v>
+        <v>25.62036642232111</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>-8049.748242603706</v>
+        <v>25.66648391527513</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>10091.19913894162</v>
+        <v>25.70185549033883</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>-668426.4664532107</v>
+        <v>25.46187599019327</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>80140.63488267458</v>
+        <v>25.63707596112923</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>200846.5976157679</v>
+        <v>25.68817812093005</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>-359602.167655319</v>
+        <v>25.46116674559221</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>271993.7586628207</v>
+        <v>25.64383271029875</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>514100.9160227231</v>
+        <v>25.68781392428926</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>-883334.5477129694</v>
+        <v>25.47164037824767</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>76738.1797650673</v>
+        <v>25.62029781271829</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>251364.1000904111</v>
+        <v>25.65933417315197</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>-735563.913734198</v>
+        <v>25.56467120911762</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>817458.9302459799</v>
+        <v>25.68432596909395</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>1022807.705773179</v>
+        <v>25.71591216625977</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>706595.1658511754</v>
+        <v>25.76183860549471</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>942337.0985513044</v>
+        <v>25.81232983018901</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>1013850.91312242</v>
+        <v>25.85334054217575</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>-11788.74700400745</v>
+        <v>25.55758948410049</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>852668.381611118</v>
+        <v>25.77894297000335</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>907934.2126062902</v>
+        <v>25.8295173929849</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-1455239.489621183</v>
+        <v>25.43163633056711</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>-1819521.357934688</v>
+        <v>25.53565901296001</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>-1732725.999361234</v>
+        <v>25.55679255093434</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-1941841.938423261</v>
+        <v>25.4428772782688</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>-1797931.778955735</v>
+        <v>25.51861104628905</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>-1854166.70014848</v>
+        <v>25.53366798953254</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>-2285958.5635286</v>
+        <v>25.49340217799273</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>-1529363.609991089</v>
+        <v>25.55371729422141</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>-1644375.243734674</v>
+        <v>25.56600684473195</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>-1239364.745869194</v>
+        <v>25.5590465402012</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>-1229041.673589418</v>
+        <v>25.58609167844193</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>-1181203.904359441</v>
+        <v>25.60322012995914</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>-729672.7876967328</v>
+        <v>25.43440134495979</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>-874836.2877160137</v>
+        <v>25.54503585613217</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>-798162.632884857</v>
+        <v>25.56804692489023</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>-828117.726192544</v>
+        <v>25.38749090353438</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>-722713.0077999529</v>
+        <v>25.53842518494707</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>-589856.5599537388</v>
+        <v>25.58376150940059</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-1158861.557119621</v>
+        <v>25.38204886059457</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>-918898.675039773</v>
+        <v>25.4962827719929</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>-770830.8493026985</v>
+        <v>25.53618532117218</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>-1271663.687456395</v>
+        <v>25.46019012492919</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>-620037.747349706</v>
+        <v>25.55103721742728</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>-412588.9663047479</v>
+        <v>25.58351984734901</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>-657859.9125874686</v>
+        <v>25.56131571953551</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>-463031.0036907352</v>
+        <v>25.60661542239895</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>-447883.3971842387</v>
+        <v>25.64434188470752</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>-759754.6520093918</v>
+        <v>25.40283878070651</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>-341379.4709747509</v>
+        <v>25.57599519012403</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>-276114.6822020929</v>
+        <v>25.62843855837588</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>-449008.9901814212</v>
+        <v>25.42388570997354</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>-136780.2834813356</v>
+        <v>25.60712435147748</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>99952.53816654565</v>
+        <v>25.6524450063162</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>-866086.0732001106</v>
+        <v>25.42886911317894</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>-328323.8615157719</v>
+        <v>25.57647177571588</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>-132412.7238334865</v>
+        <v>25.61650245865619</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>-775249.573684389</v>
+        <v>25.52378894665816</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>238861.701139995</v>
+        <v>25.64239490474349</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>467161.7297599092</v>
+        <v>25.67481645754975</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>246701.0491838538</v>
+        <v>25.70918781416486</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>401505.3899939805</v>
+        <v>25.75890833867558</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>523127.1614747599</v>
+        <v>25.80243791712485</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>-195123.2546117979</v>
+        <v>25.50359688158611</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>293361.2842840864</v>
+        <v>25.72406801815459</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>411300.3080624732</v>
+        <v>25.77592650730016</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>-719108.345182444</v>
+        <v>25.49447882692375</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>-77030.95107762849</v>
+        <v>25.60430171377294</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>346588.9118186136</v>
+        <v>25.62865254035857</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>-1726695.663740164</v>
+        <v>25.51467384196835</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>59562.30508192789</v>
+        <v>25.59703257955364</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>207236.9733806887</v>
+        <v>25.61542267689475</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>-1518489.993561113</v>
+        <v>25.56440164264382</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>1115298.698172391</v>
+        <v>25.63027802466749</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>1322364.821868183</v>
+        <v>25.64542945482135</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>605999.9622300409</v>
+        <v>25.66007453299702</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>938379.0033526509</v>
+        <v>25.68887069371774</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>1150564.942431776</v>
+        <v>25.70825365149389</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>288433.7637815193</v>
+        <v>25.53353252051971</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>1103284.873035604</v>
+        <v>25.65197467081979</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>1664415.797813136</v>
+        <v>25.6808487920789</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>-546320.3256295988</v>
+        <v>25.46859622418485</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>5330.956018406758</v>
+        <v>25.628004816477</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>257715.6171318273</v>
+        <v>25.67723686608076</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>-1186805.750607915</v>
+        <v>25.47426548286725</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>-397382.6663034611</v>
+        <v>25.5984054725707</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>-33053.96971803237</v>
+        <v>25.64221061087894</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>-1104974.676692284</v>
+        <v>25.55135257115379</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>370743.9631089153</v>
+        <v>25.65043897027272</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>897833.6522192862</v>
+        <v>25.68629989790614</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>147191.6702815759</v>
+        <v>25.6907241007345</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>470100.2589160686</v>
+        <v>25.73884207500963</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>523016.0347504172</v>
+        <v>25.77883146890126</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>-295186.2696490919</v>
+        <v>25.52966000255493</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>699276.7369953955</v>
+        <v>25.71453272774553</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>811432.6645668787</v>
+        <v>25.77389105173284</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>-160492.8952293303</v>
+        <v>25.49080397604365</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>593190.4693365053</v>
+        <v>25.68182205277089</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>824784.6771955894</v>
+        <v>25.73176516742386</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>-705571.055224676</v>
+        <v>25.50760446932649</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>298107.3939345775</v>
+        <v>25.66429815953124</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>578932.1503688217</v>
+        <v>25.70907869274073</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>-601115.4967974853</v>
+        <v>25.60067954177202</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>1195396.806467923</v>
+        <v>25.72683328132538</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>1580883.874562836</v>
+        <v>25.76331209881208</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>1061998.164239587</v>
+        <v>25.82271064926343</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>1275007.55964468</v>
+        <v>25.87512139387181</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>1507056.321498137</v>
+        <v>25.92102192831596</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>183100.2127363923</v>
+        <v>25.61492541933444</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>1238174.757935376</v>
+        <v>25.84623820319241</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>1411540.187138151</v>
+        <v>25.90610880477046</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>-603855.9696208565</v>
+        <v>25.5197635495584</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>827791.9876595511</v>
+        <v>25.62597021658058</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>1258799.501640176</v>
+        <v>25.64741724104505</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>-1090715.527097052</v>
+        <v>25.54233267810455</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>1147645.095257568</v>
+        <v>25.62325836347209</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>1455781.183325498</v>
+        <v>25.63930242274916</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>-933890.6509102331</v>
+        <v>25.58924574121894</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>2256065.878317315</v>
+        <v>25.6539523596649</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>2488008.945335309</v>
+        <v>25.6670560358316</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>1895639.066098706</v>
+        <v>25.68344537061639</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>2210797.025179</v>
+        <v>25.71301138014261</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>2214170.48889485</v>
+        <v>25.72946535035386</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>-22564.31052083038</v>
+        <v>25.55601011765822</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>1802034.360780804</v>
+        <v>25.67304722056024</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>2125883.659734129</v>
+        <v>25.69735422373915</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>-371482.2900592592</v>
+        <v>25.48931218802566</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>463123.1976905643</v>
+        <v>25.64248593626834</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>894046.0605535418</v>
+        <v>25.68717164194122</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>-844831.6680346157</v>
+        <v>25.49825936014353</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>254253.1618048945</v>
+        <v>25.61872090491731</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>731154.9165409401</v>
+        <v>25.65868101794351</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>-663460.9195430711</v>
+        <v>25.57154993386731</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>1015072.585786135</v>
+        <v>25.66770978491973</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>1588972.266342331</v>
+        <v>25.70025224812555</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>597019.8039317849</v>
+        <v>25.70540947417642</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>917700.400101383</v>
+        <v>25.75361335915466</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>948088.8442205028</v>
+        <v>25.7894230987952</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>-412664.1361245938</v>
+        <v>25.54328959126583</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>845916.4586093964</v>
+        <v>25.72360699699657</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>1083578.239620249</v>
+        <v>25.77635575202223</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>-349053.534453608</v>
+        <v>25.51041955774431</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>665433.0522792174</v>
+        <v>25.69402739708613</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>1074642.97354074</v>
+        <v>25.73901550905971</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>-824972.7571203074</v>
+        <v>25.52893853686446</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>542066.6763750598</v>
+        <v>25.6808393895439</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>924630.4403477655</v>
+        <v>25.72128064097865</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>-611528.6597526728</v>
+        <v>25.61820504409802</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>1390276.874229687</v>
+        <v>25.74051895577896</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>1820131.564308402</v>
+        <v>25.77330253218897</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>1157336.130412481</v>
+        <v>25.82922790857645</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>1425073.569529373</v>
+        <v>25.8817663194153</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>1612179.749081896</v>
+        <v>25.9233565508592</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>-181361.9097601323</v>
+        <v>25.62271855541826</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>1220340.427522674</v>
+        <v>25.84772443503001</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>1404317.424439317</v>
+        <v>25.90043215999176</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>-946734.3268186102</v>
+        <v>25.53687704541173</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>834221.8391573537</v>
+        <v>25.63638310063555</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>1430528.395657469</v>
+        <v>25.65636585468793</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>-1903685.061253595</v>
+        <v>25.56075544994235</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>1747712.135867534</v>
+        <v>25.63804304829218</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>1942474.472368016</v>
+        <v>25.65290167719913</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>-1475680.268657577</v>
+        <v>25.60302711371548</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>3520071.193526293</v>
+        <v>25.66506056639047</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>3776661.901584784</v>
+        <v>25.6773078905721</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>2404184.152722634</v>
+        <v>25.70059823778851</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>2917763.720121935</v>
+        <v>25.728067704035</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>3041943.525612275</v>
+        <v>25.74365425866034</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>40503.59941967877</v>
+        <v>25.58665502600624</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>1700481.212152212</v>
+        <v>25.69686989939128</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>2516059.748132335</v>
+        <v>25.72037623837308</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>-355163.5980114486</v>
+        <v>25.52109880374549</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>907980.5223824031</v>
+        <v>25.6648396932641</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>1238607.133764015</v>
+        <v>25.70530133730764</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>-1261120.116480789</v>
+        <v>25.53469776961146</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>500577.8116042562</v>
+        <v>25.64996860389204</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>999085.4374322128</v>
+        <v>25.68565558189962</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>-1084615.284910486</v>
+        <v>25.60025082125187</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>1727974.307193929</v>
+        <v>25.69256788607829</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>2449944.52294196</v>
+        <v>25.72178230744041</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>1063745.427953857</v>
+        <v>25.73983246256569</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>1561614.813904307</v>
+        <v>25.78474762017671</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>1568748.154782647</v>
+        <v>25.81732257901555</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>-93148.2434144498</v>
+        <v>25.59506613445649</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>1776473.012783502</v>
+        <v>25.76497238932802</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>1877064.708056354</v>
+        <v>25.81340130258099</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>-171419.1133418892</v>
+        <v>25.5314693044422</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>1214647.844243789</v>
+        <v>25.70219537117004</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>1524858.744620931</v>
+        <v>25.74319112519731</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>-975503.7141939135</v>
+        <v>25.55402896187883</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>903722.8593671984</v>
+        <v>25.69710938505118</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>1275216.639934487</v>
+        <v>25.73353818790113</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>-858756.4686992355</v>
+        <v>25.6334586272038</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>2198797.585146772</v>
+        <v>25.74890383003405</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>2717368.885005391</v>
+        <v>25.7785767396049</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>1868627.532015124</v>
+        <v>25.84148308907738</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>2218501.361526687</v>
+        <v>25.89015426230955</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>2450938.447429885</v>
+        <v>25.9275669156629</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>142840.3422948844</v>
+        <v>25.6569473241322</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>2048540.583030761</v>
+        <v>25.86656118653992</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>2233752.981389404</v>
+        <v>25.9152628683287</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>-747476.0619508687</v>
+        <v>25.54674292012093</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>1748213.973141247</v>
+        <v>25.61757278602874</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>2310952.556053406</v>
+        <v>25.63298731483732</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>-1077354.901240466</v>
+        <v>25.56370444233157</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>4567014.038150916</v>
+        <v>25.61755707317855</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>4464664.558329588</v>
+        <v>25.62915022826299</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>-1355874.507875137</v>
+        <v>25.59332451616206</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>6254752.633793418</v>
+        <v>25.63645070779014</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>6300283.534995895</v>
+        <v>25.64602622088734</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>4448875.047251938</v>
+        <v>25.65970161160437</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>4879554.03554975</v>
+        <v>25.67830900270795</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>5169731.58678493</v>
+        <v>25.6908548253955</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>1214753.242210929</v>
+        <v>25.57847746028205</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>3488799.662041143</v>
+        <v>25.65540483686518</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>4780241.663492384</v>
+        <v>25.67381556197061</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>-225953.4355081375</v>
+        <v>25.53800495738197</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>1595479.004470913</v>
+        <v>25.64061146614674</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>2180751.753415772</v>
+        <v>25.67157997295489</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>2781.539705756264</v>
+        <v>25.5477486046749</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>2434863.036432459</v>
+        <v>25.6285781598713</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>3382249.069628816</v>
+        <v>25.65599669460918</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>-1119081.275189865</v>
+        <v>25.59382057496049</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>3086463.630868722</v>
+        <v>25.65840738895286</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>4395835.984508689</v>
+        <v>25.68088646339234</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>1965477.239861177</v>
+        <v>25.69037846474299</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>2620447.817415771</v>
+        <v>25.72127887716467</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>2653989.888349428</v>
+        <v>25.74691455065622</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>230953.3472543056</v>
+        <v>25.58711627201471</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>2964191.010771479</v>
+        <v>25.70663827433244</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>3314442.68757435</v>
+        <v>25.7440902037602</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>67589.75552601779</v>
+        <v>25.54721773613201</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>2114619.379812332</v>
+        <v>25.66961693638774</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>2531080.376096384</v>
+        <v>25.70104273813606</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>133644.4754191355</v>
+        <v>25.56386325372482</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>2726843.343274369</v>
+        <v>25.66505589681597</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>3334557.133736722</v>
+        <v>25.69309357180438</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>-751113.0677882793</v>
+        <v>25.62003784454725</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>3872466.116722294</v>
+        <v>25.70155841621177</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>4733140.362550404</v>
+        <v>25.72443187311433</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>3467869.543735602</v>
+        <v>25.76783817071729</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>3681836.517068934</v>
+        <v>25.80134382524341</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>4267085.24296298</v>
+        <v>25.83059387400301</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>819886.9826537891</v>
+        <v>25.63511690513629</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>3452108.916405526</v>
+        <v>25.78373215141768</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>3932839.664974868</v>
+        <v>25.82148278342376</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>-1446308.369879914</v>
+        <v>25.5189027520869</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>167413.7714961704</v>
+        <v>25.62061629635801</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>1009832.447893081</v>
+        <v>25.64118185003482</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>-2475990.751897767</v>
+        <v>25.54053425953958</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>354753.390111119</v>
+        <v>25.6190117591258</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>1018666.870892786</v>
+        <v>25.63447968445714</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>-1987884.128384238</v>
+        <v>25.58564460747788</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>2116151.050943483</v>
+        <v>25.6484707888522</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>2696083.979776671</v>
+        <v>25.66114731224935</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>1816882.549546965</v>
+        <v>25.67801265810909</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>2130090.054730359</v>
+        <v>25.70654148031888</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>2296338.023442688</v>
+        <v>25.72208177816547</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>-683976.4123015153</v>
+        <v>25.55647931900326</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>1564977.356957585</v>
+        <v>25.66937046189704</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>2255166.150993548</v>
+        <v>25.69305212509745</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>-759072.6517776205</v>
+        <v>25.48839237583196</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>331373.6243316976</v>
+        <v>25.63507809401395</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>819005.9943456083</v>
+        <v>25.67722683075259</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>-1584938.960609736</v>
+        <v>25.49732269256112</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>-93776.74354505485</v>
+        <v>25.61405447874573</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>459622.5098245462</v>
+        <v>25.651634301321</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>-1359077.59204713</v>
+        <v>25.56748465124399</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>948474.1614346347</v>
+        <v>25.6607709626493</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>1656939.019358399</v>
+        <v>25.69143547727012</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>462171.4527888841</v>
+        <v>25.69797751888921</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>852714.1875305583</v>
+        <v>25.74434064994856</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>910693.8836672885</v>
+        <v>25.77769358296664</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>-829662.7999642931</v>
+        <v>25.54336741144202</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>790429.0922377037</v>
+        <v>25.716966725824</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>1075582.504888655</v>
+        <v>25.76703191159451</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>-637394.2407587164</v>
+        <v>25.50130716108137</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>646871.7118128492</v>
+        <v>25.6763256715135</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>1243486.166213649</v>
+        <v>25.71899143669276</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>-1381315.185477629</v>
+        <v>25.51915364285248</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>389444.4250124158</v>
+        <v>25.66514638851823</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>972380.1033216332</v>
+        <v>25.70344033410406</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>-1216774.870857033</v>
+        <v>25.60420758538537</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>1443592.695046388</v>
+        <v>25.72182842565269</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>2127979.815677517</v>
+        <v>25.75293393062166</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>1261004.004845669</v>
+        <v>25.80568624111297</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>1611180.850007389</v>
+        <v>25.85613166990719</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>1954374.533773913</v>
+        <v>25.89488487516408</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>-513297.4952110174</v>
+        <v>25.60959722350448</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>1356782.34407039</v>
+        <v>25.82488738864304</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>1697380.583385227</v>
+        <v>25.87522520861543</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>-1305042.781464848</v>
+        <v>25.49222372249011</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>-752311.2756169724</v>
+        <v>25.58573581888062</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>-372565.6172714907</v>
+        <v>25.60694593670298</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>-2131759.14129492</v>
+        <v>25.50671773540639</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>-398605.4749198363</v>
+        <v>25.57654392376501</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>-323379.5426780976</v>
+        <v>25.59271677630514</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>-2076452.068738147</v>
+        <v>25.55055455920363</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>624819.9175248987</v>
+        <v>25.60639361943854</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>727556.8392409749</v>
+        <v>25.61970614652638</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>284985.636884116</v>
+        <v>25.6256881572757</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>571889.969261178</v>
+        <v>25.64938591338142</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>802251.6235481518</v>
+        <v>25.66630024733708</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>-500615.4615615512</v>
+        <v>25.51539864520155</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>73844.01827039414</v>
+        <v>25.61597241130454</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>481867.0576762745</v>
+        <v>25.64099203274034</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>-413432.3952958277</v>
+        <v>25.47922781207656</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>319841.2984988614</v>
+        <v>25.6154612844329</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>799875.8006501049</v>
+        <v>25.65853996332959</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>-1000826.014515774</v>
+        <v>25.48158396804103</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>17346.28805984222</v>
+        <v>25.58744125052668</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>621833.2986761805</v>
+        <v>25.62606177222009</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>-829289.9122282086</v>
+        <v>25.54896330060454</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>942737.6646669561</v>
+        <v>25.63345023560233</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>1715941.039350906</v>
+        <v>25.66505510744832</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>408491.8331259858</v>
+        <v>25.66306432677051</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>792655.6237689772</v>
+        <v>25.70334962196771</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>1041153.272581447</v>
+        <v>25.73831927466244</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>-366590.1704204661</v>
+        <v>25.52225195687558</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>815566.6684752143</v>
+        <v>25.68014605668822</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>1148112.354998205</v>
+        <v>25.73206067417451</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>-325894.9813738927</v>
+        <v>25.49763853411246</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>632821.968584751</v>
+        <v>25.66115111875216</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>1167140.314311871</v>
+        <v>25.70491520894188</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>-883180.1200986597</v>
+        <v>25.50897449869752</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>389168.2593761565</v>
+        <v>25.64294672182643</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>987344.4858096655</v>
+        <v>25.68249275777026</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>-710234.5406925182</v>
+        <v>25.5902161329292</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>1414879.429944431</v>
+        <v>25.69808038685267</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>2122298.80701508</v>
+        <v>25.7302874176104</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>1017449.308077148</v>
+        <v>25.77454400282361</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>1344598.237543427</v>
+        <v>25.8185524161496</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>1893521.517649285</v>
+        <v>25.85882561881561</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>-241485.5321842032</v>
+        <v>25.59355517438769</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>1059886.82401602</v>
+        <v>25.79157535889718</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>1610180.75829692</v>
+        <v>25.84408163648488</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>-2821904.646939956</v>
+        <v>25.53642179662805</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>-1100254.26513906</v>
+        <v>25.60604694739234</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>-246937.8188224842</v>
+        <v>25.62177432484955</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>-4030819.964748015</v>
+        <v>25.55166752673873</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>725547.9437800859</v>
+        <v>25.60424902253631</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>964486.7198778904</v>
+        <v>25.61623400628356</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>-4302180.456395669</v>
+        <v>25.58154227043263</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>2363996.215083438</v>
+        <v>25.62362665797447</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>2750215.152846063</v>
+        <v>25.63352513803122</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>1827905.86745494</v>
+        <v>25.64407170526708</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>2388197.203077038</v>
+        <v>25.66224241244285</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>2821118.49990539</v>
+        <v>25.67499992223839</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>-532974.9448067866</v>
+        <v>25.56418905699186</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>1646211.633319591</v>
+        <v>25.63949351457826</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>2995477.445195408</v>
+        <v>25.65839167790011</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>-1485691.303372473</v>
+        <v>25.52425257543511</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>-73784.80637214682</v>
+        <v>25.62525036849583</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>1033926.560276391</v>
+        <v>25.65673539535139</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>-1666795.702003588</v>
+        <v>25.53181337524564</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>281762.6977922694</v>
+        <v>25.61095443760468</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>1842668.694722081</v>
+        <v>25.63901362841683</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>-2681236.418924178</v>
+        <v>25.57818138334745</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>1000476.306105887</v>
+        <v>25.64138376432378</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>2918271.919571252</v>
+        <v>25.66439205084108</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>703630.6225309108</v>
+        <v>25.66954243895676</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>1389392.404028442</v>
+        <v>25.69987214649665</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>1720321.606291064</v>
+        <v>25.72581857105899</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>-917817.2980657972</v>
+        <v>25.56786523503338</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>1684524.753892164</v>
+        <v>25.68520988672686</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>2430368.044803245</v>
+        <v>25.72346713232679</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>-1122546.859041751</v>
+        <v>25.53402491686755</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>619824.2076521346</v>
+        <v>25.65467630912853</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>1430898.243941588</v>
+        <v>25.68667992476359</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>-1541466.562466111</v>
+        <v>25.54848965491695</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>675633.9879059894</v>
+        <v>25.64784845942484</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>1759631.788533849</v>
+        <v>25.67659922572371</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>-2283097.344419985</v>
+        <v>25.60487243982007</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>1936511.904184365</v>
+        <v>25.68488593007591</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>3256422.682328554</v>
+        <v>25.70834765449091</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>2224716.730981407</v>
+        <v>25.74733257460284</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>2436119.503559156</v>
+        <v>25.78025172480324</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>3226803.850281431</v>
+        <v>25.80986532827756</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>-280023.5794113224</v>
+        <v>25.6163800489262</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>2221980.901836859</v>
+        <v>25.76261093574944</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>3038686.796435455</v>
+        <v>25.80127786420167</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>-751944.938315456</v>
+        <v>25.52678108803951</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>677979.5946084657</v>
+        <v>25.63326098036512</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>1192361.138665432</v>
+        <v>25.65418121604517</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>-1021322.448244983</v>
+        <v>25.55351058349393</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>1685526.811803307</v>
+        <v>25.63493170590331</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>1849291.701415396</v>
+        <v>25.65030232722956</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>-865252.9314473338</v>
+        <v>25.59979605491061</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>2862401.875490536</v>
+        <v>25.6651356646937</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>3015936.737856385</v>
+        <v>25.6777342701161</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>2194090.905102005</v>
+        <v>25.70147610534159</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>2391425.444503536</v>
+        <v>25.7298245035071</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>2610423.139405407</v>
+        <v>25.74623660939332</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>205798.8346633349</v>
+        <v>25.57665180179244</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>1294742.766807258</v>
+        <v>25.69319138647915</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>2223612.801013817</v>
+        <v>25.71767202671406</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>-131280.4082165395</v>
+        <v>25.50754686316212</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>758399.1525441365</v>
+        <v>25.66138081399194</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>975418.2460179494</v>
+        <v>25.70428449197319</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>-593786.7064077146</v>
+        <v>25.52205158518849</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>646852.3532011859</v>
+        <v>25.64365803547057</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>884040.877139686</v>
+        <v>25.68141166206902</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>-600339.188417441</v>
+        <v>25.5942364321671</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>1352726.006416524</v>
+        <v>25.69159841465606</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>1722044.792483275</v>
+        <v>25.72240827359402</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>778743.7577668697</v>
+        <v>25.73928616614944</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>1040691.800642311</v>
+        <v>25.78592691867813</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>1013432.863543556</v>
+        <v>25.82063672184404</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>-35153.7894327735</v>
+        <v>25.58078476329677</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>1124786.001076378</v>
+        <v>25.76086269629108</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>1257990.681308889</v>
+        <v>25.81203935417826</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>-182565.59480008</v>
+        <v>25.52111472053134</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>895358.6437577397</v>
+        <v>25.70475701973771</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>1074611.616153603</v>
+        <v>25.74798986534745</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>-537002.2598871809</v>
+        <v>25.54518541780388</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>922429.8144701414</v>
+        <v>25.69752293239712</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>1057189.831463421</v>
+        <v>25.73579839032989</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>-578335.7856918337</v>
+        <v>25.63281462206561</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>1668828.212796773</v>
+        <v>25.75573961897747</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>1882784.392195891</v>
+        <v>25.78681769738974</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>1436903.117952903</v>
+        <v>25.85299622478802</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>1596292.317696493</v>
+        <v>25.9036354323795</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>1753804.445692597</v>
+        <v>25.9436912138455</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>167782.4381184484</v>
+        <v>25.65068041923576</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>1473358.099483429</v>
+        <v>25.87458166025734</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>1643143.178644546</v>
+        <v>25.92577942188798</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>-1327631.653780197</v>
+        <v>25.51893048124504</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>313962.780685886</v>
+        <v>25.62342074822367</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>1059985.962660117</v>
+        <v>25.64447018284075</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>-2103855.983735261</v>
+        <v>25.54187997766306</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>801129.1777153541</v>
+        <v>25.62282261373982</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>1320808.916066748</v>
+        <v>25.63869124535611</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>-1780792.442011829</v>
+        <v>25.5877098853687</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>2317126.4047355</v>
+        <v>25.65255472459848</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>2791687.998132306</v>
+        <v>25.66556237456244</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>1693236.218878423</v>
+        <v>25.68326365821941</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>2167767.037402081</v>
+        <v>25.71233466078066</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>2299691.376234517</v>
+        <v>25.7282632069391</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>-623775.4676728157</v>
+        <v>25.55856951898235</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>1551385.285931785</v>
+        <v>25.67478113135535</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>2249402.747897367</v>
+        <v>25.6991593949591</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>-591224.8199314615</v>
+        <v>25.48731560267118</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>495888.1087154544</v>
+        <v>25.63789345917738</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>914869.6593777166</v>
+        <v>25.68097457229473</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>-1329767.061623471</v>
+        <v>25.49744658382128</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>156392.3628162267</v>
+        <v>25.61769322337569</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>635045.8412540853</v>
+        <v>25.65612727444815</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>-1148443.638481225</v>
+        <v>25.56878790817764</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>1130965.371559111</v>
+        <v>25.66493852273492</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>1767641.763222464</v>
+        <v>25.69630777607322</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>580363.4137479427</v>
+        <v>25.70338105333663</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>1006304.407269893</v>
+        <v>25.75059556592486</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>1062808.138479355</v>
+        <v>25.78475729072655</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>-550374.5794736346</v>
+        <v>25.54477141102522</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>1087047.544880213</v>
+        <v>25.72322061714363</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>1274463.204204</v>
+        <v>25.7745422218733</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>-655057.519791814</v>
+        <v>25.49696914963301</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>504596.0492328291</v>
+        <v>25.67628686098681</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>1080884.254133746</v>
+        <v>25.72000144326536</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>-1303374.831622296</v>
+        <v>25.51589198953191</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>309913.3198967446</v>
+        <v>25.66580487340877</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>877802.2327201711</v>
+        <v>25.70509548175364</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>-1279781.06349025</v>
+        <v>25.60244549372371</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>1195985.709129575</v>
+        <v>25.72326717156847</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>1873438.362014832</v>
+        <v>25.75519064241319</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>1085041.454077793</v>
+        <v>25.80850413518295</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>1436390.866698732</v>
+        <v>25.85972781829648</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>1795125.710147536</v>
+        <v>25.89942727420911</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>-463461.1420176019</v>
+        <v>25.60761325855792</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>1268883.059345779</v>
+        <v>25.82835395455711</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>1599280.288458494</v>
+        <v>25.88011557033705</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/ligand/LOO_XPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/ligand/LOO_XPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.459</v>
+        <v>0.534</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.374</v>
+        <v>17.915</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.09</v>
+        <v>-0.912</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.298</v>
+        <v>24.236</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.722</v>
+        <v>0.923</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.067</v>
+        <v>7.906</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>25.50411629447316</v>
+        <v>10.99316381981168</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>25.60028483011589</v>
+        <v>18.70341181013416</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>25.62190829136721</v>
+        <v>22.03283439847814</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>25.52256682971921</v>
+        <v>-2.785519415420765</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>25.59506886026416</v>
+        <v>22.24477992500655</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>25.6115446498371</v>
+        <v>22.39374014773612</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>25.5654977948272</v>
+        <v>-0.5882368840264078</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>25.6235239978958</v>
+        <v>31.89570243819589</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>25.63711651841087</v>
+        <v>32.71974609588708</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>25.6495192390485</v>
+        <v>29.29397299679456</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>25.67487467191881</v>
+        <v>35.53295575561962</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>25.69216008910344</v>
+        <v>37.07074408680618</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>25.53890370624356</v>
+        <v>14.84803388941048</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>25.64299066211743</v>
+        <v>29.87078596747703</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>25.66885143833585</v>
+        <v>36.92100047959692</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>25.49173964526627</v>
+        <v>21.66957418543231</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>25.63149853619237</v>
+        <v>36.24526152355681</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>25.67495528440386</v>
+        <v>43.36964858672827</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>25.49924520618953</v>
+        <v>9.873672775387128</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>25.60868292050917</v>
+        <v>32.46944044294824</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>25.64746863559505</v>
+        <v>44.2346133383361</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>25.56541954551993</v>
+        <v>12.79960597987288</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>25.65282171779516</v>
+        <v>48.01366225937824</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>25.68460207509782</v>
+        <v>61.94274140905263</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>25.69056465518665</v>
+        <v>46.18393495326526</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>25.73298470995257</v>
+        <v>58.67607115041542</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>25.76836986417568</v>
+        <v>61.00330609351062</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>25.54961994155963</v>
+        <v>24.62548087733189</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>25.71222875547883</v>
+        <v>63.89726419562714</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>25.76490361861098</v>
+        <v>69.12934822132861</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>25.50913534600225</v>
+        <v>25.44171556165744</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>25.67628065087161</v>
+        <v>46.62795185649799</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>25.72044456425071</v>
+        <v>52.08220074855603</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>25.52643633338052</v>
+        <v>13.54752854589383</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>25.66407228658408</v>
+        <v>44.33754992306843</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>25.70380914841686</v>
+        <v>52.63987939331147</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>25.60641900536933</v>
+        <v>16.02097671193501</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>25.7172655091898</v>
+        <v>63.26445750608839</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>25.74966834502327</v>
+        <v>73.18325361169592</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>25.80313321978146</v>
+        <v>73.65521015638036</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>25.84930482646308</v>
+        <v>83.12345676468418</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>25.88982573574516</v>
+        <v>90.99819952326398</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>25.62168776481391</v>
+        <v>35.64206904079154</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>25.82456833101762</v>
+        <v>81.60926069114151</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>25.87781097079086</v>
+        <v>87.66767016375157</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>25.51596393772421</v>
+        <v>12.74284377283232</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>25.63270983416356</v>
+        <v>33.83046663202393</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>25.65352051194372</v>
+        <v>40.08720969966384</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>25.54220036214418</v>
+        <v>5.658960389877979</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>25.63303703524279</v>
+        <v>43.36721407433879</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>25.64794503079542</v>
+        <v>47.53499737527061</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>25.59335347045107</v>
+        <v>11.29947226832742</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>25.66621761242873</v>
+        <v>58.06484208713688</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>25.67838043638728</v>
+        <v>60.88523308764086</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>25.70064964693108</v>
+        <v>59.53938542993421</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>25.73411617870382</v>
+        <v>69.2730138123992</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>25.74966242356537</v>
+        <v>68.71907476528891</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>25.56251773796058</v>
+        <v>20.14023638423162</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>25.69307981759165</v>
+        <v>53.72530764576371</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>25.71601087999546</v>
+        <v>62.22684477600774</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>25.48579466927531</v>
+        <v>17.52725404787613</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>25.65379621888623</v>
+        <v>40.59933828202942</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>25.69786212037486</v>
+        <v>49.30828220532553</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>25.49853313825751</v>
+        <v>0.9639675250866837</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>25.63307013289165</v>
+        <v>35.96967127637454</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>25.67176854759109</v>
+        <v>46.31867724772592</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>25.57799308112494</v>
+        <v>10.92570027090403</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>25.68571540076275</v>
+        <v>55.91602232361564</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>25.71720246769943</v>
+        <v>67.31091971568942</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>25.73063957454321</v>
+        <v>49.78199309758407</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>25.78462481365489</v>
+        <v>62.71005398014232</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>25.81949764551929</v>
+        <v>62.99149413364651</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>25.55530897816439</v>
+        <v>15.05203165056591</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>25.75521195327966</v>
+        <v>63.63146703284809</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>25.80624109012174</v>
+        <v>69.95478323732819</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>25.50525395649558</v>
+        <v>17.82161286119832</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>25.70562338550372</v>
+        <v>46.540267596033</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>25.74975999583357</v>
+        <v>54.87119426151063</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>25.52774421653216</v>
+        <v>0.2998046984831007</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>25.69574844673052</v>
+        <v>45.37046761241119</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>25.73467466946019</v>
+        <v>53.01270962821981</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>25.62425922817014</v>
+        <v>11.56008760621027</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>25.75982714029901</v>
+        <v>68.47053681324321</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>25.79134022295775</v>
+        <v>76.26802828503391</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>25.8575204531103</v>
+        <v>73.66787321340605</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>25.91622345140001</v>
+        <v>87.25591664892154</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>25.95680947178591</v>
+        <v>89.82822692313994</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>25.63528336501133</v>
+        <v>20.81501303206873</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>25.88275327615253</v>
+        <v>80.92982927517863</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>25.93331457375212</v>
+        <v>84.59923386961661</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>25.51213666817468</v>
+        <v>15.45871629055126</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>25.62800704885865</v>
+        <v>31.37126723568788</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>25.64847721041657</v>
+        <v>36.43828182960917</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>25.53778269014054</v>
+        <v>8.562980512302232</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>25.62750004745221</v>
+        <v>41.17390101898241</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>25.64205731036826</v>
+        <v>43.25178955744301</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>25.58896353456348</v>
+        <v>14.12855452440559</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>25.66090770366424</v>
+        <v>56.00047321253302</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>25.67276219246759</v>
+        <v>56.70441494286023</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>25.69579279559706</v>
+        <v>51.64308333754993</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>25.72853754968415</v>
+        <v>62.02433742718654</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>25.74373477268303</v>
+        <v>61.16415397846716</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>25.55816340239001</v>
+        <v>24.88417957443491</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>25.6873043941828</v>
+        <v>53.89480423108922</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>25.70969833998651</v>
+        <v>59.67041164909504</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>25.48688447065858</v>
+        <v>22.95498067893988</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>25.65383596574209</v>
+        <v>44.4723338691791</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>25.69734689248264</v>
+        <v>50.4468364910846</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>25.4993133493052</v>
+        <v>7.905867738062817</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>25.6325011878064</v>
+        <v>41.60191859071111</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>25.67060442690112</v>
+        <v>48.03575907790479</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>25.57861574476864</v>
+        <v>16.41407472592951</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>25.68522549537123</v>
+        <v>60.31885925804228</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>25.71619953174277</v>
+        <v>67.98454623423306</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>25.7317629480969</v>
+        <v>53.67483432046888</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>25.78471297208218</v>
+        <v>65.63175149767703</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>25.81900146104727</v>
+        <v>64.35725904895281</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>25.55688031206551</v>
+        <v>24.02507149458443</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>25.7550140690985</v>
+        <v>68.10152675818513</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>25.80517858683239</v>
+        <v>69.93835130937346</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>25.50792990082153</v>
+        <v>24.39952447970523</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>25.70733226571524</v>
+        <v>51.2989612615446</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>25.75090504667208</v>
+        <v>57.66560677780828</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>25.53043870228455</v>
+        <v>7.329624313881471</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>25.69718998177236</v>
+        <v>51.01703577769441</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>25.73551318882118</v>
+        <v>55.68119079682191</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>25.62670251667364</v>
+        <v>15.93372131326428</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>25.7612341497648</v>
+        <v>71.67202773214099</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>25.7922282873647</v>
+        <v>76.67846699210365</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>25.86100371754233</v>
+        <v>80.4467697998715</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>25.91865675757052</v>
+        <v>91.75057273847666</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>25.95860567671786</v>
+        <v>93.06980615091378</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>25.63908431731648</v>
+        <v>32.6043524317826</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>25.88492402058851</v>
+        <v>88.18153230336473</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>25.93461068796188</v>
+        <v>88.85701379317076</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>25.49305065770097</v>
+        <v>15.22802423061204</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>25.58832322697781</v>
+        <v>20.9377248575052</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>25.60957515397443</v>
+        <v>23.03188453317507</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>25.50992704113668</v>
+        <v>4.084772105948538</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>25.58093139279821</v>
+        <v>25.97362839616356</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>25.59680568619931</v>
+        <v>24.66180919747745</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>25.55263534429569</v>
+        <v>6.047522041086392</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>25.60938511911411</v>
+        <v>35.26762913220132</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>25.62248917242515</v>
+        <v>34.99503378612158</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>25.6308717943621</v>
+        <v>33.77117205745145</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>25.65541670260353</v>
+        <v>37.03517694291683</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>25.67293546744878</v>
+        <v>41.26073248639613</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>25.52167635214916</v>
+        <v>39.41652441491689</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>25.6237635641545</v>
+        <v>48.79678677582048</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>25.64882505132974</v>
+        <v>55.24631994503519</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>25.4726165053243</v>
+        <v>20.76286446294479</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>25.61103035010789</v>
+        <v>34.54631763673854</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>25.65415701673497</v>
+        <v>40.38248736717033</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>25.47757407211964</v>
+        <v>11.92821921581937</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>25.58480354884267</v>
+        <v>32.57636719756962</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>25.62298208508093</v>
+        <v>42.68248525007968</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>25.54364516535279</v>
+        <v>14.27875937839887</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>25.62917158988722</v>
+        <v>47.43480073091557</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>25.66045863728531</v>
+        <v>60.06553356525475</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>25.66043143707127</v>
+        <v>39.88711871480976</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>25.7016575499226</v>
+        <v>50.5737650611577</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>25.73764524699669</v>
+        <v>58.23376759502398</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>25.52149997461933</v>
+        <v>27.18440949631422</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>25.68124771160522</v>
+        <v>61.91333119032851</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>25.73309684622487</v>
+        <v>66.5435661135723</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>25.49184774048035</v>
+        <v>25.33044147109159</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>25.65793871966848</v>
+        <v>42.34325107612479</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>25.70166166473353</v>
+        <v>48.64517950443452</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>25.50646766646786</v>
+        <v>13.75303238509581</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>25.64218489925044</v>
+        <v>38.76332132961349</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>25.68118061183177</v>
+        <v>47.81007138609802</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>25.58662051413633</v>
+        <v>17.42619775761808</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>25.6958354475294</v>
+        <v>59.09575642750046</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>25.72763419776694</v>
+        <v>70.1014610259638</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>25.77592737321281</v>
+        <v>65.77596882706196</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>25.82082556389185</v>
+        <v>73.20210296625278</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>25.86190923019218</v>
+        <v>86.76423598852193</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>25.59594614184559</v>
+        <v>39.18485590597296</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>25.79633655058419</v>
+        <v>75.32707393196148</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>25.8485417591037</v>
+        <v>82.97696007941491</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>25.52589051889291</v>
+        <v>23.86649406158051</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>25.62547756751797</v>
+        <v>38.65290021227599</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>25.64590681046051</v>
+        <v>39.93226935408429</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>25.5480328726204</v>
+        <v>14.59119977229433</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>25.62468544875653</v>
+        <v>48.20069484947216</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>25.63976318932132</v>
+        <v>46.4576936022988</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>25.59043807779281</v>
+        <v>19.4986478677107</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>25.65187526035506</v>
+        <v>60.54732754793234</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>25.664331442467</v>
+        <v>59.37966546931426</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>25.6835989292796</v>
+        <v>55.51271806439235</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>25.71054771242335</v>
+        <v>60.65830317621152</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>25.72705179365517</v>
+        <v>63.0140427873298</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>25.56912902982719</v>
+        <v>27.66836499853261</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>25.67839713574501</v>
+        <v>40.87575315720945</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>25.70233328256338</v>
+        <v>45.62943656572712</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>25.5204869725226</v>
+        <v>29.0816912578474</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>25.6646458195429</v>
+        <v>51.06888394424693</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>25.70608194828451</v>
+        <v>51.94684663111042</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>25.53304554298631</v>
+        <v>14.46348955028275</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>25.64780072677919</v>
+        <v>47.34697936863279</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>25.68421798031476</v>
+        <v>51.31303893315422</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>25.59856509562111</v>
+        <v>19.26528178732298</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>25.69035027151455</v>
+        <v>64.24927922443287</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>25.72019924879282</v>
+        <v>70.7894167946591</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>25.73629560185536</v>
+        <v>60.27045290383117</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>25.78065823728104</v>
+        <v>71.65632390962084</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>25.81486968151761</v>
+        <v>74.1353001098288</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>25.59092025355753</v>
+        <v>37.76038786548579</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>25.76013475751664</v>
+        <v>78.6982114340758</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>25.80964394389057</v>
+        <v>75.67901626079647</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>25.53162969828437</v>
+        <v>30.33783332837084</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>25.70327378240119</v>
+        <v>53.99544054990918</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>25.74526248169502</v>
+        <v>57.94951158569899</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>25.55329911712927</v>
+        <v>13.93570673260982</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>25.69636571770495</v>
+        <v>49.13180527331628</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>25.73354430181166</v>
+        <v>55.15194000330235</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>25.6330142740681</v>
+        <v>18.34456599139757</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>25.74834442004766</v>
+        <v>69.69503987385649</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>25.77866494660974</v>
+        <v>77.81149696766467</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>25.84083210291562</v>
+        <v>81.09290173191847</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>25.88895497287966</v>
+        <v>88.99451593130904</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>25.92804586849591</v>
+        <v>99.59773046322037</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>25.65485003026535</v>
+        <v>43.02303365822875</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>25.86449575792433</v>
+        <v>86.86391424225539</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>25.91425615425288</v>
+        <v>89.74277716018254</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>25.48717608312871</v>
+        <v>15.22666777745837</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>25.63857535699253</v>
+        <v>32.46264674886354</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>25.66320807612559</v>
+        <v>36.4663911700071</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>25.52172307205433</v>
+        <v>11.83851349405001</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>25.64113121563303</v>
+        <v>45.52323229302718</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>25.65781524742216</v>
+        <v>46.23840617995889</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>25.58730531348335</v>
+        <v>18.09765989979279</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>25.68328837601967</v>
+        <v>60.59725043006252</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>25.69697906100057</v>
+        <v>60.87772614570994</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>25.72694928613419</v>
+        <v>56.66279153979852</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>25.77048187534108</v>
+        <v>64.09430519701853</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>25.78953411179719</v>
+        <v>67.37680082339473</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>25.54964149099824</v>
+        <v>13.91114132244496</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>25.71961725317851</v>
+        <v>20.62641279479965</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>25.74621928676105</v>
+        <v>25.36567447940963</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>25.48131210583462</v>
+        <v>22.73156593044338</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>25.6996121200544</v>
+        <v>52.3143987744515</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>25.75215465715165</v>
+        <v>53.62840084672676</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>25.50247419127122</v>
+        <v>3.6354419895215</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>25.6796481714731</v>
+        <v>47.8455622312611</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>25.72458116617382</v>
+        <v>48.97758597921969</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>25.60333198154237</v>
+        <v>14.37638289441995</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>25.74548297994084</v>
+        <v>67.54578468818374</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>25.78213997307211</v>
+        <v>70.47591037873919</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>25.8113295240739</v>
+        <v>56.54922147262691</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>25.88158900847582</v>
+        <v>71.38628529181892</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>25.92421133605771</v>
+        <v>73.58627877117959</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>25.58699758850702</v>
+        <v>30.01487194768031</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>25.84754963295045</v>
+        <v>77.85770302723552</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>25.90739441389851</v>
+        <v>76.27441860372961</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>25.49714921496585</v>
+        <v>22.92845576650991</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>25.75649216077622</v>
+        <v>52.18628139116272</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>25.80888646241292</v>
+        <v>57.06760634716642</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>25.5298983671762</v>
+        <v>2.502805007229608</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>25.74950682812423</v>
+        <v>49.04020188724473</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>25.79444894769576</v>
+        <v>52.18567580803048</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>25.65258932028004</v>
+        <v>13.77470608842346</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>25.83005038942385</v>
+        <v>71.26257501563701</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>25.8665127730139</v>
+        <v>75.68252978331478</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>25.96080660319133</v>
+        <v>75.27102386688684</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>26.03700897608406</v>
+        <v>87.65690929528316</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>26.08619424826128</v>
+        <v>93.52995500982948</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>25.67719963292639</v>
+        <v>29.11885557322588</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>25.99814583005486</v>
+        <v>84.5100776391379</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>26.05692476287699</v>
+        <v>84.30463400655228</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>25.43235943895726</v>
+        <v>3.526378887415397</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>25.5702950722744</v>
+        <v>9.375079023603025</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>25.59869003104309</v>
+        <v>14.38175046636824</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>25.45579846348539</v>
+        <v>-3.68934299492221</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>25.55889281335024</v>
+        <v>16.00917595083302</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>25.58003674006262</v>
+        <v>16.7336962072394</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>25.52176905793733</v>
+        <v>-1.94540152743226</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>25.60435446322914</v>
+        <v>26.43726120895037</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>25.62164791385831</v>
+        <v>26.94915331851283</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>25.63331531235767</v>
+        <v>19.97270084746216</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>25.67021474205261</v>
+        <v>29.41447602899073</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>25.69195533907491</v>
+        <v>29.05043518638049</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>25.4702857622709</v>
+        <v>8.606224303364254</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>25.61968255202126</v>
+        <v>19.03635472240437</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>25.65231205529533</v>
+        <v>22.96825556402976</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>25.41753949997666</v>
+        <v>18.13573912497843</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>25.61833275654473</v>
+        <v>30.91188226930295</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>25.67731463552867</v>
+        <v>40.19357341634191</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>25.4241972227061</v>
+        <v>4.621643578943146</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>25.58023909583075</v>
+        <v>25.92743398661607</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>25.63279902738039</v>
+        <v>36.56651959167034</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>25.52527430602863</v>
+        <v>13.08099386957856</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>25.65002332590992</v>
+        <v>44.27508535676466</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>25.69287275465419</v>
+        <v>56.40188837871458</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>25.69625121470453</v>
+        <v>36.79799876372293</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>25.75800285093469</v>
+        <v>48.65302340917477</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>25.80467100495795</v>
+        <v>50.22273481201395</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>25.48847086574585</v>
+        <v>20.67473215580975</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>25.72238967124538</v>
+        <v>52.36105095507882</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>25.79227316095528</v>
+        <v>57.273971050508</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>25.45510274805688</v>
+        <v>22.17607176434211</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>25.696617995926</v>
+        <v>41.87589030162433</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>25.75600251627924</v>
+        <v>50.40612403165495</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>25.47578629862948</v>
+        <v>9.225389877227691</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>25.67389711448021</v>
+        <v>41.24759743173774</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>25.72713973012601</v>
+        <v>49.32076162337094</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>25.597351699765</v>
+        <v>17.48277414227716</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>25.75708098147522</v>
+        <v>61.166402579497</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>25.80027523282465</v>
+        <v>69.9893845784283</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>25.87365813611849</v>
+        <v>68.08782011583018</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>25.94125787697552</v>
+        <v>79.19343802664176</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>25.99535267205851</v>
+        <v>83.26300720229825</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>25.60689814710769</v>
+        <v>35.51314128488602</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>25.90070006397637</v>
+        <v>78.95300247702804</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>25.97063576807799</v>
+        <v>83.92663649468744</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>25.46116600482652</v>
+        <v>5.65670577754635</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>25.57352168283434</v>
+        <v>10.04067887927948</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>25.59705408237783</v>
+        <v>11.70325566797891</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>25.48027981573543</v>
+        <v>-3.349063631972591</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>25.56583331913183</v>
+        <v>16.6929280076473</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>25.58324128173182</v>
+        <v>15.06486715206842</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>25.53110049824696</v>
+        <v>-4.402894013988092</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>25.59960436478536</v>
+        <v>23.80819170734022</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>25.61396929813524</v>
+        <v>22.89169475574672</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>25.62213275447399</v>
+        <v>18.95374872984021</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>25.65220061056113</v>
+        <v>21.64385119143583</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>25.67133757375876</v>
+        <v>24.40086466316276</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>25.49197892047436</v>
+        <v>8.494867373225564</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>25.61445556921738</v>
+        <v>13.03960234819509</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>25.64188957992604</v>
+        <v>16.14785521399594</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>25.42938842916494</v>
+        <v>7.136875516451518</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>25.5920816319141</v>
+        <v>15.97009444322877</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>25.63993430405883</v>
+        <v>19.50771798761244</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>25.43465711414956</v>
+        <v>-5.175448638370739</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>25.56291449634399</v>
+        <v>10.83856601811117</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>25.60507662864859</v>
+        <v>17.41523723906766</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>25.51306918011066</v>
+        <v>-5.851932495747409</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>25.61555504504111</v>
+        <v>22.82188330954649</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>25.65008908144534</v>
+        <v>32.32260606295148</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>25.64830272985834</v>
+        <v>13.70430333461879</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>25.69799840416986</v>
+        <v>24.55310592236103</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>25.73771278415905</v>
+        <v>32.38595681373351</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>25.48303150731128</v>
+        <v>2.340692269265524</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>25.67308427296275</v>
+        <v>28.61327828971082</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>25.73014702719518</v>
+        <v>26.66546491550151</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>25.44184156515309</v>
+        <v>10.8190911386376</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>25.63620587477732</v>
+        <v>22.64924942844365</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>25.68477436850903</v>
+        <v>34.9814836333012</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>25.45726058450599</v>
+        <v>-4.794750465451468</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>25.6181493536646</v>
+        <v>15.63943619912289</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>25.6612796967755</v>
+        <v>31.24661830227591</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>25.55216767698295</v>
+        <v>-3.043687302313234</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>25.68179049914716</v>
+        <v>33.69695105948833</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>25.71694496983414</v>
+        <v>51.39500442120944</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>25.7675935401804</v>
+        <v>36.63953956537371</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>25.82163977058631</v>
+        <v>47.88173724510064</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>25.86711519441851</v>
+        <v>67.14863437556181</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>25.5554861928157</v>
+        <v>8.818111016954536</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>25.7921152540966</v>
+        <v>38.85252425500872</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>25.84958476676639</v>
+        <v>50.86364054738461</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>25.52414188452978</v>
+        <v>8.485169828027686</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>25.66585715279989</v>
+        <v>30.11351670712625</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>25.68923040630111</v>
+        <v>38.84751842592889</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>25.5609746263266</v>
+        <v>7.822419794182441</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>25.6731396599247</v>
+        <v>49.60265562250902</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>25.68953955589033</v>
+        <v>53.85956420356679</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>25.62225347515793</v>
+        <v>15.86761351458376</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>25.71255298361222</v>
+        <v>66.45633947721358</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>25.72593744901843</v>
+        <v>69.99596681853953</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>25.76560727892646</v>
+        <v>66.96480462871769</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>25.80657285026982</v>
+        <v>78.95888778128831</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>25.82346955044729</v>
+        <v>78.66047335267918</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>25.60018156565394</v>
+        <v>27.63346346816876</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>25.76029248520909</v>
+        <v>55.05816013379527</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>25.78612266044481</v>
+        <v>66.28379503701628</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>25.49711258284889</v>
+        <v>15.81319708713252</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>25.70099125419186</v>
+        <v>38.12510352503697</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>25.75029522723375</v>
+        <v>44.77022488563659</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>25.51942688224159</v>
+        <v>-2.099620653184484</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>25.68534044156047</v>
+        <v>34.17425185391755</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>25.72809181497221</v>
+        <v>40.62170376310642</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>25.61444648367045</v>
+        <v>9.091198351274958</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>25.74773205860269</v>
+        <v>55.2099977383414</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>25.78252031384418</v>
+        <v>63.44335744669084</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>25.81656775049542</v>
+        <v>49.5109661145701</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>25.88235591988283</v>
+        <v>59.88702584355944</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>25.92045456996506</v>
+        <v>59.49723481322479</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>25.60691096513182</v>
+        <v>24.16418294098383</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>25.85137901287387</v>
+        <v>66.45309138787512</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>25.90818235649356</v>
+        <v>68.00716603977173</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>25.51101895180308</v>
+        <v>18.29421013835306</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>25.75278933476839</v>
+        <v>43.0361788615373</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>25.80214586570454</v>
+        <v>50.86592760643178</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>25.54452109737827</v>
+        <v>0.9686308452676649</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>25.74962209772808</v>
+        <v>43.2661961277255</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>25.79261369255476</v>
+        <v>49.0445908627795</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>25.65938837870647</v>
+        <v>11.21358308691609</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>25.82527629968718</v>
+        <v>65.04608695123741</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>25.8600732759921</v>
+        <v>71.68009399174596</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>25.95390466440962</v>
+        <v>73.11083142614598</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>26.02524388924375</v>
+        <v>83.31373325112317</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>26.06970072238502</v>
+        <v>84.94466820287739</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>25.68953110021491</v>
+        <v>29.54548109522907</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>25.9897894144567</v>
+        <v>81.89454810334412</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>26.04601242057212</v>
+        <v>84.73050988280211</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>25.4492749100283</v>
+        <v>5.706307292049935</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>25.56475575240228</v>
+        <v>11.91237737767925</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>25.59116765897553</v>
+        <v>18.33589211235494</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>25.46600436789227</v>
+        <v>-5.955874941937275</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>25.55173832562144</v>
+        <v>9.365074104281238</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>25.57222904571773</v>
+        <v>15.14251837637776</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>25.52139694811807</v>
+        <v>-5.040191043763283</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>25.58979564078632</v>
+        <v>18.5775045574353</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>25.60657454533562</v>
+        <v>23.25770115745608</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>25.60610656865342</v>
+        <v>19.68548758047352</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>25.63750485009381</v>
+        <v>24.21470858117956</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>25.65794797392591</v>
+        <v>25.11970308704934</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>25.46622629489244</v>
+        <v>2.020526797651677</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>25.59123244427298</v>
+        <v>19.60370885536553</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>25.62203812386853</v>
+        <v>25.43746338312616</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>25.41778724885951</v>
+        <v>11.67076855530282</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>25.58546660264027</v>
+        <v>21.67647854385234</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>25.63968118855708</v>
+        <v>34.46428273825055</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>25.41829253699787</v>
+        <v>-1.326993849365117</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>25.54757280429843</v>
+        <v>14.17879643172849</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>25.59683509135197</v>
+        <v>30.28666334777068</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>25.50373876053968</v>
+        <v>4.813190623594981</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>25.60672121411567</v>
+        <v>29.28524580729564</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>25.64691505961971</v>
+        <v>46.1877459643341</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>25.631719650927</v>
+        <v>21.90097187165084</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>25.68401638371396</v>
+        <v>32.96236411965517</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>25.72734777036493</v>
+        <v>36.75041251435337</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>25.45320527477918</v>
+        <v>2.103941366865023</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>25.64840837152095</v>
+        <v>32.33028862755351</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>25.71360129000432</v>
+        <v>44.37225152566866</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>25.4483925087603</v>
+        <v>13.51101534514616</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>25.65051652716821</v>
+        <v>30.03965376777586</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>25.70544582071661</v>
+        <v>44.82042133933027</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>25.46044082726163</v>
+        <v>0.6804232039864857</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>25.62528997862728</v>
+        <v>26.17343705316996</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>25.67554303436252</v>
+        <v>43.24328559157347</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>25.56367247249377</v>
+        <v>7.503889434099374</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>25.69622992645239</v>
+        <v>43.65266859985393</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>25.73705747227116</v>
+        <v>60.76509059711022</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>25.78092010696409</v>
+        <v>46.54643729130697</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>25.8382007683347</v>
+        <v>57.38973020439702</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>25.88853559897481</v>
+        <v>71.1087879257728</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>25.55217926054075</v>
+        <v>15.60485585751774</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>25.79799516314803</v>
+        <v>55.83256730618659</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>25.86378240773502</v>
+        <v>69.1990609042347</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>25.50262031405151</v>
+        <v>1.369592007029063</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>25.6203902984797</v>
+        <v>8.127971004341138</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>25.64124124098029</v>
+        <v>11.20088282157431</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>25.52648741317661</v>
+        <v>-7.07479140647138</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>25.61721314180748</v>
+        <v>11.92884338092623</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>25.6317647604456</v>
+        <v>13.20379717777455</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>25.57816423271144</v>
+        <v>-7.671366566022886</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>25.65079200863376</v>
+        <v>20.22831745318572</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>25.66267873409245</v>
+        <v>20.25146001413575</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>25.68052605795026</v>
+        <v>16.16774816541276</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>25.71364137641111</v>
+        <v>19.83446531610307</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>25.72989511504668</v>
+        <v>22.66942899842452</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>25.53989694423492</v>
+        <v>-1.219687299725319</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>25.67038113204038</v>
+        <v>7.960130621402818</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>25.69282062981011</v>
+        <v>10.97902734652221</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>25.49299481249222</v>
+        <v>19.53205205944338</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>25.66295172639064</v>
+        <v>41.24314152769877</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>25.70764173884563</v>
+        <v>43.53025737985933</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>25.5047417972082</v>
+        <v>5.599313584749588</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>25.6397476383373</v>
+        <v>38.50322298294389</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>25.67862614197936</v>
+        <v>41.15305013610946</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>25.58449037104652</v>
+        <v>11.29634492572751</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>25.69239682777421</v>
+        <v>53.4102543017373</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>25.7240488154967</v>
+        <v>57.16689993980012</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>25.73754327236035</v>
+        <v>45.40732590800883</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>25.79130307354309</v>
+        <v>57.27639928001274</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>25.82777018320878</v>
+        <v>57.60623467034961</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>25.5590044657882</v>
+        <v>20.21651284459011</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>25.75983193092353</v>
+        <v>61.77383249692785</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>25.81100096738466</v>
+        <v>61.56381430228296</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>25.51663307173993</v>
+        <v>21.90315934028357</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>25.72005137068436</v>
+        <v>48.13696431776405</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>25.76469627534814</v>
+        <v>52.46599575426503</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>25.53854030211878</v>
+        <v>5.734345259034107</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>25.70814851879818</v>
+        <v>47.28083578408351</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>25.74711884859045</v>
+        <v>50.07427292229092</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>25.63595119930064</v>
+        <v>13.31146123702963</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>25.77264690145359</v>
+        <v>66.01497558402107</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>25.8042098205071</v>
+        <v>69.32100660799676</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>25.87308334837228</v>
+        <v>73.67262827377617</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>25.93164598213295</v>
+        <v>83.46956469423095</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>25.9738098075132</v>
+        <v>87.46422813366601</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>25.64600451635684</v>
+        <v>28.50325060893056</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>25.89599530022908</v>
+        <v>80.61685702491782</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>25.9464337814719</v>
+        <v>79.43219891533674</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>25.46821327751437</v>
+        <v>9.378008500210793</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>25.57265013473776</v>
+        <v>14.54984006217313</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>25.59329605823246</v>
+        <v>18.13628003303788</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>25.48419880076858</v>
+        <v>-0.8164742541538637</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>25.56156889270926</v>
+        <v>15.72903416617478</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>25.57647896325642</v>
+        <v>16.65207739876154</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>25.53377436927485</v>
+        <v>1.045216089940414</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>25.59557199821598</v>
+        <v>26.19072325713426</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>25.60771877649851</v>
+        <v>26.23274978369438</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>25.61257348418108</v>
+        <v>21.66588509831511</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>25.64038542529484</v>
+        <v>27.80152486431567</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>25.65630555183612</v>
+        <v>28.01896803564296</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>25.4879304594851</v>
+        <v>14.937137610602</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>25.60056361198401</v>
+        <v>27.01643152851197</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>25.62329549980831</v>
+        <v>31.24914461781009</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>25.42783532887164</v>
+        <v>9.319419268441898</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>25.57901718421764</v>
+        <v>17.81127707845245</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>25.62302102918121</v>
+        <v>24.25828709475375</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>25.42797825703534</v>
+        <v>-4.606175324305113</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>25.5441020367694</v>
+        <v>10.41586647627907</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>25.58301248581088</v>
+        <v>17.84614178785752</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>25.50481954848003</v>
+        <v>-1.779088986749802</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>25.59741012415489</v>
+        <v>22.93449701010994</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>25.62905591065409</v>
+        <v>31.41839475842978</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>25.62036642232111</v>
+        <v>16.60405978940305</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>25.66648391527513</v>
+        <v>25.67401233381656</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>25.70185549033883</v>
+        <v>26.25768399257399</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>25.46187599019327</v>
+        <v>3.954139401807428</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>25.63707596112923</v>
+        <v>28.56813115506471</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>25.68817812093005</v>
+        <v>32.53712146465619</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>25.46116674559221</v>
+        <v>17.29043728435705</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>25.64383271029875</v>
+        <v>32.47039361392738</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>25.68781392428926</v>
+        <v>38.2892659699031</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>25.47164037824767</v>
+        <v>1.891710728138044</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>25.62029781271829</v>
+        <v>28.02169335856517</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>25.65933417315197</v>
+        <v>32.77442941108282</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>25.56467120911762</v>
+        <v>8.090002778586147</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>25.68432596909395</v>
+        <v>45.7630201664422</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>25.71591216625977</v>
+        <v>50.74434289520841</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>25.76183860549471</v>
+        <v>51.79513501616576</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>25.81232983018901</v>
+        <v>60.42357656951398</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>25.85334054217575</v>
+        <v>63.04106919043377</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>25.55758948410049</v>
+        <v>25.49190465178105</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>25.77894297000335</v>
+        <v>57.8275590156084</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>25.8295173929849</v>
+        <v>59.89481805025025</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>25.43163633056711</v>
+        <v>6.301096709289755</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>25.53565901296001</v>
+        <v>1.386630366825418</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>25.55679255093434</v>
+        <v>2.557572171769962</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>25.4428772782688</v>
+        <v>-3.732382578789235</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>25.51861104628905</v>
+        <v>-1.533844204890919</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>25.53366798953254</v>
+        <v>-2.392954031833227</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>25.49340217799273</v>
+        <v>-5.192885102350633</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>25.55371729422141</v>
+        <v>5.109163872518494</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>25.56600684473195</v>
+        <v>3.543127147099774</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>25.5590465402012</v>
+        <v>0.4707367802453604</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>25.58609167844193</v>
+        <v>0.6828228274645802</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>25.60322012995914</v>
+        <v>1.665642971387872</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>25.43440134495979</v>
+        <v>10.61276122929329</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>25.54503585613217</v>
+        <v>7.564843552134089</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>25.56804692489023</v>
+        <v>9.174717851811636</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>25.38749090353438</v>
+        <v>6.603719544179153</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>25.53842518494707</v>
+        <v>9.064024629902715</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>25.58376150940059</v>
+        <v>12.16509448039852</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>25.38204886059457</v>
+        <v>-4.698061186685752</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>25.4962827719929</v>
+        <v>1.644676743737993</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>25.53618532117218</v>
+        <v>5.558429597670983</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>25.46019012492919</v>
+        <v>-4.025440398028397</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>25.55103721742728</v>
+        <v>11.32598253389991</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>25.58351984734901</v>
+        <v>16.21319431987144</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>25.56131571953551</v>
+        <v>2.548496802380605</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>25.60661542239895</v>
+        <v>9.473924992162228</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>25.64434188470752</v>
+        <v>10.01236490696686</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>25.40283878070651</v>
+        <v>-1.667112715471081</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>25.57599519012403</v>
+        <v>13.5314254161075</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>25.62843855837588</v>
+        <v>15.90233417402612</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>25.42388570997354</v>
+        <v>14.01055683821115</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>25.60712435147748</v>
+        <v>22.30120761443911</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>25.6524450063162</v>
+        <v>28.58720601701058</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>25.42886911317894</v>
+        <v>-0.1093160146349881</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>25.57647177571588</v>
+        <v>16.06067800044761</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>25.61650245865619</v>
+        <v>21.95153804040499</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>25.52378894665816</v>
+        <v>5.156345067216712</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>25.64239490474349</v>
+        <v>32.33467478878471</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>25.67481645754975</v>
+        <v>38.45314877414691</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>25.70918781416486</v>
+        <v>35.90867030102592</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>25.75890833867558</v>
+        <v>42.16851049261128</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>25.80243791712485</v>
+        <v>47.08654347090408</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>25.50359688158611</v>
+        <v>17.86911702160421</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>25.72406801815459</v>
+        <v>38.0562017674021</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>25.77592650730016</v>
+        <v>42.93014327071373</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>25.49447882692375</v>
+        <v>17.15243236159028</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>25.60430171377294</v>
+        <v>24.99289337677561</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>25.62865254035857</v>
+        <v>30.16575112070367</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>25.51467384196835</v>
+        <v>2.056810258722962</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>25.59703257955364</v>
+        <v>26.75710782816079</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>25.61542267689475</v>
+        <v>28.7991467240621</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>25.56440164264382</v>
+        <v>7.218621693621028</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>25.63027802466749</v>
+        <v>39.67921913022449</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>25.64542945482135</v>
+        <v>42.23124242090869</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>25.66007453299702</v>
+        <v>37.20250862177683</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>25.68887069371774</v>
+        <v>43.3834150730256</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>25.70825365149389</v>
+        <v>47.32921573268575</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>25.53353252051971</v>
+        <v>31.41494820308117</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>25.65197467081979</v>
+        <v>46.90095598303029</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>25.6808487920789</v>
+        <v>57.56508562339016</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>25.46859622418485</v>
+        <v>14.39101156036</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>25.628004816477</v>
+        <v>26.0459223522597</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>25.67723686608076</v>
+        <v>31.37813276919812</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>25.47426548286725</v>
+        <v>-2.460855634670637</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>25.5984054725707</v>
+        <v>16.42592474287088</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>25.64221061087894</v>
+        <v>25.14241177555892</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>25.55135257115379</v>
+        <v>2.370970761198631</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>25.65043897027272</v>
+        <v>33.83897827758907</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>25.68629989790614</v>
+        <v>45.07856138739554</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>25.6907241007345</v>
+        <v>30.66879096097817</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>25.73884207500963</v>
+        <v>41.05813764674866</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>25.77883146890126</v>
+        <v>42.76066387131904</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>25.52966000255493</v>
+        <v>16.2268282626001</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>25.71453272774553</v>
+        <v>48.92624051406525</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>25.77389105173284</v>
+        <v>52.61409304110917</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>25.49080397604365</v>
+        <v>22.07588623089887</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>25.68182205277089</v>
+        <v>40.19012681368193</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>25.73176516742386</v>
+        <v>45.75632794796823</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>25.50760446932649</v>
+        <v>6.72984104691578</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>25.66429815953124</v>
+        <v>34.04662621584441</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>25.70907869274073</v>
+        <v>41.68974094851333</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>25.60067954177202</v>
+        <v>11.3514342305832</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>25.72683328132538</v>
+        <v>54.93098587771973</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>25.76331209881208</v>
+        <v>64.28207886094484</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>25.82271064926343</v>
+        <v>64.80331715990054</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>25.87512139387181</v>
+        <v>72.59972019060103</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>25.92102192831596</v>
+        <v>81.09298719764848</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>25.61492541933444</v>
+        <v>32.78186945499463</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>25.84623820319241</v>
+        <v>72.24770841022712</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>25.90610880477046</v>
+        <v>78.73256973159621</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>25.5197635495584</v>
+        <v>18.92975712207202</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>25.62597021658058</v>
+        <v>35.53463134889915</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>25.64741724104505</v>
+        <v>40.53364351810672</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>25.54233267810455</v>
+        <v>11.60784102959359</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>25.62325836347209</v>
+        <v>41.00688417468123</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>25.63930242274916</v>
+        <v>45.05400064787008</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>25.58924574121894</v>
+        <v>15.00110700084616</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>25.6539523596649</v>
+        <v>52.34378651194788</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>25.6670560358316</v>
+        <v>55.05898828260385</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>25.68344537061639</v>
+        <v>59.4159948240503</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>25.71301138014261</v>
+        <v>64.98261964632782</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>25.72946535035386</v>
+        <v>65.04220502666415</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>25.55601011765822</v>
+        <v>25.52606020459779</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>25.67304722056024</v>
+        <v>58.46227595042048</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>25.69735422373915</v>
+        <v>64.30814800284827</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>25.48931218802566</v>
+        <v>18.47866571287436</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>25.64248593626834</v>
+        <v>35.22696414062577</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>25.68717164194122</v>
+        <v>43.87443269014255</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>25.49825936014353</v>
+        <v>6.734923329410297</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>25.61872090491731</v>
+        <v>31.71101354275709</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>25.65868101794351</v>
+        <v>42.54834013103438</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>25.57154993386731</v>
+        <v>12.49557846021086</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>25.66770978491973</v>
+        <v>46.49259679864842</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>25.70025224812555</v>
+        <v>58.11636117531926</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>25.70540947417642</v>
+        <v>44.17799199041761</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>25.75361335915466</v>
+        <v>53.97800059582356</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>25.7894230987952</v>
+        <v>54.90667235654013</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>25.54328959126583</v>
+        <v>13.04480460611718</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>25.72360699699657</v>
+        <v>52.3524906085396</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>25.77635575202223</v>
+        <v>59.77508611163175</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>25.51041955774431</v>
+        <v>17.96489994509762</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>25.69402739708613</v>
+        <v>41.12405144394249</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>25.73901550905971</v>
+        <v>50.46567772590915</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>25.52893853686446</v>
+        <v>4.606664143543558</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>25.6808393895439</v>
+        <v>39.94622617568987</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>25.72128064097865</v>
+        <v>49.83594518225607</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>25.61820504409802</v>
+        <v>11.84312983772991</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>25.74051895577896</v>
+        <v>57.96634569842585</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>25.77330253218897</v>
+        <v>67.87054484397949</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>25.82922790857645</v>
+        <v>66.1675841517403</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>25.8817663194153</v>
+        <v>75.47544237556104</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>25.9233565508592</v>
+        <v>81.98016505394385</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>25.62271855541826</v>
+        <v>19.48930769558941</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>25.84772443503001</v>
+        <v>69.29042931613014</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>25.90043215999176</v>
+        <v>75.82695319507947</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>25.53687704541173</v>
+        <v>17.70930629305123</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>25.63638310063555</v>
+        <v>33.18052667605066</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>25.65636585468793</v>
+        <v>38.36065986949365</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>25.56075544994235</v>
+        <v>7.206499268162634</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>25.63804304829218</v>
+        <v>43.12632376651091</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>25.65290167719913</v>
+        <v>45.04225582438222</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>25.60302711371548</v>
+        <v>12.99508303383429</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>25.66506056639047</v>
+        <v>56.79704123263532</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>25.6773078905721</v>
+        <v>59.04678795315425</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>25.70059823778851</v>
+        <v>57.73908370319184</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>25.728067704035</v>
+        <v>64.53336305506274</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>25.74365425866034</v>
+        <v>66.17617040550806</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>25.58665502600624</v>
+        <v>26.48110158230595</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>25.69686989939128</v>
+        <v>48.92408378978712</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>25.72037623837308</v>
+        <v>59.95074730103491</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>25.52109880374549</v>
+        <v>20.59531252420115</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>25.6648396932641</v>
+        <v>39.58047635808086</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>25.70530133730764</v>
+        <v>44.54982251864728</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>25.53469776961146</v>
+        <v>4.468855225122851</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>25.64996860389204</v>
+        <v>34.45334575348034</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>25.68565558189962</v>
+        <v>42.93805641054531</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>25.60025082125187</v>
+        <v>9.479939369192131</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>25.69256788607829</v>
+        <v>52.14665072866448</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>25.72178230744041</v>
+        <v>63.0988688880181</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>25.73983246256569</v>
+        <v>50.28125784220308</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>25.78474762017671</v>
+        <v>61.67696254056121</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>25.81732257901555</v>
+        <v>61.84023718338116</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>25.59506613445649</v>
+        <v>23.75430569348459</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>25.76497238932802</v>
+        <v>67.48859499586642</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>25.81340130258099</v>
+        <v>69.84164178964764</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>25.5314693044422</v>
+        <v>23.00245373120988</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>25.70219537117004</v>
+        <v>46.7015908990839</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>25.74319112519731</v>
+        <v>52.00561365121304</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>25.55402896187883</v>
+        <v>7.045554036477679</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>25.69710938505118</v>
+        <v>43.43129767108894</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>25.73353818790113</v>
+        <v>50.62419162637106</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>25.6334586272038</v>
+        <v>11.1136839128991</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>25.74890383003405</v>
+        <v>63.87842698992831</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>25.7785767396049</v>
+        <v>72.82750227111394</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>25.84148308907738</v>
+        <v>74.5890524498345</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>25.89015426230955</v>
+        <v>83.69917255595863</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>25.9275669156629</v>
+        <v>89.75143937640648</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>25.6569473241322</v>
+        <v>29.73422425336236</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>25.86656118653992</v>
+        <v>80.44612689839454</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>25.9152628683287</v>
+        <v>85.37474731489354</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>25.54674292012093</v>
+        <v>22.19237249979541</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>25.61757278602874</v>
+        <v>34.68404059931246</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>25.63298731483732</v>
+        <v>37.50071394643781</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>25.56370444233157</v>
+        <v>19.82719436578452</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>25.61755707317855</v>
+        <v>51.81975274277755</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>25.62915022826299</v>
+        <v>51.23963090042491</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>25.59332451616206</v>
+        <v>19.08402471056646</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>25.63645070779014</v>
+        <v>57.53183383447025</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>25.64602622088734</v>
+        <v>57.76184949100934</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>25.65970161160437</v>
+        <v>59.84493449685634</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>25.67830900270795</v>
+        <v>63.12775997888782</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>25.6908548253955</v>
+        <v>65.33962144738835</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>25.57847746028205</v>
+        <v>35.3965525221336</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>25.65540483686518</v>
+        <v>53.11134664338724</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>25.67381556197061</v>
+        <v>63.17166422342876</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>25.53800495738197</v>
+        <v>23.97685111435493</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>25.64061146614674</v>
+        <v>39.75052875483141</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>25.67157997295489</v>
+        <v>44.81901412435555</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>25.5477486046749</v>
+        <v>25.96086492305261</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>25.6285781598713</v>
+        <v>49.811601933407</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>25.65599669460918</v>
+        <v>59.10234944966491</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>25.59382057496049</v>
+        <v>16.15217281805094</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>25.65840738895286</v>
+        <v>52.9111593174537</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>25.68088646339234</v>
+        <v>64.35585952759757</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>25.69037846474299</v>
+        <v>51.85452816026134</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>25.72127887716467</v>
+        <v>60.49238506244345</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>25.74691455065622</v>
+        <v>60.93474326731068</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>25.58711627201471</v>
+        <v>29.04629142876704</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>25.70663827433244</v>
+        <v>65.88499029459264</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>25.7440902037602</v>
+        <v>70.60569798174974</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>25.54721773613201</v>
+        <v>26.59945322507904</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>25.66961693638774</v>
+        <v>46.76597043887222</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>25.70104273813606</v>
+        <v>50.86877762387498</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>25.56386325372482</v>
+        <v>27.42449697438117</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>25.66505589681597</v>
+        <v>56.3543603802152</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>25.69309357180438</v>
+        <v>63.13404749401452</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>25.62003784454725</v>
+        <v>18.46508246684377</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>25.70155841621177</v>
+        <v>64.43846236592665</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>25.72443187311433</v>
+        <v>72.99635712533012</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>25.76783817071729</v>
+        <v>77.96105869787023</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>25.80134382524341</v>
+        <v>81.17115334245474</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>25.83059387400301</v>
+        <v>89.95149813807784</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>25.63511690513629</v>
+        <v>38.50438394022969</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>25.78373215141768</v>
+        <v>78.86300037539894</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>25.82148278342376</v>
+        <v>86.23381802619251</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>25.5189027520869</v>
+        <v>12.1365925811024</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>25.62061629635801</v>
+        <v>27.53063113154177</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>25.64118185003482</v>
+        <v>35.56685078023946</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>25.54053425953958</v>
+        <v>-0.8135334348622365</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>25.6190117591258</v>
+        <v>29.76581414104423</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>25.63447968445714</v>
+        <v>36.93779439452832</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>25.58564460747788</v>
+        <v>6.793842768587091</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>25.6484707888522</v>
+        <v>46.30832056682095</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>25.66114731224935</v>
+        <v>51.89203168028138</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>25.67801265810909</v>
+        <v>52.32805869535858</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>25.70654148031888</v>
+        <v>56.87815189245269</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>25.72208177816547</v>
+        <v>59.29330395282656</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>25.55647931900326</v>
+        <v>15.77864347502469</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>25.66937046189704</v>
+        <v>49.16825236427207</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>25.69305212509745</v>
+        <v>59.41529888323846</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>25.48839237583196</v>
+        <v>13.40496589313686</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>25.63507809401395</v>
+        <v>31.40271477536919</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>25.67722683075259</v>
+        <v>39.45105712348784</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>25.49732269256112</v>
+        <v>-3.689725297161512</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>25.61405447874573</v>
+        <v>24.18063552803909</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>25.651634301321</v>
+        <v>34.52386760252765</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>25.56748465124399</v>
+        <v>3.293247648032054</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>25.6607709626493</v>
+        <v>41.73354376049037</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>25.69143547727012</v>
+        <v>53.53548877982509</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>25.69797751888921</v>
+        <v>37.54985156426149</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>25.74434064994856</v>
+        <v>47.36612838942227</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>25.77769358296664</v>
+        <v>48.82344585275488</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>25.54336741144202</v>
+        <v>4.621257906289593</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>25.716966725824</v>
+        <v>46.23727899085669</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>25.76703191159451</v>
+        <v>53.56214154361573</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>25.50130716108137</v>
+        <v>13.96570318016843</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>25.6763256715135</v>
+        <v>38.07895396625994</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>25.71899143669276</v>
+        <v>49.28092808444543</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>25.51915364285248</v>
+        <v>-3.436264935647181</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>25.66514638851823</v>
+        <v>34.2136663220105</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>25.70344033410406</v>
+        <v>46.60805802033066</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>25.60420758538537</v>
+        <v>2.874779192329751</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>25.72182842565269</v>
+        <v>53.29024666822072</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>25.75293393062166</v>
+        <v>66.25976902419724</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>25.80568624111297</v>
+        <v>61.98943491215188</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>25.85613166990719</v>
+        <v>72.0021657050049</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>25.89488487516408</v>
+        <v>81.81522448613359</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>25.60959722350448</v>
+        <v>10.93357850352893</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>25.82488738864304</v>
+        <v>65.58078098268341</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>25.87522520861543</v>
+        <v>75.53369345033157</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>25.49222372249011</v>
+        <v>13.43816532897797</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>25.58573581888062</v>
+        <v>18.73041838135805</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>25.60694593670298</v>
+        <v>22.36637923801954</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>25.50671773540639</v>
+        <v>2.819922563046145</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>25.57654392376501</v>
+        <v>21.61167308789716</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>25.59271677630514</v>
+        <v>22.42731164269598</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>25.55055455920363</v>
+        <v>5.867182191242915</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>25.60639361943854</v>
+        <v>31.97172291388147</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>25.61970614652638</v>
+        <v>32.96455154065211</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>25.6256881572757</v>
+        <v>30.08887135535733</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>25.64938591338142</v>
+        <v>34.27225609864136</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>25.66630024733708</v>
+        <v>37.63118561356868</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>25.51539864520155</v>
+        <v>18.4734755410673</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>25.61597241130454</v>
+        <v>27.03385023732073</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>25.64099203274034</v>
+        <v>33.11405297510048</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>25.47922781207656</v>
+        <v>19.08450929084722</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>25.6154612844329</v>
+        <v>31.23188849672798</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>25.65853996332959</v>
+        <v>39.18411858337029</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>25.48158396804103</v>
+        <v>7.158402088114727</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>25.58744125052668</v>
+        <v>26.25876191918093</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>25.62606177222009</v>
+        <v>37.59861018137703</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>25.54896330060454</v>
+        <v>12.06763036274098</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>25.63345023560233</v>
+        <v>41.69603863733452</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>25.66505510744832</v>
+        <v>54.62404583266841</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>25.66306432677051</v>
+        <v>36.2385712949406</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>25.70334962196771</v>
+        <v>45.93021036825011</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>25.73831927466244</v>
+        <v>52.19927992013473</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>25.52225195687558</v>
+        <v>16.48159550485934</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>25.68014605668822</v>
+        <v>46.96044541154043</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>25.73206067417451</v>
+        <v>55.53427397063209</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>25.49763853411246</v>
+        <v>19.79175968780576</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>25.66115111875216</v>
+        <v>37.85908105754891</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>25.70491520894188</v>
+        <v>47.92847773027755</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>25.50897449869752</v>
+        <v>7.085671602199923</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>25.64294672182643</v>
+        <v>34.23838221291174</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>25.68249275777026</v>
+        <v>47.00383720351837</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>25.5902161329292</v>
+        <v>12.42424518131473</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>25.69808038685267</v>
+        <v>52.84523557610994</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>25.7302874176104</v>
+        <v>66.30079242659511</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>25.77454400282361</v>
+        <v>55.13293672040875</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>25.8185524161496</v>
+        <v>64.5218037281778</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>25.85882561881561</v>
+        <v>80.27538630229732</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>25.59355517438769</v>
+        <v>18.85033801747467</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>25.79157535889718</v>
+        <v>57.01943919879252</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>25.84408163648488</v>
+        <v>73.15949685174715</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>25.53642179662805</v>
+        <v>11.86608243991734</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>25.60604694739234</v>
+        <v>20.44877503937698</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>25.62177432484955</v>
+        <v>24.70268908964871</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>25.55166752673873</v>
+        <v>3.178750506068322</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>25.60424902253631</v>
+        <v>30.02958706935387</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>25.61623400628356</v>
+        <v>31.37845371487342</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>25.58154227043263</v>
+        <v>4.287166517447883</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>25.62362665797447</v>
+        <v>37.82822580668729</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>25.63352513803122</v>
+        <v>39.77149747927108</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>25.64407170526708</v>
+        <v>39.81068144360817</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>25.66224241244285</v>
+        <v>44.06428314790497</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>25.67499992223839</v>
+        <v>47.35092109666115</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>25.56418905699186</v>
+        <v>21.79847967281235</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>25.63949351457826</v>
+        <v>38.70600326898862</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>25.65839167790011</v>
+        <v>49.17447062317905</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>25.52425257543511</v>
+        <v>13.11924724003433</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>25.62525036849583</v>
+        <v>25.29720977689074</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>25.65673539535139</v>
+        <v>34.8514313583881</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>25.53181337524564</v>
+        <v>9.653571133961641</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>25.61095443760468</v>
+        <v>28.68563601693354</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>25.63901362841683</v>
+        <v>43.93140140579817</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>25.57818138334745</v>
+        <v>2.592308917694197</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>25.64138376432378</v>
+        <v>34.64318873744612</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>25.66439205084108</v>
+        <v>51.33841764766173</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>25.66954243895676</v>
+        <v>35.17575162160851</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>25.69987214649665</v>
+        <v>44.18329359687515</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>25.72581857105899</v>
+        <v>48.53007809354518</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>25.56786523503338</v>
+        <v>13.61289136689811</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>25.68520988672686</v>
+        <v>48.54622798559288</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>25.72346713232679</v>
+        <v>58.55828413577854</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>25.53402491686755</v>
+        <v>14.91920701066142</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>25.65467630912853</v>
+        <v>32.01527465148189</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>25.68667992476359</v>
+        <v>39.97349712841263</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>25.54848965491695</v>
+        <v>8.806073230565378</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>25.64784845942484</v>
+        <v>33.44062999279522</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>25.67659922572371</v>
+        <v>45.48510192494053</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>25.60487243982007</v>
+        <v>3.323542817338826</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>25.68488593007591</v>
+        <v>45.11131057966029</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>25.70834765449091</v>
+        <v>58.18269274195796</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>25.74733257460284</v>
+        <v>59.17602593111734</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>25.78025172480324</v>
+        <v>62.33488736473389</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>25.80986532827756</v>
+        <v>74.14959659758671</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>25.6163800489262</v>
+        <v>21.65725369050976</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>25.76261093574944</v>
+        <v>59.86493230454226</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>25.80127786420167</v>
+        <v>72.33670706628955</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>25.52678108803951</v>
+        <v>17.6910242074363</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>25.63326098036512</v>
+        <v>33.36531036143554</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>25.65418121604517</v>
+        <v>39.00376422962536</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>25.55351058349393</v>
+        <v>13.25579483273654</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>25.63493170590331</v>
+        <v>46.85604502284482</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>25.65030232722956</v>
+        <v>48.88886648229403</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>25.59979605491061</v>
+        <v>16.36075217747371</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>25.6651356646937</v>
+        <v>57.60199100166216</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>25.6777342701161</v>
+        <v>59.30063753805418</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>25.70147610534159</v>
+        <v>62.55975432153969</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>25.7298245035071</v>
+        <v>65.85389453006987</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>25.74623660939332</v>
+        <v>69.50966160733773</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>25.57665180179244</v>
+        <v>29.44434833203838</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>25.69319138647915</v>
+        <v>48.02184384627588</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>25.71767202671406</v>
+        <v>63.86846219310617</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>25.50754686316212</v>
+        <v>23.44354841004539</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>25.66138081399194</v>
+        <v>40.31678396325599</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>25.70428449197319</v>
+        <v>44.43266393311437</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>25.52205158518849</v>
+        <v>13.18067642789351</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>25.64365803547057</v>
+        <v>39.82557014894699</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>25.68141166206902</v>
+        <v>44.91960855056496</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>25.5942364321671</v>
+        <v>14.44168394418782</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>25.69159841465606</v>
+        <v>51.82715497270243</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>25.72240827359402</v>
+        <v>58.8966357116493</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>25.73928616614944</v>
+        <v>48.42486352411503</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>25.78592691867813</v>
+        <v>55.99047847130559</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>25.82063672184404</v>
+        <v>55.20318256447219</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>25.58078476329677</v>
+        <v>24.89544269893634</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>25.76086269629108</v>
+        <v>59.13334866690326</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>25.81203935417826</v>
+        <v>63.06514698403005</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>25.52111472053134</v>
+        <v>21.99442170203083</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>25.70475701973771</v>
+        <v>45.25068166926505</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>25.74798986534745</v>
+        <v>49.11807195219986</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>25.54518541780388</v>
+        <v>12.81327733977873</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>25.69752293239712</v>
+        <v>48.46982638980469</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>25.73579839032989</v>
+        <v>51.76225584940673</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>25.63281462206561</v>
+        <v>13.33958491358455</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>25.75573961897747</v>
+        <v>62.27325215699099</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>25.78681769738974</v>
+        <v>66.93230707885181</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>25.85299622478802</v>
+        <v>73.14401584846139</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>25.9036354323795</v>
+        <v>78.38092266035258</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>25.9436912138455</v>
+        <v>83.55615622313641</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>25.65068041923576</v>
+        <v>31.56681870180859</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>25.87458166025734</v>
+        <v>75.4058221523009</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>25.92577942188798</v>
+        <v>81.10691546420024</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>25.51893048124504</v>
+        <v>12.7757144261235</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>25.62342074822367</v>
+        <v>29.04520162744798</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>25.64447018284075</v>
+        <v>36.43887594565386</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>25.54187997766306</v>
+        <v>2.321821569568879</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>25.62282261373982</v>
+        <v>34.92468149282537</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>25.63869124535611</v>
+        <v>40.75708502426512</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>25.5877098853687</v>
+        <v>8.120352795270772</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>25.65255472459848</v>
+        <v>49.11174864568036</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>25.66556237456244</v>
+        <v>53.85877826189009</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>25.68326365821941</v>
+        <v>51.48927256505822</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>25.71233466078066</v>
+        <v>58.65131247268214</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>25.7282632069391</v>
+        <v>60.64243157943332</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>25.55856951898235</v>
+        <v>16.31193055503453</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>25.67478113135535</v>
+        <v>49.86299817766388</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>25.6991593949591</v>
+        <v>60.62966497660031</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>25.48731560267118</v>
+        <v>15.79543257015166</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>25.63789345917738</v>
+        <v>34.43658494888935</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>25.68097457229473</v>
+        <v>41.621026163745</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>25.49744658382128</v>
+        <v>0.1120765555715799</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>25.61769322337569</v>
+        <v>28.97014651070357</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>25.65612727444815</v>
+        <v>38.26458379507178</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>25.56878790817764</v>
+        <v>6.057385576176209</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>25.66493852273492</v>
+        <v>45.50690496501603</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>25.69630777607322</v>
+        <v>56.52580396326739</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>25.70338105333663</v>
+        <v>41.08839113907507</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>25.75059556592486</v>
+        <v>52.21113293031745</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>25.78475729072655</v>
+        <v>53.68663404911979</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>25.54477141102522</v>
+        <v>11.24512262690356</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>25.72322061714363</v>
+        <v>54.94354338880554</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>25.7745422218733</v>
+        <v>59.94516649911539</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>25.49696914963301</v>
+        <v>13.15529062242595</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>25.67628686098681</v>
+        <v>35.77636587571306</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>25.72000144326536</v>
+        <v>47.01787730538051</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>25.51589198953191</v>
+        <v>-2.857820401784593</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>25.66580487340877</v>
+        <v>32.77914421974791</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>25.70509548175364</v>
+        <v>45.32360943273149</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>25.60244549372371</v>
+        <v>0.7367265942010697</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>25.72326717156847</v>
+        <v>49.48015424773785</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>25.75519064241319</v>
+        <v>62.81798749592626</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>25.80850413518295</v>
+        <v>58.16569241972024</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>25.85972781829648</v>
+        <v>68.60300109070535</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>25.89942727420911</v>
+        <v>79.25970395575945</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>25.60761325855792</v>
+        <v>11.86269136070051</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>25.82835395455711</v>
+        <v>64.45547457877458</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>25.88011557033705</v>
+        <v>74.48610811736431</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/ligand/LOO_XPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/ligand/LOO_XPhos/results.xlsx
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>10.99316381981168</v>
+        <v>10.99316381981173</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>18.70341181013416</v>
+        <v>18.70341181013434</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>22.03283439847814</v>
+        <v>22.03283439847793</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-2.785519415420765</v>
+        <v>-2.785519415420719</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>22.24477992500655</v>
+        <v>22.24477992500642</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>22.39374014773612</v>
+        <v>22.39374014773668</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-0.5882368840264078</v>
+        <v>-0.5882368840265499</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>31.89570243819589</v>
+        <v>31.89570243819607</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>32.71974609588708</v>
+        <v>32.71974609588707</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>29.29397299679456</v>
+        <v>29.29397299679482</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>35.53295575561962</v>
+        <v>35.53295575561926</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>37.07074408680618</v>
+        <v>37.07074408680624</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>14.84803388941048</v>
+        <v>14.84803388941022</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>29.87078596747703</v>
+        <v>29.87078596747715</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>36.92100047959692</v>
+        <v>36.92100047959713</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>21.66957418543231</v>
+        <v>21.66957418543234</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>36.24526152355681</v>
+        <v>36.2452615235561</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>43.36964858672827</v>
+        <v>43.36964858672786</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>9.873672775387128</v>
+        <v>9.87367277538732</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>32.46944044294824</v>
+        <v>32.46944044294806</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>44.2346133383361</v>
+        <v>44.23461333833609</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>12.79960597987288</v>
+        <v>12.79960597987231</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>48.01366225937824</v>
+        <v>48.01366225937879</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>61.94274140905263</v>
+        <v>61.94274140905286</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>46.18393495326526</v>
+        <v>46.18393495326544</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>58.67607115041542</v>
+        <v>58.67607115041541</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>61.00330609351062</v>
+        <v>61.00330609351035</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>24.62548087733189</v>
+        <v>24.62548087733156</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>63.89726419562714</v>
+        <v>63.89726419562733</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>69.12934822132861</v>
+        <v>69.12934822132874</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>25.44171556165744</v>
+        <v>25.44171556165768</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>46.62795185649799</v>
+        <v>46.62795185649786</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>52.08220074855603</v>
+        <v>52.08220074855591</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>13.54752854589383</v>
+        <v>13.54752854589411</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>44.33754992306843</v>
+        <v>44.33754992306814</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>52.63987939331147</v>
+        <v>52.63987939331126</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>16.02097671193501</v>
+        <v>16.02097671193506</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>63.26445750608839</v>
+        <v>63.26445750608848</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>73.18325361169592</v>
+        <v>73.18325361169582</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>73.65521015638036</v>
+        <v>73.65521015638032</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>83.12345676468418</v>
+        <v>83.12345676468365</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>90.99819952326398</v>
+        <v>90.99819952326422</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>35.64206904079154</v>
+        <v>35.64206904079197</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>81.60926069114151</v>
+        <v>81.60926069114072</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>87.66767016375157</v>
+        <v>87.66767016375131</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>12.74284377283232</v>
+        <v>12.74284377283165</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>33.83046663202393</v>
+        <v>33.83046663202386</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>40.08720969966384</v>
+        <v>40.08720969966377</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>5.658960389877979</v>
+        <v>5.658960389877542</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>43.36721407433879</v>
+        <v>43.36721407433883</v>
       </c>
     </row>
     <row r="52">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>11.29947226832742</v>
+        <v>11.2994722683275</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>58.06484208713688</v>
+        <v>58.06484208713646</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>60.88523308764086</v>
+        <v>60.88523308764057</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>59.53938542993421</v>
+        <v>59.539385429934</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>69.2730138123992</v>
+        <v>69.27301381239889</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>68.71907476528891</v>
+        <v>68.71907476528885</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>20.14023638423162</v>
+        <v>20.14023638423127</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>53.72530764576371</v>
+        <v>53.72530764576335</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>62.22684477600774</v>
+        <v>62.22684477600787</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>17.52725404787613</v>
+        <v>17.52725404787607</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>40.59933828202942</v>
+        <v>40.59933828202911</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>49.30828220532553</v>
+        <v>49.30828220532526</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>0.9639675250866837</v>
+        <v>0.9639675250865523</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>35.96967127637454</v>
+        <v>35.96967127637463</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>46.31867724772592</v>
+        <v>46.31867724772673</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>10.92570027090403</v>
+        <v>10.92570027090397</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>55.91602232361564</v>
+        <v>55.91602232361544</v>
       </c>
     </row>
     <row r="70">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>49.78199309758407</v>
+        <v>49.7819930975845</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>62.71005398014232</v>
+        <v>62.71005398014273</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>62.99149413364651</v>
+        <v>62.99149413364631</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>15.05203165056591</v>
+        <v>15.05203165056557</v>
       </c>
     </row>
     <row r="75">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>69.95478323732819</v>
+        <v>69.95478323732826</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>17.82161286119832</v>
+        <v>17.82161286119856</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>46.540267596033</v>
+        <v>46.54026759603273</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>54.87119426151063</v>
+        <v>54.87119426151076</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>0.2998046984831007</v>
+        <v>0.2998046984827027</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>45.37046761241119</v>
+        <v>45.37046761241142</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>53.01270962821981</v>
+        <v>53.01270962822007</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>11.56008760621027</v>
+        <v>11.56008760621</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>68.47053681324321</v>
+        <v>68.47053681324309</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>76.26802828503391</v>
+        <v>76.26802828503379</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>73.66787321340605</v>
+        <v>73.66787321340583</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>87.25591664892154</v>
+        <v>87.25591664892164</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>89.82822692313994</v>
+        <v>89.82822692314008</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>20.81501303206873</v>
+        <v>20.81501303206868</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>80.92982927517863</v>
+        <v>80.92982927517883</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>84.59923386961661</v>
+        <v>84.5992338696167</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>15.45871629055126</v>
+        <v>15.45871629055095</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>31.37126723568788</v>
+        <v>31.37126723568793</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>36.43828182960917</v>
+        <v>36.438281829609</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>8.562980512302232</v>
+        <v>8.562980512302147</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>41.17390101898241</v>
+        <v>41.17390101898265</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>43.25178955744301</v>
+        <v>43.25178955744317</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>14.12855452440559</v>
+        <v>14.12855452440528</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>56.00047321253302</v>
+        <v>56.0004732125332</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>56.70441494286023</v>
+        <v>56.70441494286031</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>51.64308333754993</v>
+        <v>51.6430833375498</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>62.02433742718654</v>
+        <v>62.02433742718608</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>61.16415397846716</v>
+        <v>61.1641539784675</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>24.88417957443491</v>
+        <v>24.88417957443445</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>53.89480423108922</v>
+        <v>53.8948042310888</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>59.67041164909504</v>
+        <v>59.67041164909456</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>22.95498067893988</v>
+        <v>22.95498067894011</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>44.4723338691791</v>
+        <v>44.47233386917908</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>50.4468364910846</v>
+        <v>50.44683649108441</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>7.905867738062817</v>
+        <v>7.905867738062884</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>41.60191859071111</v>
+        <v>41.60191859071132</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>48.03575907790479</v>
+        <v>48.03575907790551</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>16.41407472592951</v>
+        <v>16.41407472592983</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>60.31885925804228</v>
+        <v>60.31885925804258</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>67.98454623423306</v>
+        <v>67.98454623423338</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>53.67483432046888</v>
+        <v>53.67483432046956</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>65.63175149767703</v>
+        <v>65.6317514976774</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>64.35725904895281</v>
+        <v>64.35725904895301</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>24.02507149458443</v>
+        <v>24.02507149458418</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>68.10152675818513</v>
+        <v>68.10152675818485</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>69.93835130937346</v>
+        <v>69.93835130937319</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>24.39952447970523</v>
+        <v>24.39952447970555</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>51.2989612615446</v>
+        <v>51.29896126154462</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>57.66560677780828</v>
+        <v>57.66560677780835</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>7.329624313881471</v>
+        <v>7.329624313881318</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>51.01703577769441</v>
+        <v>51.01703577769464</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>55.68119079682191</v>
+        <v>55.6811907968224</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>15.93372131326428</v>
+        <v>15.93372131326427</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>71.67202773214099</v>
+        <v>71.67202773214056</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>76.67846699210365</v>
+        <v>76.67846699210394</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>80.4467697998715</v>
+        <v>80.44676979987126</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>91.75057273847666</v>
+        <v>91.75057273847682</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>93.06980615091378</v>
+        <v>93.06980615091381</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>32.6043524317826</v>
+        <v>32.60435243178254</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>88.18153230336473</v>
+        <v>88.18153230336526</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>88.85701379317076</v>
+        <v>88.85701379317111</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>15.22802423061204</v>
+        <v>15.22802423061221</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>20.9377248575052</v>
+        <v>20.9377248575054</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>23.03188453317507</v>
+        <v>23.03188453317508</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>4.084772105948538</v>
+        <v>4.084772105948453</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>25.97362839616356</v>
+        <v>25.97362839616345</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>24.66180919747745</v>
+        <v>24.66180919747758</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>6.047522041086392</v>
+        <v>6.04752204108614</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>35.26762913220132</v>
+        <v>35.26762913220148</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>34.99503378612158</v>
+        <v>34.99503378612147</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>33.77117205745145</v>
+        <v>33.77117205745184</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>37.03517694291683</v>
+        <v>37.03517694291679</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>41.26073248639613</v>
+        <v>41.26073248639582</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>39.41652441491689</v>
+        <v>39.41652441491691</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>48.79678677582048</v>
+        <v>48.79678677582059</v>
       </c>
     </row>
     <row r="151">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>20.76286446294479</v>
+        <v>20.7628644629443</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>34.54631763673854</v>
+        <v>34.54631763673861</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>40.38248736717033</v>
+        <v>40.38248736717035</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>11.92821921581937</v>
+        <v>11.92821921581938</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>32.57636719756962</v>
+        <v>32.57636719756967</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>42.68248525007968</v>
+        <v>42.68248525007986</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>14.27875937839887</v>
+        <v>14.27875937839857</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>47.43480073091557</v>
+        <v>47.43480073091534</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>60.06553356525475</v>
+        <v>60.06553356525444</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>39.88711871480976</v>
+        <v>39.88711871480964</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>50.5737650611577</v>
+        <v>50.57376506115797</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>58.23376759502398</v>
+        <v>58.23376759502383</v>
       </c>
     </row>
     <row r="164">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>61.91333119032851</v>
+        <v>61.91333119032824</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>66.5435661135723</v>
+        <v>66.54356611357211</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>25.33044147109159</v>
+        <v>25.33044147109149</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>42.34325107612479</v>
+        <v>42.34325107612483</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>48.64517950443452</v>
+        <v>48.64517950443421</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>13.75303238509581</v>
+        <v>13.75303238509554</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>38.76332132961349</v>
+        <v>38.76332132961339</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>47.81007138609802</v>
+        <v>47.81007138609807</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>17.42619775761808</v>
+        <v>17.42619775761778</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>59.09575642750046</v>
+        <v>59.09575642750033</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>70.1014610259638</v>
+        <v>70.10146102596367</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>65.77596882706196</v>
+        <v>65.77596882706219</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>73.20210296625278</v>
+        <v>73.20210296625271</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>86.76423598852193</v>
+        <v>86.76423598852219</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>39.18485590597296</v>
+        <v>39.18485590597283</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>75.32707393196148</v>
+        <v>75.32707393196139</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>82.97696007941491</v>
+        <v>82.97696007941521</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>23.86649406158051</v>
+        <v>23.86649406158036</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>38.65290021227599</v>
+        <v>38.65290021227617</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>39.93226935408429</v>
+        <v>39.93226935408415</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>14.59119977229433</v>
+        <v>14.59119977229413</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>48.20069484947216</v>
+        <v>48.20069484947214</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>46.4576936022988</v>
+        <v>46.45769360229903</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>19.4986478677107</v>
+        <v>19.49864786771056</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>60.54732754793234</v>
+        <v>60.54732754793255</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>59.37966546931426</v>
+        <v>59.37966546931432</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>55.51271806439235</v>
+        <v>55.51271806439191</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>60.65830317621152</v>
+        <v>60.6583031762116</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>63.0140427873298</v>
+        <v>63.01404278732976</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>27.66836499853261</v>
+        <v>27.66836499853296</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>40.87575315720945</v>
+        <v>40.8757531572098</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>45.62943656572712</v>
+        <v>45.62943656572749</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>29.0816912578474</v>
+        <v>29.08169125784739</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>51.06888394424693</v>
+        <v>51.06888394424689</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>51.94684663111042</v>
+        <v>51.94684663111032</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>14.46348955028275</v>
+        <v>14.46348955028289</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>47.34697936863279</v>
+        <v>47.34697936863187</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>51.31303893315422</v>
+        <v>51.31303893315419</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>19.26528178732298</v>
+        <v>19.26528178732315</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>64.24927922443287</v>
+        <v>64.24927922443315</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>70.7894167946591</v>
+        <v>70.78941679465943</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>60.27045290383117</v>
+        <v>60.27045290383103</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>71.65632390962084</v>
+        <v>71.65632390962058</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>74.1353001098288</v>
+        <v>74.13530010982912</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>37.76038786548579</v>
+        <v>37.76038786548586</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>78.6982114340758</v>
+        <v>78.69821143407515</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>75.67901626079647</v>
+        <v>75.67901626079606</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>30.33783332837084</v>
+        <v>30.33783332837099</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>53.99544054990918</v>
+        <v>53.99544054990855</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>57.94951158569899</v>
+        <v>57.949511585699</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>13.93570673260982</v>
+        <v>13.93570673260973</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>49.13180527331628</v>
+        <v>49.1318052733162</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>55.15194000330235</v>
+        <v>55.1519400033021</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>18.34456599139757</v>
+        <v>18.34456599139745</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>69.69503987385649</v>
+        <v>69.69503987385657</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>77.81149696766467</v>
+        <v>77.81149696766454</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>81.09290173191847</v>
+        <v>81.09290173191886</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>88.99451593130904</v>
+        <v>88.99451593130902</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>99.59773046322037</v>
+        <v>99.5977304632203</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>43.02303365822875</v>
+        <v>43.02303365822901</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>86.86391424225539</v>
+        <v>86.86391424225502</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>89.74277716018254</v>
+        <v>89.7427771601822</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>15.22666777745837</v>
+        <v>15.22666777745814</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>32.46264674886354</v>
+        <v>32.46264674886327</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>36.4663911700071</v>
+        <v>36.46639117000724</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>11.83851349405001</v>
+        <v>11.83851349404974</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>45.52323229302718</v>
+        <v>45.52323229302696</v>
       </c>
     </row>
     <row r="232">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>18.09765989979279</v>
+        <v>18.09765989979275</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>60.59725043006252</v>
+        <v>60.59725043006229</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>60.87772614570994</v>
+        <v>60.87772614570979</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>56.66279153979852</v>
+        <v>56.66279153979881</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>64.09430519701853</v>
+        <v>64.0943051970185</v>
       </c>
     </row>
     <row r="238">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>13.91114132244496</v>
+        <v>13.91114132244495</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>20.62641279479965</v>
+        <v>20.62641279479971</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>25.36567447940963</v>
+        <v>25.3656744794101</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>22.73156593044338</v>
+        <v>22.73156593044328</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>52.3143987744515</v>
+        <v>52.31439877445095</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>53.62840084672676</v>
+        <v>53.62840084672648</v>
       </c>
     </row>
     <row r="245">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>47.8455622312611</v>
+        <v>47.84556223126094</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>48.97758597921969</v>
+        <v>48.97758597921971</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>14.37638289441995</v>
+        <v>14.37638289441969</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>67.54578468818374</v>
+        <v>67.54578468818379</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>70.47591037873919</v>
+        <v>70.47591037873904</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>56.54922147262691</v>
+        <v>56.5492214726268</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>71.38628529181892</v>
+        <v>71.38628529181904</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>73.58627877117959</v>
+        <v>73.58627877117928</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>30.01487194768031</v>
+        <v>30.01487194767997</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>77.85770302723552</v>
+        <v>77.85770302723503</v>
       </c>
     </row>
     <row r="256">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>22.92845576650991</v>
+        <v>22.92845576650999</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>52.18628139116272</v>
+        <v>52.18628139116255</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>57.06760634716642</v>
+        <v>57.06760634716609</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>2.502805007229608</v>
+        <v>2.502805007229494</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>49.04020188724473</v>
+        <v>49.04020188724503</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>52.18567580803048</v>
+        <v>52.18567580803068</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>13.77470608842346</v>
+        <v>13.77470608842335</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>71.26257501563701</v>
+        <v>71.26257501563698</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>75.68252978331478</v>
+        <v>75.68252978331473</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>75.27102386688684</v>
+        <v>75.27102386688701</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>87.65690929528316</v>
+        <v>87.65690929528292</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>93.52995500982948</v>
+        <v>93.52995500982931</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>29.11885557322588</v>
+        <v>29.11885557322601</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>84.5100776391379</v>
+        <v>84.51007763913749</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>84.30463400655228</v>
+        <v>84.30463400655182</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>3.526378887415397</v>
+        <v>3.526378887415358</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>9.375079023603025</v>
+        <v>9.375079023603028</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>14.38175046636824</v>
+        <v>14.38175046636807</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>-3.68934299492221</v>
+        <v>-3.689342994922495</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>16.00917595083302</v>
+        <v>16.00917595083311</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>16.7336962072394</v>
+        <v>16.73369620723961</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>-1.94540152743226</v>
+        <v>-1.945401527432598</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>26.43726120895037</v>
+        <v>26.43726120895043</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>26.94915331851283</v>
+        <v>26.94915331851268</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>19.97270084746216</v>
+        <v>19.97270084746196</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>29.41447602899073</v>
+        <v>29.41447602899042</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>29.05043518638049</v>
+        <v>29.05043518638033</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>8.606224303364254</v>
+        <v>8.606224303364218</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>19.03635472240437</v>
+        <v>19.03635472240452</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>22.96825556402976</v>
+        <v>22.96825556403015</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>18.13573912497843</v>
+        <v>18.13573912497833</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>30.91188226930295</v>
+        <v>30.91188226930239</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>40.19357341634191</v>
+        <v>40.19357341634171</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>4.621643578943146</v>
+        <v>4.621643578943381</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>25.92743398661607</v>
+        <v>25.92743398661588</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>36.56651959167034</v>
+        <v>36.56651959167029</v>
       </c>
     </row>
     <row r="293">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>44.27508535676466</v>
+        <v>44.27508535676483</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>56.40188837871458</v>
+        <v>56.4018883787142</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>36.79799876372293</v>
+        <v>36.79799876372284</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>48.65302340917477</v>
+        <v>48.65302340917454</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>50.22273481201395</v>
+        <v>50.22273481201383</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>20.67473215580975</v>
+        <v>20.67473215580953</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>52.36105095507882</v>
+        <v>52.36105095507827</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>57.273971050508</v>
+        <v>57.27397105050768</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>22.17607176434211</v>
+        <v>22.17607176434187</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>41.87589030162433</v>
+        <v>41.87589030162432</v>
       </c>
     </row>
     <row r="304">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>9.225389877227691</v>
+        <v>9.225389877227357</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>41.24759743173774</v>
+        <v>41.24759743173793</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>49.32076162337094</v>
+        <v>49.32076162337128</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>17.48277414227716</v>
+        <v>17.48277414227729</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>61.166402579497</v>
+        <v>61.16640257949678</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>69.9893845784283</v>
+        <v>69.98938457842817</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>68.08782011583018</v>
+        <v>68.08782011583013</v>
       </c>
     </row>
     <row r="312">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>83.26300720229825</v>
+        <v>83.2630072022979</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>35.51314128488602</v>
+        <v>35.51314128488586</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>78.95300247702804</v>
+        <v>78.95300247702802</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>83.92663649468744</v>
+        <v>83.92663649468741</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>5.65670577754635</v>
+        <v>5.656705777546083</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>10.04067887927948</v>
+        <v>10.0406788792793</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>11.70325566797891</v>
+        <v>11.70325566797883</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>-3.349063631972591</v>
+        <v>-3.349063631972705</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>16.6929280076473</v>
+        <v>16.69292800764738</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>15.06486715206842</v>
+        <v>15.06486715206827</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>-4.402894013988092</v>
+        <v>-4.40289401398849</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>23.80819170734022</v>
+        <v>23.80819170734011</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>22.89169475574672</v>
+        <v>22.89169475574642</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>18.95374872984021</v>
+        <v>18.95374872983992</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>21.64385119143583</v>
+        <v>21.64385119143561</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>24.40086466316276</v>
+        <v>24.40086466316256</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>8.494867373225564</v>
+        <v>8.494867373225244</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>13.03960234819509</v>
+        <v>13.03960234819496</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>16.14785521399594</v>
+        <v>16.14785521399557</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>7.136875516451518</v>
+        <v>7.136875516451582</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>15.97009444322877</v>
+        <v>15.97009444322886</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>19.50771798761244</v>
+        <v>19.50771798761251</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>-5.175448638370739</v>
+        <v>-5.175448638370781</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>10.83856601811117</v>
+        <v>10.83856601811133</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>17.41523723906766</v>
+        <v>17.41523723906802</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>-5.851932495747409</v>
+        <v>-5.851932495747931</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>22.82188330954649</v>
+        <v>22.82188330954632</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>32.32260606295148</v>
+        <v>32.32260606295101</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>13.70430333461879</v>
+        <v>13.70430333461884</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>24.55310592236103</v>
+        <v>24.55310592236136</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>32.38595681373351</v>
+        <v>32.38595681373388</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>2.340692269265524</v>
+        <v>2.340692269265482</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>28.61327828971082</v>
+        <v>28.61327828971087</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>26.66546491550151</v>
+        <v>26.66546491550157</v>
       </c>
     </row>
     <row r="347">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>22.64924942844365</v>
+        <v>22.64924942844343</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>34.9814836333012</v>
+        <v>34.98148363330108</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>-4.794750465451468</v>
+        <v>-4.794750465451507</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>15.63943619912289</v>
+        <v>15.6394361991228</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>31.24661830227591</v>
+        <v>31.2466183022761</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>-3.043687302313234</v>
+        <v>-3.043687302313483</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>33.69695105948833</v>
+        <v>33.6969510594882</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>51.39500442120944</v>
+        <v>51.39500442120973</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>36.63953956537371</v>
+        <v>36.6395395653734</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>47.88173724510064</v>
+        <v>47.88173724510068</v>
       </c>
     </row>
     <row r="358">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>8.818111016954536</v>
+        <v>8.818111016954216</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>38.85252425500872</v>
+        <v>38.85252425500841</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>50.86364054738461</v>
+        <v>50.86364054738424</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>8.485169828027686</v>
+        <v>8.485169828028024</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>30.11351670712625</v>
+        <v>30.11351670712649</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>38.84751842592889</v>
+        <v>38.84751842592884</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>7.822419794182441</v>
+        <v>7.822419794182505</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>49.60265562250902</v>
+        <v>49.60265562250908</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>53.85956420356679</v>
+        <v>53.85956420356689</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>15.86761351458376</v>
+        <v>15.86761351458426</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>66.45633947721358</v>
+        <v>66.4563394772137</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>69.99596681853953</v>
+        <v>69.99596681853929</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>66.96480462871769</v>
+        <v>66.9648046287177</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>78.95888778128831</v>
+        <v>78.95888778128807</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>78.66047335267918</v>
+        <v>78.66047335267896</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>27.63346346816876</v>
+        <v>27.63346346816922</v>
       </c>
     </row>
     <row r="375">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>66.28379503701628</v>
+        <v>66.28379503701645</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>15.81319708713252</v>
+        <v>15.81319708713237</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>38.12510352503697</v>
+        <v>38.12510352503695</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>44.77022488563659</v>
+        <v>44.77022488563617</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-2.099620653184484</v>
+        <v>-2.099620653184576</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>34.17425185391755</v>
+        <v>34.17425185391743</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>40.62170376310642</v>
+        <v>40.62170376310618</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>9.091198351274958</v>
+        <v>9.091198351274858</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>55.2099977383414</v>
+        <v>55.2099977383416</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>63.44335744669084</v>
+        <v>63.44335744669051</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>49.5109661145701</v>
+        <v>49.51096611456992</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>59.88702584355944</v>
+        <v>59.88702584355973</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>59.49723481322479</v>
+        <v>59.49723481322465</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>24.16418294098383</v>
+        <v>24.16418294098418</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>66.45309138787512</v>
+        <v>66.45309138787493</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>68.00716603977173</v>
+        <v>68.00716603977168</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>18.29421013835306</v>
+        <v>18.29421013835298</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>43.0361788615373</v>
+        <v>43.03617886153732</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>50.86592760643178</v>
+        <v>50.8659276064318</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>0.9686308452676649</v>
+        <v>0.9686308452675405</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>43.2661961277255</v>
+        <v>43.26619612772552</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>49.0445908627795</v>
+        <v>49.04459086277932</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>11.21358308691609</v>
+        <v>11.21358308691642</v>
       </c>
     </row>
     <row r="399">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>71.68009399174596</v>
+        <v>71.68009399174628</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>73.11083142614598</v>
+        <v>73.11083142614591</v>
       </c>
     </row>
     <row r="402">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>84.94466820287739</v>
+        <v>84.94466820287755</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>29.54548109522907</v>
+        <v>29.54548109522888</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>81.89454810334412</v>
+        <v>81.89454810334369</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>84.73050988280211</v>
+        <v>84.73050988280225</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>5.706307292049935</v>
+        <v>5.706307292049871</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>11.91237737767925</v>
+        <v>11.91237737767953</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>18.33589211235494</v>
+        <v>18.33589211235475</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>-5.955874941937275</v>
+        <v>-5.955874941937559</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>9.365074104281238</v>
+        <v>9.365074104281124</v>
       </c>
     </row>
     <row r="412">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>-5.040191043763283</v>
+        <v>-5.040191043763727</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>18.5775045574353</v>
+        <v>18.57750455743526</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>23.25770115745608</v>
+        <v>23.25770115745595</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>19.68548758047352</v>
+        <v>19.68548758047343</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>24.21470858117956</v>
+        <v>24.21470858117937</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>25.11970308704934</v>
+        <v>25.11970308704948</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>2.020526797651677</v>
+        <v>2.02052679765125</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>19.60370885536553</v>
+        <v>19.60370885536579</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>25.43746338312616</v>
+        <v>25.43746338312611</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>11.67076855530282</v>
+        <v>11.67076855530256</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>21.67647854385234</v>
+        <v>21.67647854385257</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>34.46428273825055</v>
+        <v>34.46428273825053</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>-1.326993849365117</v>
+        <v>-1.326993849365071</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>14.17879643172849</v>
+        <v>14.17879643172866</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>30.28666334777068</v>
+        <v>30.28666334777076</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>4.813190623594981</v>
+        <v>4.813190623594839</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>29.28524580729564</v>
+        <v>29.2852458072957</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>46.1877459643341</v>
+        <v>46.18774596433424</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>21.90097187165084</v>
+        <v>21.90097187165098</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>32.96236411965517</v>
+        <v>32.96236411965493</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>36.75041251435337</v>
+        <v>36.75041251435379</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>2.103941366865023</v>
+        <v>2.103941366864987</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>32.33028862755351</v>
+        <v>32.33028862755327</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>44.37225152566866</v>
+        <v>44.37225152566868</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>13.51101534514616</v>
+        <v>13.51101534514607</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>30.03965376777586</v>
+        <v>30.03965376777592</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>44.82042133933027</v>
+        <v>44.82042133933014</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>0.6804232039864857</v>
+        <v>0.680423203986301</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>26.17343705316996</v>
+        <v>26.17343705317</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>43.24328559157347</v>
+        <v>43.24328559157343</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>7.503889434099374</v>
+        <v>7.503889434099523</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>43.65266859985393</v>
+        <v>43.65266859985378</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>60.76509059711022</v>
+        <v>60.76509059711013</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>46.54643729130697</v>
+        <v>46.54643729130729</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>57.38973020439702</v>
+        <v>57.38973020439706</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>71.1087879257728</v>
+        <v>71.10878792577306</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>15.60485585751774</v>
+        <v>15.60485585751794</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>55.83256730618659</v>
+        <v>55.83256730618633</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>69.1990609042347</v>
+        <v>69.19906090423476</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>1.369592007029063</v>
+        <v>1.369592007029244</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>8.127971004341138</v>
+        <v>8.127971004341159</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>11.20088282157431</v>
+        <v>11.20088282157451</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>-7.07479140647138</v>
+        <v>-7.074791406471224</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>11.92884338092623</v>
+        <v>11.92884338092659</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>13.20379717777455</v>
+        <v>13.20379717777421</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>-7.671366566022886</v>
+        <v>-7.671366566022375</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>20.22831745318572</v>
+        <v>20.22831745318634</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>20.25146001413575</v>
+        <v>20.25146001413622</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>16.16774816541276</v>
+        <v>16.16774816541267</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>19.83446531610307</v>
+        <v>19.83446531610344</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>22.66942899842452</v>
+        <v>22.66942899842458</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>-1.219687299725319</v>
+        <v>-1.219687299725376</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>7.960130621402818</v>
+        <v>7.960130621403035</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>10.97902734652221</v>
+        <v>10.97902734652241</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>19.53205205944338</v>
+        <v>19.53205205944347</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>41.24314152769877</v>
+        <v>41.2431415276988</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>43.53025737985933</v>
+        <v>43.53025737985915</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>5.599313584749588</v>
+        <v>5.59931358474924</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>38.50322298294389</v>
+        <v>38.50322298294395</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>41.15305013610946</v>
+        <v>41.15305013610929</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>11.29634492572751</v>
+        <v>11.29634492572744</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>53.4102543017373</v>
+        <v>53.41025430173768</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>57.16689993980012</v>
+        <v>57.16689993980044</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>45.40732590800883</v>
+        <v>45.40732590800891</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>57.27639928001274</v>
+        <v>57.27639928001251</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>57.60623467034961</v>
+        <v>57.60623467034964</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>20.21651284459011</v>
+        <v>20.2165128445898</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>61.77383249692785</v>
+        <v>61.77383249692782</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>61.56381430228296</v>
+        <v>61.56381430228264</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>21.90315934028357</v>
+        <v>21.90315934028382</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>48.13696431776405</v>
+        <v>48.13696431776413</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>52.46599575426503</v>
+        <v>52.46599575426524</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>5.734345259034107</v>
+        <v>5.734345259034413</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>47.28083578408351</v>
+        <v>47.28083578408329</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>50.07427292229092</v>
+        <v>50.07427292229084</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>13.31146123702963</v>
+        <v>13.31146123702945</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>66.01497558402107</v>
+        <v>66.01497558402096</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>69.32100660799676</v>
+        <v>69.32100660799682</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>73.67262827377617</v>
+        <v>73.6726282737763</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>83.46956469423095</v>
+        <v>83.46956469423061</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>87.46422813366601</v>
+        <v>87.46422813366591</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>28.50325060893056</v>
+        <v>28.50325060893051</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>80.61685702491782</v>
+        <v>80.6168570249181</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>79.43219891533674</v>
+        <v>79.43219891533676</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>9.378008500210793</v>
+        <v>9.37800850021052</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>14.54984006217313</v>
+        <v>14.54984006217329</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>18.13628003303788</v>
+        <v>18.13628003303825</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>-0.8164742541538637</v>
+        <v>-0.8164742541537642</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>15.72903416617478</v>
+        <v>15.72903416617449</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>16.65207739876154</v>
+        <v>16.65207739876129</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>1.045216089940414</v>
+        <v>1.045216089940237</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>26.19072325713426</v>
+        <v>26.19072325713415</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>26.23274978369438</v>
+        <v>26.23274978369449</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>21.66588509831511</v>
+        <v>21.6658850983147</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>27.80152486431567</v>
+        <v>27.80152486431553</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>28.01896803564296</v>
+        <v>28.01896803564312</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>14.937137610602</v>
+        <v>14.93713761060189</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>27.01643152851197</v>
+        <v>27.01643152851201</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>31.24914461781009</v>
+        <v>31.24914461781051</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>9.319419268441898</v>
+        <v>9.319419268442356</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>17.81127707845245</v>
+        <v>17.81127707845242</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>24.25828709475375</v>
+        <v>24.25828709475347</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>-4.606175324305113</v>
+        <v>-4.606175324304917</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>10.41586647627907</v>
+        <v>10.41586647627926</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>17.84614178785752</v>
+        <v>17.8461417878575</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>-1.779088986749802</v>
+        <v>-1.779088986749596</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>22.93449701010994</v>
+        <v>22.93449701010976</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>31.41839475842978</v>
+        <v>31.41839475842967</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>16.60405978940305</v>
+        <v>16.60405978940306</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>25.67401233381656</v>
+        <v>25.67401233381677</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>26.25768399257399</v>
+        <v>26.25768399257394</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>3.954139401807428</v>
+        <v>3.954139401807431</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>28.56813115506471</v>
+        <v>28.56813115506453</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>32.53712146465619</v>
+        <v>32.53712146465609</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>17.29043728435705</v>
+        <v>17.2904372843571</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>32.47039361392738</v>
+        <v>32.47039361392742</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>38.2892659699031</v>
+        <v>38.28926596990307</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>1.891710728138044</v>
+        <v>1.891710728137941</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>28.02169335856517</v>
+        <v>28.02169335856519</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>32.77442941108282</v>
+        <v>32.77442941108272</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>8.090002778586147</v>
+        <v>8.090002778586072</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>45.7630201664422</v>
+        <v>45.76302016644208</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>50.74434289520841</v>
+        <v>50.74434289520813</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>51.79513501616576</v>
+        <v>51.79513501616586</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>60.42357656951398</v>
+        <v>60.42357656951413</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>63.04106919043377</v>
+        <v>63.04106919043379</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>25.49190465178105</v>
+        <v>25.49190465178119</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>57.8275590156084</v>
+        <v>57.82755901560854</v>
       </c>
     </row>
     <row r="541">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>6.301096709289755</v>
+        <v>6.301096709289702</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>1.386630366825418</v>
+        <v>1.386630366825312</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>2.557572171769962</v>
+        <v>2.557572171769756</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-3.732382578789235</v>
+        <v>-3.732382578789206</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>-1.533844204890919</v>
+        <v>-1.53384420489116</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>-2.392954031833227</v>
+        <v>-2.392954031833376</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>-5.192885102350633</v>
+        <v>-5.192885102350928</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>5.109163872518494</v>
+        <v>5.109163872518231</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>3.543127147099774</v>
+        <v>3.543127147099803</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>0.4707367802453604</v>
+        <v>0.4707367802452715</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>0.6828228274645802</v>
+        <v>0.6828228274642818</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>1.665642971387872</v>
+        <v>1.665642971387602</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>10.61276122929329</v>
+        <v>10.61276122929319</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>7.564843552134089</v>
+        <v>7.564843552133606</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>9.174717851811636</v>
+        <v>9.174717851811746</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>6.603719544179153</v>
+        <v>6.603719544179249</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>9.064024629902715</v>
+        <v>9.064024629902892</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>12.16509448039852</v>
+        <v>12.16509448039817</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-4.698061186685752</v>
+        <v>-4.698061186685951</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>1.644676743737993</v>
+        <v>1.644676743737836</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>5.558429597670983</v>
+        <v>5.558429597670816</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>-4.025440398028397</v>
+        <v>-4.025440398028564</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>11.32598253389991</v>
+        <v>11.32598253389976</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>16.21319431987144</v>
+        <v>16.2131943198715</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>2.548496802380605</v>
+        <v>2.548496802381003</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>9.473924992162228</v>
+        <v>9.473924992161514</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>10.01236490696686</v>
+        <v>10.01236490696706</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>-1.667112715471081</v>
+        <v>-1.667112715471223</v>
       </c>
     </row>
     <row r="570">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>15.90233417402612</v>
+        <v>15.90233417402579</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>14.01055683821115</v>
+        <v>14.01055683821145</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>22.30120761443911</v>
+        <v>22.30120761443874</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>28.58720601701058</v>
+        <v>28.58720601701043</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>-0.1093160146349881</v>
+        <v>-0.1093160146350023</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>16.06067800044761</v>
+        <v>16.06067800044755</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>21.95153804040499</v>
+        <v>21.9515380404049</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>5.156345067216712</v>
+        <v>5.156345067216851</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>32.33467478878471</v>
+        <v>32.3346747887847</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>38.45314877414691</v>
+        <v>38.45314877414727</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>35.90867030102592</v>
+        <v>35.90867030102636</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>42.16851049261128</v>
+        <v>42.16851049261149</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>47.08654347090408</v>
+        <v>47.08654347090416</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>17.86911702160421</v>
+        <v>17.86911702160399</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>38.0562017674021</v>
+        <v>38.05620176740207</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>42.93014327071373</v>
+        <v>42.93014327071344</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>17.15243236159028</v>
+        <v>17.15243236159021</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>24.99289337677561</v>
+        <v>24.99289337677583</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>30.16575112070367</v>
+        <v>30.16575112070405</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>2.056810258722962</v>
+        <v>2.056810258722798</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>26.75710782816079</v>
+        <v>26.75710782816093</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>28.7991467240621</v>
+        <v>28.79914672406169</v>
       </c>
     </row>
     <row r="593">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>39.67921913022449</v>
+        <v>39.67921913022418</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>42.23124242090869</v>
+        <v>42.23124242090892</v>
       </c>
     </row>
     <row r="596">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>43.3834150730256</v>
+        <v>43.3834150730255</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>47.32921573268575</v>
+        <v>47.32921573268589</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>31.41494820308117</v>
+        <v>31.41494820308096</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>46.90095598303029</v>
+        <v>46.90095598303022</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>57.56508562339016</v>
+        <v>57.56508562339025</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>14.39101156036</v>
+        <v>14.39101156036017</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>26.0459223522597</v>
+        <v>26.04592235225997</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>31.37813276919812</v>
+        <v>31.37813276919829</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>-2.460855634670637</v>
+        <v>-2.460855634670949</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>16.42592474287088</v>
+        <v>16.42592474287076</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>25.14241177555892</v>
+        <v>25.14241177555919</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>2.370970761198631</v>
+        <v>2.370970761198752</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>33.83897827758907</v>
+        <v>33.83897827758926</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>45.07856138739554</v>
+        <v>45.07856138739518</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>30.66879096097817</v>
+        <v>30.66879096097795</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>41.05813764674866</v>
+        <v>41.05813764674868</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>42.76066387131904</v>
+        <v>42.76066387131915</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>16.2268282626001</v>
+        <v>16.22682826260014</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>48.92624051406525</v>
+        <v>48.92624051406501</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>52.61409304110917</v>
+        <v>52.61409304110867</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>22.07588623089887</v>
+        <v>22.07588623089833</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>40.19012681368193</v>
+        <v>40.19012681368174</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>45.75632794796823</v>
+        <v>45.756327947968</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>6.72984104691578</v>
+        <v>6.729841046915602</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>34.04662621584441</v>
+        <v>34.0466262158446</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>41.68974094851333</v>
+        <v>41.68974094851337</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>11.3514342305832</v>
+        <v>11.35143423058307</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>54.93098587771973</v>
+        <v>54.93098587771962</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>64.28207886094484</v>
+        <v>64.28207886094503</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>64.80331715990054</v>
+        <v>64.80331715990023</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>72.59972019060103</v>
+        <v>72.5997201906011</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>81.09298719764848</v>
+        <v>81.09298719764828</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>32.78186945499463</v>
+        <v>32.78186945499426</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>72.24770841022712</v>
+        <v>72.24770841022725</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>78.73256973159621</v>
+        <v>78.73256973159623</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>18.92975712207202</v>
+        <v>18.92975712207205</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>35.53463134889915</v>
+        <v>35.53463134889893</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>40.53364351810672</v>
+        <v>40.5336435181067</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>11.60784102959359</v>
+        <v>11.60784102959349</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>41.00688417468123</v>
+        <v>41.00688417468136</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>45.05400064787008</v>
+        <v>45.05400064787</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>15.00110700084616</v>
+        <v>15.00110700084582</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>52.34378651194788</v>
+        <v>52.34378651194744</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>55.05898828260385</v>
+        <v>55.05898828260409</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>59.4159948240503</v>
+        <v>59.41599482405007</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>64.98261964632782</v>
+        <v>64.98261964632759</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>65.04220502666415</v>
+        <v>65.04220502666385</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>25.52606020459779</v>
+        <v>25.52606020459783</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>58.46227595042048</v>
+        <v>58.46227595042059</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>64.30814800284827</v>
+        <v>64.30814800284877</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>18.47866571287436</v>
+        <v>18.47866571287442</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>35.22696414062577</v>
+        <v>35.226964140626</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>43.87443269014255</v>
+        <v>43.87443269014278</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>6.734923329410297</v>
+        <v>6.734923329410286</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>31.71101354275709</v>
+        <v>31.71101354275707</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>42.54834013103438</v>
+        <v>42.54834013103455</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>12.49557846021086</v>
+        <v>12.49557846021106</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>46.49259679864842</v>
+        <v>46.49259679864859</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>58.11636117531926</v>
+        <v>58.11636117531903</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>44.17799199041761</v>
+        <v>44.17799199041778</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>53.97800059582356</v>
+        <v>53.97800059582333</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>54.90667235654013</v>
+        <v>54.90667235654026</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>13.04480460611718</v>
+        <v>13.04480460611729</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>52.3524906085396</v>
+        <v>52.35249060854014</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>59.77508611163175</v>
+        <v>59.77508611163239</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>17.96489994509762</v>
+        <v>17.96489994509768</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>41.12405144394249</v>
+        <v>41.12405144394245</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>50.46567772590915</v>
+        <v>50.46567772590914</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>4.606664143543558</v>
+        <v>4.606664143543622</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>39.94622617568987</v>
+        <v>39.94622617568985</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>49.83594518225607</v>
+        <v>49.8359451822562</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>11.84312983772991</v>
+        <v>11.8431298377299</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>57.96634569842585</v>
+        <v>57.96634569842581</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>67.87054484397949</v>
+        <v>67.87054484397979</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>66.1675841517403</v>
+        <v>66.16758415174073</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>75.47544237556104</v>
+        <v>75.4754423755613</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>81.98016505394385</v>
+        <v>81.98016505394394</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>19.48930769558941</v>
+        <v>19.48930769558938</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>69.29042931613014</v>
+        <v>69.29042931613071</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>75.82695319507947</v>
+        <v>75.82695319507951</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>17.70930629305123</v>
+        <v>17.70930629305099</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>33.18052667605066</v>
+        <v>33.18052667605043</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>38.36065986949365</v>
+        <v>38.36065986949355</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>7.206499268162634</v>
+        <v>7.206499268162499</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>43.12632376651091</v>
+        <v>43.12632376651094</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>45.04225582438222</v>
+        <v>45.0422558243819</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>12.99508303383429</v>
+        <v>12.99508303383458</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>56.79704123263532</v>
+        <v>56.79704123263561</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>59.04678795315425</v>
+        <v>59.04678795315414</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>57.73908370319184</v>
+        <v>57.73908370319211</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>64.53336305506274</v>
+        <v>64.53336305506241</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>66.17617040550806</v>
+        <v>66.17617040550803</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>26.48110158230595</v>
+        <v>26.48110158230612</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>48.92408378978712</v>
+        <v>48.92408378978702</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>59.95074730103491</v>
+        <v>59.95074730103487</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>20.59531252420115</v>
+        <v>20.59531252420113</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>39.58047635808086</v>
+        <v>39.58047635808045</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>44.54982251864728</v>
+        <v>44.54982251864762</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>4.468855225122851</v>
+        <v>4.468855225123146</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>34.45334575348034</v>
+        <v>34.4533457534803</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>42.93805641054531</v>
+        <v>42.93805641054516</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>9.479939369192131</v>
+        <v>9.47993936919249</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>52.14665072866448</v>
+        <v>52.14665072866458</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>63.0988688880181</v>
+        <v>63.09886888801898</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>50.28125784220308</v>
+        <v>50.2812578422033</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>61.67696254056121</v>
+        <v>61.67696254056067</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>61.84023718338116</v>
+        <v>61.84023718338142</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>23.75430569348459</v>
+        <v>23.75430569348454</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>67.48859499586642</v>
+        <v>67.48859499586617</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>69.84164178964764</v>
+        <v>69.84164178964784</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>23.00245373120988</v>
+        <v>23.00245373120994</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>46.7015908990839</v>
+        <v>46.70159089908427</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>52.00561365121304</v>
+        <v>52.0056136512129</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>7.045554036477679</v>
+        <v>7.045554036477743</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>43.43129767108894</v>
+        <v>43.43129767108916</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>50.62419162637106</v>
+        <v>50.62419162637081</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>11.1136839128991</v>
+        <v>11.11368391289873</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>63.87842698992831</v>
+        <v>63.87842698992877</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>72.82750227111394</v>
+        <v>72.82750227111367</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>74.5890524498345</v>
+        <v>74.58905244983468</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>83.69917255595863</v>
+        <v>83.69917255595936</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>89.75143937640648</v>
+        <v>89.75143937640654</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>29.73422425336236</v>
+        <v>29.73422425336197</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>80.44612689839454</v>
+        <v>80.44612689839488</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>85.37474731489354</v>
+        <v>85.37474731489355</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>22.19237249979541</v>
+        <v>22.19237249979566</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>34.68404059931246</v>
+        <v>34.68404059931242</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>37.50071394643781</v>
+        <v>37.50071394643771</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>19.82719436578452</v>
+        <v>19.82719436578448</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>51.81975274277755</v>
+        <v>51.81975274277764</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>51.23963090042491</v>
+        <v>51.23963090042515</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>19.08402471056646</v>
+        <v>19.08402471056606</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>57.53183383447025</v>
+        <v>57.53183383447008</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>57.76184949100934</v>
+        <v>57.76184949100906</v>
       </c>
     </row>
     <row r="731">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>63.12775997888782</v>
+        <v>63.12775997888764</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>65.33962144738835</v>
+        <v>65.33962144738861</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>35.3965525221336</v>
+        <v>35.39655252213362</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>53.11134664338724</v>
+        <v>53.11134664338742</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>63.17166422342876</v>
+        <v>63.17166422342909</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>23.97685111435493</v>
+        <v>23.97685111435503</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>39.75052875483141</v>
+        <v>39.75052875483095</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>44.81901412435555</v>
+        <v>44.81901412435589</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>25.96086492305261</v>
+        <v>25.96086492305289</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>49.811601933407</v>
+        <v>49.81160193340695</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>59.10234944966491</v>
+        <v>59.10234944966523</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>16.15217281805094</v>
+        <v>16.15217281805093</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>52.9111593174537</v>
+        <v>52.91115931745378</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>64.35585952759757</v>
+        <v>64.3558595275977</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>51.85452816026134</v>
+        <v>51.85452816026151</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>60.49238506244345</v>
+        <v>60.49238506244313</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>60.93474326731068</v>
+        <v>60.93474326731054</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>29.04629142876704</v>
+        <v>29.04629142876771</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>65.88499029459264</v>
+        <v>65.88499029459297</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>70.60569798174974</v>
+        <v>70.60569798175032</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>26.59945322507904</v>
+        <v>26.59945322507945</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>46.76597043887222</v>
+        <v>46.76597043887233</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>50.86877762387498</v>
+        <v>50.86877762387493</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>27.42449697438117</v>
+        <v>27.42449697438133</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>56.3543603802152</v>
+        <v>56.35436038021541</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>63.13404749401452</v>
+        <v>63.13404749401435</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>18.46508246684377</v>
+        <v>18.46508246684342</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>64.43846236592665</v>
+        <v>64.43846236592606</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>72.99635712533012</v>
+        <v>72.99635712533009</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>77.96105869787023</v>
+        <v>77.9610586978703</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>81.17115334245474</v>
+        <v>81.1711533424546</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>89.95149813807784</v>
+        <v>89.95149813807814</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>38.50438394022969</v>
+        <v>38.50438394022973</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>78.86300037539894</v>
+        <v>78.86300037539867</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>86.23381802619251</v>
+        <v>86.23381802619181</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>12.1365925811024</v>
+        <v>12.13659258110249</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>27.53063113154177</v>
+        <v>27.53063113154189</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>35.56685078023946</v>
+        <v>35.56685078023941</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>-0.8135334348622365</v>
+        <v>-0.813533434862407</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>29.76581414104423</v>
+        <v>29.76581414104421</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>36.93779439452832</v>
+        <v>36.93779439452856</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>6.793842768587091</v>
+        <v>6.793842768587272</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>46.30832056682095</v>
+        <v>46.30832056682066</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>51.89203168028138</v>
+        <v>51.89203168028159</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>52.32805869535858</v>
+        <v>52.32805869535878</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>56.87815189245269</v>
+        <v>56.87815189245271</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>59.29330395282656</v>
+        <v>59.29330395282672</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>15.77864347502469</v>
+        <v>15.77864347502444</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>49.16825236427207</v>
+        <v>49.16825236427192</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>59.41529888323846</v>
+        <v>59.41529888323812</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>13.40496589313686</v>
+        <v>13.4049658931372</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>31.40271477536919</v>
+        <v>31.40271477536916</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>39.45105712348784</v>
+        <v>39.45105712348789</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>-3.689725297161512</v>
+        <v>-3.689725297161612</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>24.18063552803909</v>
+        <v>24.18063552803963</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>34.52386760252765</v>
+        <v>34.52386760252782</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>3.293247648032054</v>
+        <v>3.29324764803215</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>41.73354376049037</v>
+        <v>41.73354376049064</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>53.53548877982509</v>
+        <v>53.53548877982541</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>37.54985156426149</v>
+        <v>37.54985156426159</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>47.36612838942227</v>
+        <v>47.36612838942239</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>48.82344585275488</v>
+        <v>48.82344585275492</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>4.621257906289593</v>
+        <v>4.621257906289472</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>46.23727899085669</v>
+        <v>46.23727899085694</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>53.56214154361573</v>
+        <v>53.56214154361606</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>13.96570318016843</v>
+        <v>13.96570318016875</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>38.07895396625994</v>
+        <v>38.07895396625991</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>49.28092808444543</v>
+        <v>49.28092808444532</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>-3.436264935647181</v>
+        <v>-3.436264935647312</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>34.2136663220105</v>
+        <v>34.21366632201089</v>
       </c>
     </row>
     <row r="802">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>2.874779192329751</v>
+        <v>2.874779192329857</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>53.29024666822072</v>
+        <v>53.29024666822066</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>66.25976902419724</v>
+        <v>66.25976902419727</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>61.98943491215188</v>
+        <v>61.98943491215194</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>72.0021657050049</v>
+        <v>72.00216570500538</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>81.81522448613359</v>
+        <v>81.81522448613356</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>10.93357850352893</v>
+        <v>10.93357850352912</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>65.58078098268341</v>
+        <v>65.58078098268354</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>75.53369345033157</v>
+        <v>75.53369345033174</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>13.43816532897797</v>
+        <v>13.4381653289777</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>18.73041838135805</v>
+        <v>18.73041838135798</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>22.36637923801954</v>
+        <v>22.36637923801959</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>2.819922563046145</v>
+        <v>2.819922563046266</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>21.61167308789716</v>
+        <v>21.6116730878976</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>22.42731164269598</v>
+        <v>22.42731164269621</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>5.867182191242915</v>
+        <v>5.867182191243227</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>31.97172291388147</v>
+        <v>31.97172291388181</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>32.96455154065211</v>
+        <v>32.96455154065234</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>30.08887135535733</v>
+        <v>30.08887135535787</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>34.27225609864136</v>
+        <v>34.27225609864162</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>37.63118561356868</v>
+        <v>37.63118561356886</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>18.4734755410673</v>
+        <v>18.47347554106762</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>27.03385023732073</v>
+        <v>27.03385023732092</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>33.11405297510048</v>
+        <v>33.11405297510093</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>19.08450929084722</v>
+        <v>19.08450929084718</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>31.23188849672798</v>
+        <v>31.23188849672768</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>39.18411858337029</v>
+        <v>39.18411858337052</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>7.158402088114727</v>
+        <v>7.158402088114652</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>26.25876191918093</v>
+        <v>26.258761919181</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>37.59861018137703</v>
+        <v>37.59861018137714</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>12.06763036274098</v>
+        <v>12.06763036274116</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>41.69603863733452</v>
+        <v>41.6960386373345</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>54.62404583266841</v>
+        <v>54.6240458326685</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>36.2385712949406</v>
+        <v>36.23857129494084</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>45.93021036825011</v>
+        <v>45.9302103682502</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>52.19927992013473</v>
+        <v>52.19927992013467</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>16.48159550485934</v>
+        <v>16.48159550485952</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>46.96044541154043</v>
+        <v>46.96044541153972</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>55.53427397063209</v>
+        <v>55.53427397063166</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>19.79175968780576</v>
+        <v>19.79175968780567</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>37.85908105754891</v>
+        <v>37.85908105754906</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>47.92847773027755</v>
+        <v>47.92847773027754</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>7.085671602199923</v>
+        <v>7.085671602199895</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>34.23838221291174</v>
+        <v>34.23838221291182</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>47.00383720351837</v>
+        <v>47.00383720351824</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>12.42424518131473</v>
+        <v>12.42424518131433</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>52.84523557610994</v>
+        <v>52.84523557611015</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>66.30079242659511</v>
+        <v>66.30079242659508</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>55.13293672040875</v>
+        <v>55.13293672040857</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>64.5218037281778</v>
+        <v>64.52180372817763</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>80.27538630229732</v>
+        <v>80.27538630229721</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>18.85033801747467</v>
+        <v>18.85033801747446</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>57.01943919879252</v>
+        <v>57.01943919879245</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>73.15949685174715</v>
+        <v>73.15949685174716</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>11.86608243991734</v>
+        <v>11.86608243991716</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>20.44877503937698</v>
+        <v>20.44877503937688</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>24.70268908964871</v>
+        <v>24.70268908964843</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>3.178750506068322</v>
+        <v>3.178750506067939</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>30.02958706935387</v>
+        <v>30.02958706935371</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>31.37845371487342</v>
+        <v>31.37845371487324</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>4.287166517447883</v>
+        <v>4.287166517447911</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>37.82822580668729</v>
+        <v>37.82822580668699</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>39.77149747927108</v>
+        <v>39.77149747927101</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>39.81068144360817</v>
+        <v>39.81068144360831</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>44.06428314790497</v>
+        <v>44.06428314790504</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>47.35092109666115</v>
+        <v>47.35092109666109</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>21.79847967281235</v>
+        <v>21.79847967281204</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>38.70600326898862</v>
+        <v>38.70600326898843</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>49.17447062317905</v>
+        <v>49.17447062317866</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>13.11924724003433</v>
+        <v>13.11924724003423</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>25.29720977689074</v>
+        <v>25.29720977689051</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>34.8514313583881</v>
+        <v>34.85143135838808</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>9.653571133961641</v>
+        <v>9.653571133961499</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>28.68563601693354</v>
+        <v>28.68563601693344</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>43.93140140579817</v>
+        <v>43.93140140579835</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>2.592308917694197</v>
+        <v>2.592308917694492</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>34.64318873744612</v>
+        <v>34.64318873744645</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>51.33841764766173</v>
+        <v>51.33841764766224</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>35.17575162160851</v>
+        <v>35.17575162160902</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>44.18329359687515</v>
+        <v>44.1832935968754</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>48.53007809354518</v>
+        <v>48.53007809354603</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>13.61289136689811</v>
+        <v>13.61289136689849</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>48.54622798559288</v>
+        <v>48.54622798559276</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>58.55828413577854</v>
+        <v>58.5582841357791</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>14.91920701066142</v>
+        <v>14.91920701066158</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>32.01527465148189</v>
+        <v>32.01527465148227</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>39.97349712841263</v>
+        <v>39.97349712841265</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>8.806073230565378</v>
+        <v>8.806073230565083</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>33.44062999279522</v>
+        <v>33.44062999279542</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>45.48510192494053</v>
+        <v>45.48510192494061</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>3.323542817338826</v>
+        <v>3.323542817339192</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>45.11131057966029</v>
+        <v>45.11131057966008</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>58.18269274195796</v>
+        <v>58.18269274195791</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>59.17602593111734</v>
+        <v>59.17602593111677</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>62.33488736473389</v>
+        <v>62.33488736473363</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>74.14959659758671</v>
+        <v>74.14959659758674</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>21.65725369050976</v>
+        <v>21.65725369051003</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>59.86493230454226</v>
+        <v>59.86493230454252</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>72.33670706628955</v>
+        <v>72.33670706628972</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>17.6910242074363</v>
+        <v>17.69102420743648</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>33.36531036143554</v>
+        <v>33.36531036143538</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>39.00376422962536</v>
+        <v>39.00376422962565</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>13.25579483273654</v>
+        <v>13.25579483273632</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>46.85604502284482</v>
+        <v>46.8560450228451</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>48.88886648229403</v>
+        <v>48.88886648229425</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>16.36075217747371</v>
+        <v>16.36075217747365</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>57.60199100166216</v>
+        <v>57.6019910016627</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>59.30063753805418</v>
+        <v>59.30063753805433</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>62.55975432153969</v>
+        <v>62.55975432154024</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>65.85389453006987</v>
+        <v>65.85389453007041</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>69.50966160733773</v>
+        <v>69.509661607338</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>29.44434833203838</v>
+        <v>29.4443483320387</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>48.02184384627588</v>
+        <v>48.0218438462756</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>63.86846219310617</v>
+        <v>63.86846219310655</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>23.44354841004539</v>
+        <v>23.44354841004584</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>40.31678396325599</v>
+        <v>40.3167839632558</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>44.43266393311437</v>
+        <v>44.43266393311487</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>13.18067642789351</v>
+        <v>13.18067642789327</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>39.82557014894699</v>
+        <v>39.82557014894721</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>44.91960855056496</v>
+        <v>44.91960855056489</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>14.44168394418782</v>
+        <v>14.44168394418806</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>51.82715497270243</v>
+        <v>51.82715497270269</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>58.8966357116493</v>
+        <v>58.89663571164934</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>48.42486352411503</v>
+        <v>48.42486352411518</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>55.99047847130559</v>
+        <v>55.99047847130567</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>55.20318256447219</v>
+        <v>55.2031825644722</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>24.89544269893634</v>
+        <v>24.89544269893673</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>59.13334866690326</v>
+        <v>59.13334866690309</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>63.06514698403005</v>
+        <v>63.06514698403028</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>21.99442170203083</v>
+        <v>21.99442170203096</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>45.25068166926505</v>
+        <v>45.25068166926506</v>
       </c>
     </row>
     <row r="934">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>12.81327733977873</v>
+        <v>12.81327733977843</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>48.46982638980469</v>
+        <v>48.4698263898045</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>51.76225584940673</v>
+        <v>51.76225584940651</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>13.33958491358455</v>
+        <v>13.33958491358477</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>62.27325215699099</v>
+        <v>62.27325215699105</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>66.93230707885181</v>
+        <v>66.93230707885196</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>73.14401584846139</v>
+        <v>73.14401584846128</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>78.38092266035258</v>
+        <v>78.38092266035244</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>83.55615622313641</v>
+        <v>83.55615622313637</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>31.56681870180859</v>
+        <v>31.56681870180866</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>75.4058221523009</v>
+        <v>75.40582215230125</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>81.10691546420024</v>
+        <v>81.10691546420044</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>12.7757144261235</v>
+        <v>12.77571442612345</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>29.04520162744798</v>
+        <v>29.04520162744778</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>36.43887594565386</v>
+        <v>36.4388759456534</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>2.321821569568879</v>
+        <v>2.321821569568744</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>34.92468149282537</v>
+        <v>34.9246814928253</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>40.75708502426512</v>
+        <v>40.7570850242652</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>8.120352795270772</v>
+        <v>8.120352795271017</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>49.11174864568036</v>
+        <v>49.11174864568005</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>53.85877826189009</v>
+        <v>53.85877826188997</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>51.48927256505822</v>
+        <v>51.48927256505841</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>58.65131247268214</v>
+        <v>58.65131247268231</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>60.64243157943332</v>
+        <v>60.64243157943338</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>16.31193055503453</v>
+        <v>16.31193055503446</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>49.86299817766388</v>
+        <v>49.86299817766384</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>60.62966497660031</v>
+        <v>60.62966497660032</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>15.79543257015166</v>
+        <v>15.7954325701517</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>34.43658494888935</v>
+        <v>34.43658494888963</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>41.621026163745</v>
+        <v>41.62102616374535</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>0.1120765555715799</v>
+        <v>0.1120765555716403</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>28.97014651070357</v>
+        <v>28.9701465107036</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>38.26458379507178</v>
+        <v>38.26458379507155</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>6.057385576176209</v>
+        <v>6.057385576176287</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>45.50690496501603</v>
+        <v>45.50690496501581</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>56.52580396326739</v>
+        <v>56.52580396326718</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>41.08839113907507</v>
+        <v>41.08839113907473</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>52.21113293031745</v>
+        <v>52.2111329303175</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>53.68663404911979</v>
+        <v>53.68663404911963</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>11.24512262690356</v>
+        <v>11.24512262690373</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>54.94354338880554</v>
+        <v>54.94354338880599</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>59.94516649911539</v>
+        <v>59.94516649911587</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>13.15529062242595</v>
+        <v>13.15529062242593</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>35.77636587571306</v>
+        <v>35.77636587571244</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>47.01787730538051</v>
+        <v>47.01787730538032</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>-2.857820401784593</v>
+        <v>-2.857820401784558</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>32.77914421974791</v>
+        <v>32.77914421974799</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>45.32360943273149</v>
+        <v>45.32360943273137</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>0.7367265942010697</v>
+        <v>0.7367265942014818</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>49.48015424773785</v>
+        <v>49.48015424773757</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>62.81798749592626</v>
+        <v>62.81798749592643</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>58.16569241972024</v>
+        <v>58.16569241972013</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>68.60300109070535</v>
+        <v>68.60300109070573</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>79.25970395575945</v>
+        <v>79.25970395575914</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>11.86269136070051</v>
+        <v>11.86269136070072</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>64.45547457877458</v>
+        <v>64.45547457877423</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>74.48610811736431</v>
+        <v>74.48610811736468</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/ligand/LOO_XPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/ligand/LOO_XPhos/results.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.534</v>
+        <v>0.543</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.915</v>
+        <v>17.578</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.912</v>
+        <v>-0.777</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24.236</v>
+        <v>23.366</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.923</v>
+        <v>0.976</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.906</v>
+        <v>4.459</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>10.99316381981173</v>
+        <v>20.21886509952395</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>18.70341181013434</v>
+        <v>15.93836580762637</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>22.03283439847793</v>
+        <v>17.76847946502214</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-2.785519415420719</v>
+        <v>4.74400315906335</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>22.24477992500642</v>
+        <v>20.54485712695153</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>22.39374014773668</v>
+        <v>23.16014901265511</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-0.5882368840265499</v>
+        <v>6.664455492610802</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>31.89570243819607</v>
+        <v>25.83948034688791</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>32.71974609588707</v>
+        <v>26.27933336828573</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>29.29397299679482</v>
+        <v>21.95338414814531</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>35.53295575561926</v>
+        <v>28.55171031366546</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>37.07074408680624</v>
+        <v>26.72396418904228</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>14.84803388941022</v>
+        <v>19.67445669089664</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>29.87078596747715</v>
+        <v>25.86107189896356</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>36.92100047959713</v>
+        <v>27.89002680736269</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>21.66957418543234</v>
+        <v>19.89357335652148</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>36.2452615235561</v>
+        <v>32.9820981687286</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>43.36964858672786</v>
+        <v>40.2877001193713</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>9.87367277538732</v>
+        <v>11.82874650866566</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>32.46944044294806</v>
+        <v>32.26695581735296</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>44.23461333833609</v>
+        <v>46.54909126508251</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>12.79960597987231</v>
+        <v>11.43755090426293</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>48.01366225937879</v>
+        <v>47.82007254139049</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>61.94274140905286</v>
+        <v>64.04382597971303</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>46.18393495326544</v>
+        <v>50.58434486757273</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>58.67607115041541</v>
+        <v>61.01134053927943</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>61.00330609351035</v>
+        <v>66.94981956266375</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>24.62548087733156</v>
+        <v>22.75792535852819</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>63.89726419562733</v>
+        <v>65.44373377283145</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>69.12934822132874</v>
+        <v>70.11970069222754</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>25.44171556165768</v>
+        <v>28.03201615219471</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>46.62795185649786</v>
+        <v>44.93210827913043</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>52.08220074855591</v>
+        <v>49.05261749532336</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>13.54752854589411</v>
+        <v>13.8991935961866</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>44.33754992306814</v>
+        <v>40.64754054384736</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>52.63987939331126</v>
+        <v>52.1680488106439</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>16.02097671193506</v>
+        <v>15.74380036447399</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>63.26445750608848</v>
+        <v>67.68487560114274</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>73.18325361169582</v>
+        <v>72.81256602136958</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>73.65521015638032</v>
+        <v>72.89915364581358</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>83.12345676468365</v>
+        <v>83.14844415051701</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>90.99819952326422</v>
+        <v>87.70181610986586</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>35.64206904079197</v>
+        <v>37.36963033138004</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>81.60926069114072</v>
+        <v>85.24236408132543</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>87.66767016375131</v>
+        <v>84.99895254752499</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>12.74284377283165</v>
+        <v>15.75537146738683</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>33.83046663202386</v>
+        <v>41.49761402667033</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>40.08720969966377</v>
+        <v>42.01576140842653</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>5.658960389877542</v>
+        <v>6.561774043289549</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>43.36721407433883</v>
+        <v>42.47505451521089</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>47.53499737527061</v>
+        <v>45.60635076491315</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>11.2994722683275</v>
+        <v>6.662767404423722</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>58.06484208713646</v>
+        <v>59.59295347568273</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>60.88523308764057</v>
+        <v>58.44362847600105</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>59.539385429934</v>
+        <v>53.55640090338768</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>69.27301381239889</v>
+        <v>58.7230962698662</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>68.71907476528885</v>
+        <v>58.60422203507196</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>20.14023638423127</v>
+        <v>16.55455484136959</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>53.72530764576335</v>
+        <v>59.48676786124388</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>62.22684477600787</v>
+        <v>64.60881379431012</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>17.52725404787607</v>
+        <v>16.80321445321101</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>40.59933828202911</v>
+        <v>38.16076922560348</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>49.30828220532526</v>
+        <v>43.23413526493228</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>0.9639675250865523</v>
+        <v>7.615070039696079</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>35.96967127637463</v>
+        <v>34.38034603087458</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>46.31867724772673</v>
+        <v>43.73119110462345</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>10.92570027090397</v>
+        <v>10.23556505914123</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>55.91602232361544</v>
+        <v>55.75682199794117</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>67.31091971568942</v>
+        <v>68.61200480547049</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>49.7819930975845</v>
+        <v>50.59293971173368</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>62.71005398014273</v>
+        <v>62.83398087940319</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>62.99149413364631</v>
+        <v>65.37133144417643</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>15.05203165056557</v>
+        <v>14.20123205373065</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>63.63146703284809</v>
+        <v>64.08070097851086</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>69.95478323732826</v>
+        <v>70.75659818198721</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>17.82161286119856</v>
+        <v>16.26801298767179</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>46.54026759603273</v>
+        <v>44.70800962777152</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>54.87119426151076</v>
+        <v>46.65588688912377</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>0.2998046984827027</v>
+        <v>6.544021039191659</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>45.37046761241142</v>
+        <v>43.2132259668526</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>53.01270962822007</v>
+        <v>49.85483844478105</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>11.56008760621</v>
+        <v>9.268452070194666</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>68.47053681324309</v>
+        <v>68.52236584293053</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>76.26802828503379</v>
+        <v>71.80670312498975</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>73.66787321340583</v>
+        <v>73.08015517650517</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>87.25591664892164</v>
+        <v>86.05465031513342</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>89.82822692314008</v>
+        <v>85.13802589906763</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>20.81501303206868</v>
+        <v>14.1139768197549</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>80.92982927517883</v>
+        <v>80.04118080204142</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>84.5992338696167</v>
+        <v>82.27281820995027</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>15.45871629055095</v>
+        <v>30.12895019664212</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>31.37126723568793</v>
+        <v>42.25919969061231</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>36.438281829609</v>
+        <v>43.3101761640892</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>8.562980512302147</v>
+        <v>12.27524407047689</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>41.17390101898265</v>
+        <v>45.50695970659383</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>43.25178955744317</v>
+        <v>48.06356214449612</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>14.12855452440528</v>
+        <v>12.29149553482402</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>56.0004732125332</v>
+        <v>64.7907880292791</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>56.70441494286031</v>
+        <v>59.18162875703504</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>51.6430833375498</v>
+        <v>55.15404238134204</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>62.02433742718608</v>
+        <v>64.66413128896735</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>61.1641539784675</v>
+        <v>63.66585392922171</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>24.88417957443445</v>
+        <v>33.32531319170794</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>53.8948042310888</v>
+        <v>62.30288281833573</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>59.67041164909456</v>
+        <v>66.34066772619192</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>22.95498067894011</v>
+        <v>26.30034628769909</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>44.47233386917908</v>
+        <v>44.53139834608337</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>50.44683649108441</v>
+        <v>46.57508760568604</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>7.905867738062884</v>
+        <v>10.34562326999025</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>41.60191859071132</v>
+        <v>41.33378294304455</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>48.03575907790551</v>
+        <v>44.59967176747074</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>16.41407472592983</v>
+        <v>11.33465046994908</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>60.31885925804258</v>
+        <v>63.41003526912336</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>67.98454623423338</v>
+        <v>68.26023766018173</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>53.67483432046956</v>
+        <v>55.69868103611147</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>65.6317514976774</v>
+        <v>66.31531634582875</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>64.35725904895301</v>
+        <v>65.09300292362749</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>24.02507149458418</v>
+        <v>28.38094826765713</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>68.10152675818485</v>
+        <v>67.29551179227244</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>69.93835130937319</v>
+        <v>68.25640980883236</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>24.39952447970555</v>
+        <v>33.31469780479743</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>51.29896126154462</v>
+        <v>51.04946324399049</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>57.66560677780835</v>
+        <v>51.2795583868019</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>7.329624313881318</v>
+        <v>11.71137795293211</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>51.01703577769464</v>
+        <v>50.48660431928051</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>55.6811907968224</v>
+        <v>51.10651629089168</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>15.93372131326427</v>
+        <v>13.3351803475179</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>71.67202773214056</v>
+        <v>74.79377565317104</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>76.67846699210394</v>
+        <v>71.73308748981427</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>80.44676979987126</v>
+        <v>78.38140753456435</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>91.75057273847682</v>
+        <v>84.53269821549068</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>93.06980615091381</v>
+        <v>86.83943983128164</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>32.60435243178254</v>
+        <v>35.8166496679909</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>88.18153230336526</v>
+        <v>83.82822912334476</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>88.85701379317111</v>
+        <v>84.63267048720869</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>15.22802423061221</v>
+        <v>21.25275990076804</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>20.9377248575054</v>
+        <v>19.384310071226</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>23.03188453317508</v>
+        <v>19.65115543775724</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>4.084772105948453</v>
+        <v>6.22310577412393</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>25.97362839616345</v>
+        <v>23.47924991081323</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>24.66180919747758</v>
+        <v>23.96373302987934</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>6.04752204108614</v>
+        <v>7.620969019358309</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>35.26762913220148</v>
+        <v>29.85041435706423</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>34.99503378612147</v>
+        <v>27.59313640620287</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>33.77117205745184</v>
+        <v>24.83221710374522</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>37.03517694291679</v>
+        <v>28.56198884106715</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>41.26073248639582</v>
+        <v>30.1589266885341</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>39.41652441491691</v>
+        <v>63.02730742070882</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>48.79678677582059</v>
+        <v>63.19507376572238</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>55.24631994503519</v>
+        <v>61.55597067424237</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>20.7628644629443</v>
+        <v>18.63653322517269</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>34.54631763673861</v>
+        <v>36.02850655855537</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>40.38248736717035</v>
+        <v>40.41357330878253</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>11.92821921581938</v>
+        <v>12.19642524695182</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>32.57636719756967</v>
+        <v>37.56146368329716</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>42.68248525007986</v>
+        <v>49.96105187829842</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>14.27875937839857</v>
+        <v>13.11950864054425</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>47.43480073091534</v>
+        <v>50.26419996275585</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>60.06553356525444</v>
+        <v>65.1645761024817</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>39.88711871480964</v>
+        <v>44.51754926203051</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>50.57376506115797</v>
+        <v>54.02216899307005</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>58.23376759502383</v>
+        <v>62.96466961230143</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>27.18440949631422</v>
+        <v>19.77114411467493</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>61.91333119032824</v>
+        <v>61.63379622227352</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>66.54356611357211</v>
+        <v>66.63490179771242</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>25.33044147109149</v>
+        <v>30.14082217368504</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>42.34325107612483</v>
+        <v>45.6788782454437</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>48.64517950443421</v>
+        <v>51.30921664782502</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>13.75303238509554</v>
+        <v>15.04182470078647</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>38.76332132961339</v>
+        <v>44.10842456192762</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>47.81007138609807</v>
+        <v>51.29375841280617</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>17.42619775761778</v>
+        <v>17.78900858118679</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>59.09575642750033</v>
+        <v>65.4081922974745</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>70.10146102596367</v>
+        <v>73.35130140929743</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>65.77596882706219</v>
+        <v>64.1324618959773</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>73.20210296625271</v>
+        <v>74.05288399797618</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>86.76423598852219</v>
+        <v>85.3105238428807</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>39.18485590597283</v>
+        <v>39.32219638380414</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>75.32707393196139</v>
+        <v>77.2910711624686</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>82.97696007941521</v>
+        <v>81.03076571842037</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>23.86649406158036</v>
+        <v>29.98923487527777</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>38.65290021227617</v>
+        <v>44.02883401010867</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>39.93226935408415</v>
+        <v>40.99228627707872</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>14.59119977229413</v>
+        <v>11.96136875216064</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>48.20069484947214</v>
+        <v>46.3223220549074</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>46.45769360229903</v>
+        <v>49.18529402424686</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>19.49864786771056</v>
+        <v>13.48243309962131</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>60.54732754793255</v>
+        <v>68.71580137955277</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>59.37966546931432</v>
+        <v>61.54538316591312</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>55.51271806439191</v>
+        <v>55.35423119541777</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>60.6583031762116</v>
+        <v>66.44574622946092</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>63.01404278732976</v>
+        <v>67.23417359154831</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>27.66836499853296</v>
+        <v>24.9684653387074</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>40.8757531572098</v>
+        <v>15.87379912667533</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>45.62943656572749</v>
+        <v>17.10804512041829</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>29.08169125784739</v>
+        <v>32.47419276110135</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>51.06888394424689</v>
+        <v>49.36336374375623</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>51.94684663111032</v>
+        <v>47.52180960507896</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>14.46348955028289</v>
+        <v>12.09327384220832</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>47.34697936863187</v>
+        <v>46.28641205675379</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>51.31303893315419</v>
+        <v>49.32926286496335</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>19.26528178732315</v>
+        <v>13.12480727141418</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>64.24927922443315</v>
+        <v>67.42371598489243</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>70.78941679465943</v>
+        <v>66.78020535534375</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>60.27045290383103</v>
+        <v>66.66151550069941</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>71.65632390962058</v>
+        <v>73.64896912776099</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>74.13530010982912</v>
+        <v>72.94066611404504</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>37.76038786548586</v>
+        <v>41.68883480579518</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>78.69821143407515</v>
+        <v>75.81405148917291</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>75.67901626079606</v>
+        <v>74.69161524014612</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>30.33783332837099</v>
+        <v>37.20446144712135</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>53.99544054990855</v>
+        <v>52.72936014837322</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>57.949511585699</v>
+        <v>53.73132728496198</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>13.93570673260973</v>
+        <v>12.62116048134519</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>49.1318052733162</v>
+        <v>48.63548627127179</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>55.1519400033021</v>
+        <v>51.88997129754858</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>18.34456599139745</v>
+        <v>14.9670733504314</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>69.69503987385657</v>
+        <v>74.12001608913464</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>77.81149696766454</v>
+        <v>75.63425289257694</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>81.09290173191886</v>
+        <v>82.16210138948847</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>88.99451593130902</v>
+        <v>85.65514970910542</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>99.5977304632203</v>
+        <v>88.52602992182842</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>43.02303365822901</v>
+        <v>52.93140895332306</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>86.86391424225502</v>
+        <v>88.91920752982553</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>89.7427771601822</v>
+        <v>83.35926952343206</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>15.22666777745814</v>
+        <v>23.6006919833467</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>32.46264674886327</v>
+        <v>36.47441848083327</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>36.46639117000724</v>
+        <v>40.19334362077121</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>11.83851349404974</v>
+        <v>10.49868721190344</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>45.52323229302696</v>
+        <v>44.30466162346978</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>46.23840617995889</v>
+        <v>47.47221831682548</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>18.09765989979275</v>
+        <v>10.88450167763541</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>60.59725043006229</v>
+        <v>67.32637238224115</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>60.87772614570979</v>
+        <v>62.89598656715453</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>56.66279153979881</v>
+        <v>57.54681291721083</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>64.0943051970185</v>
+        <v>62.31050255133987</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>67.37680082339473</v>
+        <v>63.89962346866078</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>13.91114132244495</v>
+        <v>18.01170256671404</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>20.62641279479971</v>
+        <v>11.24215360567568</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>25.3656744794101</v>
+        <v>10.40520824051002</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>22.73156593044328</v>
+        <v>28.34347525234364</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>52.31439877445095</v>
+        <v>48.44300237441819</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>53.62840084672648</v>
+        <v>49.90337287193782</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>3.6354419895215</v>
+        <v>10.90857054970322</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>47.84556223126094</v>
+        <v>46.15276751403457</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>48.97758597921971</v>
+        <v>49.5131457544049</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>14.37638289441969</v>
+        <v>12.46820158228098</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>67.54578468818379</v>
+        <v>68.25851260370524</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>70.47591037873904</v>
+        <v>70.35791356100641</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>56.5492214726268</v>
+        <v>54.11072213231728</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>71.38628529181904</v>
+        <v>68.5238518341919</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>73.58627877117928</v>
+        <v>70.45818277969815</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>30.01487194767997</v>
+        <v>26.62778499907111</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>77.85770302723503</v>
+        <v>73.95398764042574</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>76.27441860372961</v>
+        <v>76.895267111482</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>22.92845576650999</v>
+        <v>28.31879099212069</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>52.18628139116255</v>
+        <v>47.83354346315603</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>57.06760634716609</v>
+        <v>49.50645038921041</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>2.502805007229494</v>
+        <v>10.44516414757143</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>49.04020188724503</v>
+        <v>47.56320250448484</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>52.18567580803068</v>
+        <v>48.46631784055333</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>13.77470608842335</v>
+        <v>11.36203963262657</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>71.26257501563698</v>
+        <v>70.784921343608</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>75.68252978331473</v>
+        <v>68.47888307155594</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>75.27102386688701</v>
+        <v>71.78061725984281</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>87.65690929528292</v>
+        <v>79.22104922780267</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>93.52995500982931</v>
+        <v>80.15165774551838</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>29.11885557322601</v>
+        <v>26.81937320695723</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>84.51007763913749</v>
+        <v>80.57610359671833</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>84.30463400655182</v>
+        <v>79.93399693229705</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>3.526378887415358</v>
+        <v>13.97259846280375</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>9.375079023603028</v>
+        <v>12.08966257746515</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>14.38175046636807</v>
+        <v>14.71646677518654</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>-3.689342994922495</v>
+        <v>4.530781408431903</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>16.00917595083311</v>
+        <v>17.50585014751939</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>16.73369620723961</v>
+        <v>20.07595565398</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>-1.945401527432598</v>
+        <v>4.779105540687773</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>26.43726120895043</v>
+        <v>23.17910796986386</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>26.94915331851268</v>
+        <v>23.93803964363569</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>19.97270084746196</v>
+        <v>22.99700880306643</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>29.41447602899042</v>
+        <v>29.70552458994423</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>29.05043518638033</v>
+        <v>30.90206044844836</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>8.606224303364218</v>
+        <v>18.49343131527232</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>19.03635472240452</v>
+        <v>21.50264377180737</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>22.96825556403015</v>
+        <v>22.79696981762871</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>18.13573912497833</v>
+        <v>16.78009231824933</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>30.91188226930239</v>
+        <v>29.74968386720432</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>40.19357341634171</v>
+        <v>35.07657340669099</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>4.621643578943381</v>
+        <v>8.583689169263728</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>25.92743398661588</v>
+        <v>28.79473366345366</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>36.56651959167029</v>
+        <v>37.18788872475922</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>13.08099386957856</v>
+        <v>9.902141136309908</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>44.27508535676483</v>
+        <v>43.35436880815949</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>56.4018883787142</v>
+        <v>53.16343756440736</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>36.79799876372284</v>
+        <v>40.36034757735249</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>48.65302340917454</v>
+        <v>50.14654620426977</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>50.22273481201383</v>
+        <v>50.71961029157153</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>20.67473215580953</v>
+        <v>19.047540261667</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>52.36105095507827</v>
+        <v>49.48525627241246</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>57.27397105050768</v>
+        <v>51.94506072037738</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>22.17607176434187</v>
+        <v>21.49604402878392</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>41.87589030162432</v>
+        <v>39.16862731410795</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>50.40612403165495</v>
+        <v>42.71490084668417</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>9.225389877227357</v>
+        <v>11.7632706561307</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>41.24759743173793</v>
+        <v>41.16285073181709</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>49.32076162337128</v>
+        <v>46.76492803173149</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>17.48277414227729</v>
+        <v>14.4943070414579</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>61.16640257949678</v>
+        <v>63.11211326177033</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>69.98938457842817</v>
+        <v>63.84326314771315</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>68.08782011583013</v>
+        <v>67.15042081209447</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>79.19343802664176</v>
+        <v>74.59871327738109</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>83.2630072022979</v>
+        <v>76.32724482601637</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>35.51314128488586</v>
+        <v>34.58265150894215</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>78.95300247702802</v>
+        <v>75.82519296832666</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>83.92663649468741</v>
+        <v>80.66284385683133</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>5.656705777546083</v>
+        <v>17.67967567949918</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>10.0406788792793</v>
+        <v>14.15655762589749</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>11.70325566797883</v>
+        <v>14.4497478132428</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>-3.349063631972705</v>
+        <v>3.918358283863558</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>16.69292800764738</v>
+        <v>16.51933178470595</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>15.06486715206827</v>
+        <v>19.48302610779155</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>-4.40289401398849</v>
+        <v>3.862899658738467</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>23.80819170734011</v>
+        <v>18.32271435389551</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>22.89169475574642</v>
+        <v>14.98261557160426</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>18.95374872983992</v>
+        <v>13.08531423518374</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>21.64385119143561</v>
+        <v>15.34235361946114</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>24.40086466316256</v>
+        <v>12.67297945816518</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>8.494867373225244</v>
+        <v>17.14051456770444</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>13.03960234819496</v>
+        <v>16.62386188894154</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>16.14785521399557</v>
+        <v>17.60790604850076</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>7.136875516451582</v>
+        <v>9.376530455182422</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>15.97009444322886</v>
+        <v>12.58420499761892</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>19.50771798761251</v>
+        <v>14.91949346280972</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>-5.175448638370781</v>
+        <v>2.502987522276104</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>10.83856601811133</v>
+        <v>13.83159744032114</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>17.41523723906802</v>
+        <v>18.16940314486008</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>-5.851932495747931</v>
+        <v>1.259679639717678</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>22.82188330954632</v>
+        <v>17.34187161097052</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>32.32260606295101</v>
+        <v>25.03817920564708</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>13.70430333461884</v>
+        <v>12.67511200059891</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>24.55310592236136</v>
+        <v>24.394238007608</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>32.38595681373388</v>
+        <v>33.59929426142901</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>2.340692269265482</v>
+        <v>6.137421065320876</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>28.61327828971087</v>
+        <v>23.18091528074267</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>26.66546491550157</v>
+        <v>18.66324771997964</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>10.8190911386376</v>
+        <v>10.61732361835655</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>22.64924942844343</v>
+        <v>17.99586081569797</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>34.98148363330108</v>
+        <v>34.15355284480219</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>-4.794750465451507</v>
+        <v>3.226562107031903</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>15.6394361991228</v>
+        <v>19.42235523353826</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>31.2466183022761</v>
+        <v>36.63067475359644</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>-3.043687302313483</v>
+        <v>2.641968979240435</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>33.6969510594882</v>
+        <v>27.56937597521062</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>51.39500442120973</v>
+        <v>58.5685693624165</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>36.6395395653734</v>
+        <v>25.06967484948301</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>47.88173724510068</v>
+        <v>49.13279883154875</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>67.14863437556181</v>
+        <v>68.84606338307476</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>8.818111016954216</v>
+        <v>9.952520218897639</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>38.85252425500841</v>
+        <v>35.84828477971937</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>50.86364054738424</v>
+        <v>44.10500676134478</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>8.485169828028024</v>
+        <v>20.78440916916328</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>30.11351670712649</v>
+        <v>27.70111792539206</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>38.84751842592884</v>
+        <v>40.18881293136497</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>7.822419794182505</v>
+        <v>11.73246636485703</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>49.60265562250908</v>
+        <v>45.95334354681869</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>53.85956420356689</v>
+        <v>50.75408017340065</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>15.86761351458426</v>
+        <v>13.2819867971558</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>66.4563394772137</v>
+        <v>64.35889163961195</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>69.99596681853929</v>
+        <v>65.46263502234142</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>66.9648046287177</v>
+        <v>60.06376023256231</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>78.95888778128807</v>
+        <v>69.62904535231665</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>78.66047335267896</v>
+        <v>68.80639662388111</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>27.63346346816922</v>
+        <v>35.62088842357802</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>55.05816013379527</v>
+        <v>57.19530258786152</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>66.28379503701645</v>
+        <v>72.7873147861557</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>15.81319708713237</v>
+        <v>23.00989702317809</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>38.12510352503695</v>
+        <v>36.45480349458258</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>44.77022488563617</v>
+        <v>39.96744014939293</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-2.099620653184576</v>
+        <v>9.077460251527548</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>34.17425185391743</v>
+        <v>35.60262860810111</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>40.62170376310618</v>
+        <v>38.19876429513334</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>9.091198351274858</v>
+        <v>10.69073030439237</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>55.2099977383416</v>
+        <v>53.95075252186305</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>63.44335744669051</v>
+        <v>58.1936643484967</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>49.51096611456992</v>
+        <v>47.65460386858722</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>59.88702584355973</v>
+        <v>54.69498642531155</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>59.49723481322465</v>
+        <v>54.07086325897744</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>24.16418294098418</v>
+        <v>29.86371945456592</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>66.45309138787493</v>
+        <v>60.63397222429078</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>68.00716603977168</v>
+        <v>60.76324016867595</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>18.29421013835298</v>
+        <v>23.57985840081339</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>43.03617886153732</v>
+        <v>39.23984463037603</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>50.8659276064318</v>
+        <v>42.97604398341061</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>0.9686308452675405</v>
+        <v>10.9450512703494</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>43.26619612772552</v>
+        <v>45.12595303486469</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>49.04459086277932</v>
+        <v>46.42941227713534</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>11.21358308691642</v>
+        <v>13.31086630778268</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>65.04608695123741</v>
+        <v>66.76380942569602</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>71.68009399174628</v>
+        <v>65.76258462667741</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>73.11083142614591</v>
+        <v>69.31028566324558</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>83.31373325112317</v>
+        <v>75.17548912236843</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>84.94466820287755</v>
+        <v>75.75851237227552</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>29.54548109522888</v>
+        <v>35.11233927810578</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>81.89454810334369</v>
+        <v>74.50779699621765</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>84.73050988280225</v>
+        <v>79.89366802487064</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>5.706307292049871</v>
+        <v>11.95803899460087</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>11.91237737767953</v>
+        <v>16.38749880857716</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>18.33589211235475</v>
+        <v>16.26014415470831</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>-5.955874941937559</v>
+        <v>3.125504789760392</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>9.365074104281124</v>
+        <v>12.15391877073983</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>15.14251837637776</v>
+        <v>18.04429647021507</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>-5.040191043763727</v>
+        <v>2.633440207941224</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>18.57750455743526</v>
+        <v>20.57853895077352</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>23.25770115745595</v>
+        <v>21.28817259131187</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>19.68548758047343</v>
+        <v>19.25392732194781</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>24.21470858117937</v>
+        <v>23.08957115492579</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>25.11970308704948</v>
+        <v>23.99976595267474</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>2.02052679765125</v>
+        <v>12.60163451031619</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>19.60370885536579</v>
+        <v>21.7811365773254</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>25.43746338312611</v>
+        <v>24.46895466480521</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>11.67076855530256</v>
+        <v>12.61365224148811</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>21.67647854385257</v>
+        <v>24.76711174127708</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>34.46428273825053</v>
+        <v>30.43699212247212</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>-1.326993849365071</v>
+        <v>7.005290314742822</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>14.17879643172866</v>
+        <v>21.69178378801604</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>30.28666334777076</v>
+        <v>32.03919970871794</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>4.813190623594839</v>
+        <v>8.030640716822326</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>29.2852458072957</v>
+        <v>34.89399054908218</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>46.18774596433424</v>
+        <v>47.23908293128639</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>21.90097187165098</v>
+        <v>26.29444061649291</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>32.96236411965493</v>
+        <v>38.55225600093564</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>36.75041251435379</v>
+        <v>38.42803157556889</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>2.103941366864987</v>
+        <v>10.7668859718437</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>32.33028862755327</v>
+        <v>36.23239181374067</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>44.37225152566868</v>
+        <v>43.40285010362328</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>13.51101534514607</v>
+        <v>20.88924832178184</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>30.03965376777592</v>
+        <v>35.11400122091452</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>44.82042133933014</v>
+        <v>42.23832993758131</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>0.680423203986301</v>
+        <v>12.78138882529444</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>26.17343705317</v>
+        <v>32.30693785598365</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>43.24328559157343</v>
+        <v>43.10532407108211</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>7.503889434099523</v>
+        <v>16.54213296310067</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>43.65266859985378</v>
+        <v>48.48880669443467</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>60.76509059711013</v>
+        <v>59.39006703307384</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>46.54643729130729</v>
+        <v>49.3399154451981</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>57.38973020439706</v>
+        <v>60.35228302696488</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>71.10878792577306</v>
+        <v>75.23749914547307</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>15.60485585751794</v>
+        <v>28.23564067299823</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>55.83256730618633</v>
+        <v>59.29916148392973</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>69.19906090423476</v>
+        <v>68.58431127018545</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>1.369592007029244</v>
+        <v>8.945002546240751</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>8.127971004341159</v>
+        <v>7.77808303087356</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>11.20088282157451</v>
+        <v>10.83399923928847</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>-7.074791406471224</v>
+        <v>0.5973406156008529</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>11.92884338092659</v>
+        <v>8.576645260033494</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>13.20379717777421</v>
+        <v>14.20259575079401</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>-7.671366566022375</v>
+        <v>-1.951565810533026</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>20.22831745318634</v>
+        <v>8.611872051429639</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>20.25146001413622</v>
+        <v>13.30006788698077</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>16.16774816541267</v>
+        <v>6.21569390334378</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>19.83446531610344</v>
+        <v>6.272584172676027</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>22.66942899842458</v>
+        <v>16.62955650727794</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>-1.219687299725376</v>
+        <v>8.395846917951545</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>7.960130621403035</v>
+        <v>11.04234166622992</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>10.97902734652241</v>
+        <v>17.40096617250353</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>19.53205205944347</v>
+        <v>22.19017458579354</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>41.2431415276988</v>
+        <v>37.76595195863322</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>43.53025737985915</v>
+        <v>38.38170322037207</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>5.59931358474924</v>
+        <v>9.956163149714104</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>38.50322298294395</v>
+        <v>36.22241223504101</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>41.15305013610929</v>
+        <v>38.41299836590372</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>11.29634492572744</v>
+        <v>10.58889190623979</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>53.41025430173768</v>
+        <v>53.82567577951411</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>57.16689993980044</v>
+        <v>55.38283621967163</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>45.40732590800891</v>
+        <v>46.43524803220419</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>57.27639928001251</v>
+        <v>53.74871768692581</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>57.60623467034964</v>
+        <v>54.38611087225001</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>20.2165128445898</v>
+        <v>22.14173307944071</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>61.77383249692782</v>
+        <v>57.52578185153935</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>61.56381430228264</v>
+        <v>57.99034945155461</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>21.90315934028382</v>
+        <v>25.45611531267692</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>48.13696431776413</v>
+        <v>43.2517009512904</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>52.46599575426524</v>
+        <v>45.36717204159207</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>5.734345259034413</v>
+        <v>10.62240982970486</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>47.28083578408329</v>
+        <v>47.07662149524946</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>50.07427292229084</v>
+        <v>49.67854505159846</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>13.31146123702945</v>
+        <v>10.91719094797268</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>66.01497558402096</v>
+        <v>67.91693858958121</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>69.32100660799682</v>
+        <v>65.35633545153816</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>73.6726282737763</v>
+        <v>73.4441379911859</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>83.46956469423061</v>
+        <v>81.51784225156136</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>87.46422813366591</v>
+        <v>80.2609605198171</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>28.50325060893051</v>
+        <v>27.17065542852637</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>80.6168570249181</v>
+        <v>79.71897203283825</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>79.43219891533676</v>
+        <v>77.50191118339131</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>9.37800850021052</v>
+        <v>14.89782457127506</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>14.54984006217329</v>
+        <v>18.61869207395991</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>18.13628003303825</v>
+        <v>20.28143529785986</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>-0.8164742541537642</v>
+        <v>2.524747564357085</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>15.72903416617449</v>
+        <v>17.43857136165194</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>16.65207739876129</v>
+        <v>21.14764554694074</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>1.045216089940237</v>
+        <v>2.640242761352788</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>26.19072325713415</v>
+        <v>22.98635686953493</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>26.23274978369449</v>
+        <v>26.0518001332493</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>21.6658850983147</v>
+        <v>21.75590191312345</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>27.80152486431553</v>
+        <v>24.50025783755006</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>28.01896803564312</v>
+        <v>27.67331663747332</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>14.93713761060189</v>
+        <v>15.80173524665276</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>27.01643152851201</v>
+        <v>26.20743233326044</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>31.24914461781051</v>
+        <v>29.21482234507977</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>9.319419268442356</v>
+        <v>10.36341436238873</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>17.81127707845242</v>
+        <v>16.96528072590769</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>24.25828709475347</v>
+        <v>23.50796897415767</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>-4.606175324304917</v>
+        <v>2.034911961897592</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>10.41586647627926</v>
+        <v>13.02194572360256</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>17.8461417878575</v>
+        <v>21.97692926649942</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>-1.779088986749596</v>
+        <v>1.472969504648926</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>22.93449701010976</v>
+        <v>20.0076072093391</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>31.41839475842967</v>
+        <v>33.8680970204584</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>16.60405978940306</v>
+        <v>14.4231255686325</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>25.67401233381677</v>
+        <v>23.61180772884618</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>26.25768399257394</v>
+        <v>29.47934003260547</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>3.954139401807431</v>
+        <v>7.706358163220035</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>28.56813115506453</v>
+        <v>22.94172397695793</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>32.53712146465609</v>
+        <v>29.82749118281902</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>17.2904372843571</v>
+        <v>22.60885858131138</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>32.47039361392742</v>
+        <v>31.89804574091731</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>38.28926596990307</v>
+        <v>37.28851970531135</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>1.891710728137941</v>
+        <v>7.110262619248388</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>28.02169335856519</v>
+        <v>26.99702624298105</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>32.77442941108272</v>
+        <v>32.58672482625368</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>8.090002778586072</v>
+        <v>11.39125437755123</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>45.76302016644208</v>
+        <v>44.63529693203186</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>50.74434289520813</v>
+        <v>51.4441846844849</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>51.79513501616586</v>
+        <v>48.04945346003758</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>60.42357656951413</v>
+        <v>55.56564579603322</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>63.04106919043379</v>
+        <v>62.9970555737339</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>25.49190465178119</v>
+        <v>29.09394946340797</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>57.82755901560854</v>
+        <v>51.09626847028947</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>59.89481805025025</v>
+        <v>53.45726233421344</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>6.301096709289702</v>
+        <v>10.01404379902629</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>1.386630366825312</v>
+        <v>11.1392617102199</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>2.557572171769756</v>
+        <v>11.27260491802699</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-3.732382578789206</v>
+        <v>1.631123478563111</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>-1.53384420489116</v>
+        <v>8.969826930819849</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>-2.392954031833376</v>
+        <v>11.34691408491835</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>-5.192885102350928</v>
+        <v>1.872793987873528</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>5.109163872518231</v>
+        <v>10.10477068119987</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>3.543127147099803</v>
+        <v>11.06944096097111</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>0.4707367802452715</v>
+        <v>7.649093275500562</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>0.6828228274642818</v>
+        <v>6.688712695400884</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>1.665642971387602</v>
+        <v>9.890050373116054</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>10.61276122929319</v>
+        <v>11.20398257949711</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>7.564843552133606</v>
+        <v>14.54526557651775</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>9.174717851811746</v>
+        <v>16.99589824261182</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>6.603719544179249</v>
+        <v>8.527217274963768</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>9.064024629902892</v>
+        <v>11.148792914605</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>12.16509448039817</v>
+        <v>12.37702528859622</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-4.698061186685951</v>
+        <v>2.212051048183163</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>1.644676743737836</v>
+        <v>8.194480555293833</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>5.558429597670816</v>
+        <v>11.52486321256297</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>-4.025440398028564</v>
+        <v>0.9101007395484828</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>11.32598253389976</v>
+        <v>10.45699178101255</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>16.2131943198715</v>
+        <v>12.94236049813749</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>2.548496802381003</v>
+        <v>7.62568571329539</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>9.473924992161514</v>
+        <v>10.5768821374739</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>10.01236490696706</v>
+        <v>9.156004331890205</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>-1.667112715471223</v>
+        <v>3.659514181161747</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>13.5314254161075</v>
+        <v>11.21225244877879</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>15.90233417402579</v>
+        <v>12.41512720107734</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>14.01055683821145</v>
+        <v>21.47677274702063</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>22.30120761443874</v>
+        <v>26.2036924332612</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>28.58720601701043</v>
+        <v>29.56823366192694</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>-0.1093160146350023</v>
+        <v>7.476342966320544</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>16.06067800044755</v>
+        <v>21.06300306408951</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>21.9515380404049</v>
+        <v>24.8853563829331</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>5.156345067216851</v>
+        <v>10.45750477128164</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>32.3346747887847</v>
+        <v>31.50996234511652</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>38.45314877414727</v>
+        <v>34.68067901325315</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>35.90867030102636</v>
+        <v>38.10801688229775</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>42.16851049261149</v>
+        <v>43.78875004895892</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>47.08654347090416</v>
+        <v>41.99936879861697</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>17.86911702160399</v>
+        <v>25.92453739234656</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>38.05620176740207</v>
+        <v>34.75956095066078</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>42.93014327071344</v>
+        <v>38.75007760615735</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>17.15243236159021</v>
+        <v>22.24941477370244</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>24.99289337677583</v>
+        <v>23.91987953084003</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>30.16575112070405</v>
+        <v>30.83423988882781</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>2.056810258722798</v>
+        <v>4.88538177410749</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>26.75710782816093</v>
+        <v>23.57367560769237</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>28.79914672406169</v>
+        <v>30.27685244480924</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>7.218621693621028</v>
+        <v>6.867519953329133</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>39.67921913022418</v>
+        <v>35.30402129408237</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>42.23124242090892</v>
+        <v>39.90294723604177</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>37.20250862177683</v>
+        <v>31.35266538604485</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>43.3834150730255</v>
+        <v>40.1269348117072</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>47.32921573268589</v>
+        <v>44.36819904250842</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>31.41494820308096</v>
+        <v>34.40256917620641</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>46.90095598303022</v>
+        <v>50.9213366174609</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>57.56508562339025</v>
+        <v>63.11666506179081</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>14.39101156036017</v>
+        <v>15.63941457285923</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>26.04592235225997</v>
+        <v>25.43248374938684</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>31.37813276919829</v>
+        <v>26.7602797732175</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>-2.460855634670949</v>
+        <v>3.122557894894936</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>16.42592474287076</v>
+        <v>19.81435471901987</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>25.14241177555919</v>
+        <v>24.74191305358134</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>2.370970761198752</v>
+        <v>3.366872487246898</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>33.83897827758926</v>
+        <v>32.73075599563028</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>45.07856138739518</v>
+        <v>34.98108117075367</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>30.66879096097795</v>
+        <v>32.50400370793443</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>41.05813764674868</v>
+        <v>39.93880141285594</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>42.76066387131915</v>
+        <v>38.08157737253128</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>16.22682826260014</v>
+        <v>19.67977018465117</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>48.92624051406501</v>
+        <v>42.46493562632674</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>52.61409304110867</v>
+        <v>45.9601139832634</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>22.07588623089833</v>
+        <v>24.69356795373783</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>40.19012681368174</v>
+        <v>38.06109676490355</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>45.756327947968</v>
+        <v>42.69137773304457</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>6.729841046915602</v>
+        <v>8.711829736062541</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>34.0466262158446</v>
+        <v>33.11947308669129</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>41.68974094851337</v>
+        <v>38.58085656702838</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>11.35143423058307</v>
+        <v>10.7569680095298</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>54.93098587771962</v>
+        <v>56.10509594610585</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>64.28207886094503</v>
+        <v>58.50007515514908</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>64.80331715990023</v>
+        <v>64.11392070494432</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>72.5997201906011</v>
+        <v>68.86321044302821</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>81.09298719764828</v>
+        <v>75.56333407717905</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>32.78186945499426</v>
+        <v>32.31644850126227</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>72.24770841022725</v>
+        <v>63.07202579307161</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>78.73256973159623</v>
+        <v>69.12992346289934</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>18.92975712207205</v>
+        <v>21.4090639146092</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>35.53463134889893</v>
+        <v>38.65808891340262</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>40.5336435181067</v>
+        <v>39.94512660540013</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>11.60784102959349</v>
+        <v>11.75782019371213</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>41.00688417468136</v>
+        <v>41.13062382640704</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>45.05400064787</v>
+        <v>45.10497127274524</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>15.00110700084582</v>
+        <v>12.54398558022399</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>52.34378651194744</v>
+        <v>55.9338668826895</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>55.05898828260409</v>
+        <v>57.37675156684804</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>59.41599482405007</v>
+        <v>62.57678319285512</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>64.98261964632759</v>
+        <v>65.75980401793407</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>65.04220502666385</v>
+        <v>65.73440200266664</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>25.52606020459783</v>
+        <v>25.74114616055343</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>58.46227595042059</v>
+        <v>63.36226825821015</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>64.30814800284877</v>
+        <v>67.09360739633702</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>18.47866571287442</v>
+        <v>19.57262056983938</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>35.226964140626</v>
+        <v>35.14269024658368</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>43.87443269014278</v>
+        <v>38.31776015953765</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>6.734923329410286</v>
+        <v>9.930431376854727</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>31.71101354275707</v>
+        <v>31.64077184178363</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>42.54834013103455</v>
+        <v>37.85313411169039</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>12.49557846021106</v>
+        <v>10.10205318621266</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>46.49259679864859</v>
+        <v>47.15131026745028</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>58.11636117531903</v>
+        <v>55.0258042596798</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>44.17799199041778</v>
+        <v>44.00758609933828</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>53.97800059582333</v>
+        <v>53.21407789903759</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>54.90667235654026</v>
+        <v>50.93857800684749</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>13.04480460611729</v>
+        <v>19.33115113671744</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>52.35249060854014</v>
+        <v>54.6229538849007</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>59.77508611163239</v>
+        <v>59.50085413731917</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>17.96489994509768</v>
+        <v>22.06941855952299</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>41.12405144394245</v>
+        <v>41.22996491381808</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>50.46567772590914</v>
+        <v>45.26010502954026</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>4.606664143543622</v>
+        <v>10.7655227872966</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>39.94622617568985</v>
+        <v>39.42919016038773</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>49.8359451822562</v>
+        <v>46.15288645524456</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>11.8431298377299</v>
+        <v>11.18608230861126</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>57.96634569842581</v>
+        <v>56.9815834355371</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>67.87054484397979</v>
+        <v>63.13499138483523</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>66.16758415174073</v>
+        <v>65.44205764473972</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>75.4754423755613</v>
+        <v>74.52990843261105</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>81.98016505394394</v>
+        <v>79.87507351157689</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>19.48930769558938</v>
+        <v>21.55061692007165</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>69.29042931613071</v>
+        <v>68.79156397495004</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>75.82695319507951</v>
+        <v>75.45840163687922</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>17.70930629305099</v>
+        <v>26.93553623433602</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>33.18052667605043</v>
+        <v>31.35394014435105</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>38.36065986949355</v>
+        <v>36.64301977616277</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>7.206499268162499</v>
+        <v>11.15324613307501</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>43.12632376651094</v>
+        <v>41.52865941756902</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>45.0422558243819</v>
+        <v>46.49143066336104</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>12.99508303383458</v>
+        <v>12.84060805449063</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>56.79704123263561</v>
+        <v>54.05102619399618</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>59.04678795315414</v>
+        <v>55.66701431366594</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>57.73908370319211</v>
+        <v>56.62374531609726</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>64.53336305506241</v>
+        <v>59.38650150811475</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>66.17617040550803</v>
+        <v>60.85470200003125</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>26.48110158230612</v>
+        <v>27.51730863709531</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>48.92408378978702</v>
+        <v>43.76183040141483</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>59.95074730103487</v>
+        <v>62.79448221248524</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>20.59531252420113</v>
+        <v>25.37081288226683</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>39.58047635808045</v>
+        <v>37.67464776044</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>44.54982251864762</v>
+        <v>39.718963793024</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>4.468855225123146</v>
+        <v>10.61511924912612</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>34.4533457534803</v>
+        <v>35.53849267985128</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>42.93805641054516</v>
+        <v>40.56653905009036</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>9.47993936919249</v>
+        <v>9.164281024186618</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>52.14665072866458</v>
+        <v>51.79804497676453</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>63.09886888801898</v>
+        <v>58.22831000813757</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>50.2812578422033</v>
+        <v>50.91549397452641</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>61.67696254056067</v>
+        <v>56.50941396801126</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>61.84023718338142</v>
+        <v>56.55076795773189</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>23.75430569348454</v>
+        <v>26.63906386566985</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>67.48859499586617</v>
+        <v>61.78475608042933</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>69.84164178964784</v>
+        <v>64.31005813008088</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>23.00245373120994</v>
+        <v>28.12792029098816</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>46.70159089908427</v>
+        <v>43.5915615951976</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>52.0056136512129</v>
+        <v>46.69063854212372</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>7.045554036477743</v>
+        <v>11.71186356147624</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>43.43129767108916</v>
+        <v>43.1997936353803</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>50.62419162637081</v>
+        <v>48.92665925243038</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>11.11368391289873</v>
+        <v>10.29853899498957</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>63.87842698992877</v>
+        <v>65.38575666520536</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>72.82750227111367</v>
+        <v>68.17816381575651</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>74.58905244983468</v>
+        <v>74.0902031330174</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>83.69917255595936</v>
+        <v>78.74748721878007</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>89.75143937640654</v>
+        <v>81.1523583249662</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>29.73422425336197</v>
+        <v>29.2869294608496</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>80.44612689839488</v>
+        <v>74.72972009288013</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>85.37474731489355</v>
+        <v>77.68709355481211</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>22.19237249979566</v>
+        <v>24.70668071902475</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>34.68404059931242</v>
+        <v>25.8593122250973</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>37.50071394643771</v>
+        <v>30.12225277302435</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>19.82719436578448</v>
+        <v>16.32866157901526</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>51.81975274277764</v>
+        <v>54.98726865020964</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>51.23963090042515</v>
+        <v>54.43170391926612</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>19.08402471056606</v>
+        <v>11.59298466607612</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>57.53183383447008</v>
+        <v>55.44671808294004</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>57.76184949100906</v>
+        <v>51.94855436630489</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>59.84493449685634</v>
+        <v>58.49026242361303</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>63.12775997888764</v>
+        <v>61.64309641894191</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>65.33962144738861</v>
+        <v>60.43613857312371</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>35.39655252213362</v>
+        <v>29.61662029487501</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>53.11134664338742</v>
+        <v>43.4911961001694</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>63.17166422342909</v>
+        <v>58.058529466254</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>23.97685111435503</v>
+        <v>25.90054546326548</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>39.75052875483095</v>
+        <v>34.6807538848206</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>44.81901412435589</v>
+        <v>36.74848890041526</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>25.96086492305289</v>
+        <v>35.9150683734421</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>49.81160193340695</v>
+        <v>50.72461859967919</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>59.10234944966523</v>
+        <v>55.38954051001325</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>16.15217281805093</v>
+        <v>10.69487990981212</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>52.91115931745378</v>
+        <v>50.37824024465979</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>64.3558595275977</v>
+        <v>55.71056198770189</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>51.85452816026151</v>
+        <v>49.12163980852301</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>60.49238506244313</v>
+        <v>56.10895337626266</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>60.93474326731054</v>
+        <v>53.96896096974476</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>29.04629142876771</v>
+        <v>30.98040157893585</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>65.88499029459297</v>
+        <v>59.15847690887156</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>70.60569798175032</v>
+        <v>62.11306844462321</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>26.59945322507945</v>
+        <v>30.27307111477889</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>46.76597043887233</v>
+        <v>42.83693425527724</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>50.86877762387493</v>
+        <v>45.18792516647924</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>27.42449697438133</v>
+        <v>37.40418707827433</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>56.35436038021541</v>
+        <v>56.12851970156336</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>63.13404749401435</v>
+        <v>58.74458770745796</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>18.46508246684342</v>
+        <v>12.03942034249484</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>64.43846236592606</v>
+        <v>64.24475566221359</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>72.99635712533009</v>
+        <v>65.28421532686119</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>77.9610586978703</v>
+        <v>77.85956527756542</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>81.1711533424546</v>
+        <v>77.72209680526427</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>89.95149813807814</v>
+        <v>82.53583719200608</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>38.50438394022973</v>
+        <v>38.62397066333698</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>78.86300037539867</v>
+        <v>74.63808385418886</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>86.23381802619181</v>
+        <v>78.95820348691632</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>12.13659258110249</v>
+        <v>19.55897440174555</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>27.53063113154189</v>
+        <v>31.70291585690395</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>35.56685078023941</v>
+        <v>37.0589486081341</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>-0.813533434862407</v>
+        <v>5.641921761599335</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>29.76581414104421</v>
+        <v>24.10782562110547</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>36.93779439452856</v>
+        <v>41.63954220498821</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>6.793842768587272</v>
+        <v>6.54685873127519</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>46.30832056682066</v>
+        <v>49.52048336577222</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>51.89203168028159</v>
+        <v>54.82108521150402</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>52.32805869535878</v>
+        <v>55.50540612309742</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>56.87815189245271</v>
+        <v>59.10102345410651</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>59.29330395282672</v>
+        <v>61.32455444518558</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>15.77864347502444</v>
+        <v>17.45318645647789</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>49.16825236427192</v>
+        <v>57.7348537330581</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>59.41529888323812</v>
+        <v>64.70419886618109</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>13.4049658931372</v>
+        <v>17.08913676097486</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>31.40271477536916</v>
+        <v>33.20407972594069</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>39.45105712348789</v>
+        <v>35.56011429585596</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>-3.689725297161612</v>
+        <v>4.531125733946574</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>24.18063552803963</v>
+        <v>28.23800286030835</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>34.52386760252782</v>
+        <v>33.07702494952041</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>3.29324764803215</v>
+        <v>4.689611077688241</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>41.73354376049064</v>
+        <v>45.25786698579218</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>53.53548877982541</v>
+        <v>51.74478801231007</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>37.54985156426159</v>
+        <v>40.92975243683163</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>47.36612838942239</v>
+        <v>48.88000688493923</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>48.82344585275492</v>
+        <v>47.96750169894877</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>4.621257906289472</v>
+        <v>10.15275773430939</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>46.23727899085694</v>
+        <v>39.95021244197181</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>53.56214154361606</v>
+        <v>54.44856838860713</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>13.96570318016875</v>
+        <v>17.98111922865027</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>38.07895396625991</v>
+        <v>36.75402285349402</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>49.28092808444532</v>
+        <v>42.03932156843932</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>-3.436264935647312</v>
+        <v>5.1966547955045</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>34.21366632201089</v>
+        <v>36.80108862823955</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>46.60805802033066</v>
+        <v>43.87391661599264</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>2.874779192329857</v>
+        <v>5.206618402925724</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>53.29024666822066</v>
+        <v>53.88710200334019</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>66.25976902419727</v>
+        <v>61.60110477190008</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>61.98943491215194</v>
+        <v>61.51197269235874</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>72.00216570500538</v>
+        <v>72.60424235701882</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>81.81522448613356</v>
+        <v>77.89556992870857</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>10.93357850352912</v>
+        <v>9.37422906608446</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>65.58078098268354</v>
+        <v>64.95880631179199</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>75.53369345033174</v>
+        <v>73.71025397611223</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>13.4381653289777</v>
+        <v>18.57190974665786</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>18.73041838135798</v>
+        <v>18.15429479351158</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>22.36637923801959</v>
+        <v>19.81604414495312</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>2.819922563046266</v>
+        <v>8.48969423668424</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>21.6116730878976</v>
+        <v>20.57841549079236</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>22.42731164269621</v>
+        <v>23.58292360457919</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>5.867182191243227</v>
+        <v>10.77102657831314</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>31.97172291388181</v>
+        <v>28.24605232486169</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>32.96455154065234</v>
+        <v>29.22414080991373</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>30.08887135535787</v>
+        <v>23.97923672426126</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>34.27225609864162</v>
+        <v>28.44872657149271</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>37.63118561356886</v>
+        <v>30.25290662445174</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>18.47347554106762</v>
+        <v>22.35065472663049</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>27.03385023732092</v>
+        <v>25.308822552045</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>33.11405297510093</v>
+        <v>30.37855131831797</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>19.08450929084718</v>
+        <v>18.03280458059771</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>31.23188849672768</v>
+        <v>30.9173687609847</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>39.18411858337052</v>
+        <v>36.30643164860854</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>7.158402088114652</v>
+        <v>11.80134259055514</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>26.258761919181</v>
+        <v>31.54761417810992</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>37.59861018137714</v>
+        <v>40.25926411586785</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>12.06763036274116</v>
+        <v>12.57551040306045</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>41.6960386373345</v>
+        <v>45.84852851715478</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>54.6240458326685</v>
+        <v>56.3129858706008</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>36.23857129494084</v>
+        <v>43.18711103911132</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>45.9302103682502</v>
+        <v>47.74285148832399</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>52.19927992013467</v>
+        <v>54.63484403328053</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>16.48159550485952</v>
+        <v>17.28708980664388</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>46.96044541153972</v>
+        <v>46.96630874003972</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>55.53427397063166</v>
+        <v>54.26663439339178</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>19.79175968780567</v>
+        <v>22.87701567607814</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>37.85908105754906</v>
+        <v>36.74135960038249</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>47.92847773027754</v>
+        <v>44.42508034122126</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>7.085671602199895</v>
+        <v>11.06964655929202</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>34.23838221291182</v>
+        <v>35.23105222252831</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>47.00383720351824</v>
+        <v>46.28104382772504</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>12.42424518131433</v>
+        <v>16.10168831436904</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>52.84523557611015</v>
+        <v>54.76685307917867</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>66.30079242659508</v>
+        <v>65.95407213269695</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>55.13293672040857</v>
+        <v>54.98320887479863</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>64.52180372817763</v>
+        <v>59.77670175307625</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>80.27538630229721</v>
+        <v>77.6580731091651</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>18.85033801747446</v>
+        <v>25.63217800019419</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>57.01943919879245</v>
+        <v>54.4893180132796</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>73.15949685174716</v>
+        <v>73.14636633787181</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>11.86608243991716</v>
+        <v>17.13268671195673</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>20.44877503937688</v>
+        <v>16.01583590667974</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>24.70268908964843</v>
+        <v>18.73633584452806</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>3.178750506067939</v>
+        <v>2.313873465069115</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>30.02958706935371</v>
+        <v>27.48707348561117</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>31.37845371487324</v>
+        <v>28.96424809541013</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>4.287166517447911</v>
+        <v>2.637186408289526</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>37.82822580668699</v>
+        <v>35.32331779851314</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>39.77149747927101</v>
+        <v>33.51069644803768</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>39.81068144360831</v>
+        <v>31.3933508569143</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>44.06428314790504</v>
+        <v>39.76787966619359</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>47.35092109666109</v>
+        <v>42.72899054959019</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>21.79847967281204</v>
+        <v>22.12270658021198</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>38.70600326898843</v>
+        <v>38.73720529015295</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>49.17447062317866</v>
+        <v>47.52186957673116</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>13.11924724003423</v>
+        <v>9.56607443572522</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>25.29720977689051</v>
+        <v>18.85571320936889</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>34.85143135838808</v>
+        <v>29.20823481715914</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>9.653571133961499</v>
+        <v>9.309268257426687</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>28.68563601693344</v>
+        <v>22.0578838069006</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>43.93140140579835</v>
+        <v>47.46255944523056</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>2.592308917694492</v>
+        <v>-0.3562443276801091</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>34.64318873744645</v>
+        <v>30.99683858681875</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>51.33841764766224</v>
+        <v>49.462127957135</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>35.17575162160902</v>
+        <v>31.62421255840774</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>44.1832935968754</v>
+        <v>42.18416386969762</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>48.53007809354603</v>
+        <v>50.95133124154972</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>13.61289136689849</v>
+        <v>11.9841622080513</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>48.54622798559276</v>
+        <v>43.78234152248648</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>58.5582841357791</v>
+        <v>55.08203271525043</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>14.91920701066158</v>
+        <v>20.67906203571431</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>32.01527465148227</v>
+        <v>30.00238904136936</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>39.97349712841265</v>
+        <v>39.50722897314353</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>8.806073230565083</v>
+        <v>9.858037984389622</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>33.44062999279542</v>
+        <v>26.50238174124505</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>45.48510192494061</v>
+        <v>42.92932078641468</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>3.323542817339192</v>
+        <v>2.43552109890334</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>45.11131057966008</v>
+        <v>42.13194554713279</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>58.18269274195791</v>
+        <v>57.1330419066246</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>59.17602593111677</v>
+        <v>58.36941339497954</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>62.33488736473363</v>
+        <v>58.61711228106778</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>74.14959659758674</v>
+        <v>71.16631720591946</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>21.65725369051003</v>
+        <v>17.80697348256555</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>59.86493230454252</v>
+        <v>50.24229783328985</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>72.33670706628972</v>
+        <v>67.95826154998534</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>17.69102420743648</v>
+        <v>24.31752634344295</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>33.36531036143538</v>
+        <v>31.57384256824652</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>39.00376422962565</v>
+        <v>35.41553393923913</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>13.25579483273632</v>
+        <v>11.37751620626609</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>46.8560450228451</v>
+        <v>44.2524400660209</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>48.88886648229425</v>
+        <v>45.71594826896911</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>16.36075217747365</v>
+        <v>13.53383191447321</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>57.6019910016627</v>
+        <v>57.517521147943</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>59.30063753805433</v>
+        <v>55.02823995088066</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>62.55975432154024</v>
+        <v>56.2976851460845</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>65.85389453007041</v>
+        <v>61.32038075528409</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>69.509661607338</v>
+        <v>63.03237080341455</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>29.4443483320387</v>
+        <v>32.08320738796622</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>48.0218438462756</v>
+        <v>43.3653054843212</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>63.86846219310655</v>
+        <v>66.26159805076827</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>23.44354841004584</v>
+        <v>27.26948654942166</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>40.3167839632558</v>
+        <v>39.42627745036844</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>44.43266393311487</v>
+        <v>39.24937655363314</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>13.18067642789327</v>
+        <v>10.36823221338979</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>39.82557014894721</v>
+        <v>36.93691722538538</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>44.91960855056489</v>
+        <v>38.02787704836141</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>14.44168394418806</v>
+        <v>10.76445394503833</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>51.82715497270269</v>
+        <v>52.84015135604601</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>58.89663571164934</v>
+        <v>52.17569983641661</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>48.42486352411518</v>
+        <v>50.00174029883394</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>55.99047847130567</v>
+        <v>55.01761638920094</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>55.2031825644722</v>
+        <v>53.13388683586072</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>24.89544269893673</v>
+        <v>29.15147854097643</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>59.13334866690309</v>
+        <v>57.00512389495293</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>63.06514698403028</v>
+        <v>57.28972211304885</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>21.99442170203096</v>
+        <v>26.9567735006078</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>45.25068166926506</v>
+        <v>41.42493189634187</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>49.11807195219986</v>
+        <v>43.92223854597848</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>12.81327733977843</v>
+        <v>10.81195279476823</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>48.4698263898045</v>
+        <v>42.6743637766298</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>51.76225584940651</v>
+        <v>44.33542504713154</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>13.33958491358477</v>
+        <v>10.92833210780624</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>62.27325215699105</v>
+        <v>63.25900582728536</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>66.93230707885196</v>
+        <v>61.12443136297885</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>73.14401584846128</v>
+        <v>71.77755982116082</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>78.38092266035244</v>
+        <v>72.63350715716049</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>83.55615622313637</v>
+        <v>75.5476678661008</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>31.56681870180866</v>
+        <v>33.04124317339126</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>75.40582215230125</v>
+        <v>67.48857388457846</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>81.10691546420044</v>
+        <v>73.1436000728975</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>12.77571442612345</v>
+        <v>20.03652435637683</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>29.04520162744778</v>
+        <v>32.12214861625489</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>36.4388759456534</v>
+        <v>36.05145226678175</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>2.321821569568744</v>
+        <v>7.849223034396122</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>34.9246814928253</v>
+        <v>32.39173064407083</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>40.7570850242652</v>
+        <v>42.42683909975722</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>8.120352795271017</v>
+        <v>7.445024276555042</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>49.11174864568005</v>
+        <v>50.62855136474084</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>53.85877826188997</v>
+        <v>53.247953920642</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>51.48927256505841</v>
+        <v>52.95027221824028</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>58.65131247268231</v>
+        <v>59.98780087216626</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>60.64243157943338</v>
+        <v>58.68151469969703</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>16.31193055503446</v>
+        <v>17.1826163046472</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>49.86299817766384</v>
+        <v>55.0750148128014</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>60.62966497660032</v>
+        <v>63.42710269314726</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>15.7954325701517</v>
+        <v>18.09764504530531</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>34.43658494888963</v>
+        <v>34.72934463271496</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>41.62102616374535</v>
+        <v>36.16352667513631</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>0.1120765555716403</v>
+        <v>7.593066118893468</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>28.9701465107036</v>
+        <v>32.99534239656629</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>38.26458379507155</v>
+        <v>36.00644672981424</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>6.057385576176287</v>
+        <v>8.078178150112507</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>45.50690496501581</v>
+        <v>49.27874954171757</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>56.52580396326718</v>
+        <v>54.02235829248682</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>41.08839113907473</v>
+        <v>46.06479477066458</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>52.2111329303175</v>
+        <v>53.72884895315459</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>53.68663404911963</v>
+        <v>52.59347286011911</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>11.24512262690373</v>
+        <v>14.42138313222267</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>54.94354338880599</v>
+        <v>55.49483709652414</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>59.94516649911587</v>
+        <v>57.78227102428225</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>13.15529062242593</v>
+        <v>16.81301764536816</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>35.77636587571244</v>
+        <v>34.02084636671068</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>47.01787730538032</v>
+        <v>40.02379056246016</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>-2.857820401784558</v>
+        <v>5.826394297377703</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>32.77914421974799</v>
+        <v>35.563774087623</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>45.32360943273137</v>
+        <v>42.66353228322747</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>0.7367265942014818</v>
+        <v>5.809312850913184</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>49.48015424773757</v>
+        <v>49.93436091345357</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>62.81798749592643</v>
+        <v>59.66624722679834</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>58.16569241972013</v>
+        <v>55.81553910942884</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>68.60300109070573</v>
+        <v>66.73861985294943</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>79.25970395575914</v>
+        <v>74.68516134893076</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>11.86269136070072</v>
+        <v>12.30168653780751</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>64.45547457877423</v>
+        <v>59.20830154453714</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>74.48610811736468</v>
+        <v>70.52408897902529</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/ligand/LOO_XPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/ligand/LOO_XPhos/results.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.543</v>
+        <v>0.521</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.578</v>
+        <v>18.151</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.777</v>
+        <v>-0.541</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.366</v>
+        <v>21.756</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.976</v>
+        <v>0.994</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.459</v>
+        <v>2.292</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>20.21886509952395</v>
+        <v>20.54377353571471</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>15.93836580762637</v>
+        <v>20.91835737542046</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>17.76847946502214</v>
+        <v>20.68638834218754</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4.74400315906335</v>
+        <v>11.67366296402083</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>20.54485712695153</v>
+        <v>22.16572370506536</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>23.16014901265511</v>
+        <v>25.54733953679325</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6.664455492610802</v>
+        <v>13.46983743884741</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>25.83948034688791</v>
+        <v>29.19762709164622</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>26.27933336828573</v>
+        <v>28.67994013614168</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>21.95338414814531</v>
+        <v>26.40508613433235</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>28.55171031366546</v>
+        <v>31.42114361654553</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>26.72396418904228</v>
+        <v>31.10850747957092</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>19.67445669089664</v>
+        <v>18.40819402567249</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>25.86107189896356</v>
+        <v>27.05550282498876</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>27.89002680736269</v>
+        <v>28.760172783803</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>19.89357335652148</v>
+        <v>21.66031101497639</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>32.9820981687286</v>
+        <v>36.92460442745153</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>40.2877001193713</v>
+        <v>40.60498319397823</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>11.82874650866566</v>
+        <v>10.45389939578805</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>32.26695581735296</v>
+        <v>33.01575805780515</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>46.54909126508251</v>
+        <v>40.87686515470018</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>11.43755090426293</v>
+        <v>11.79057617735315</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>47.82007254139049</v>
+        <v>45.68346784075055</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>64.04382597971303</v>
+        <v>62.82498322611252</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>50.58434486757273</v>
+        <v>48.77035319336731</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>61.01134053927943</v>
+        <v>58.40325993225638</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>66.94981956266375</v>
+        <v>61.21676101754694</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>22.75792535852819</v>
+        <v>20.56319136441072</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>65.44373377283145</v>
+        <v>60.20654070014465</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>70.11970069222754</v>
+        <v>68.19692834212957</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>28.03201615219471</v>
+        <v>30.54378635570011</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>44.93210827913043</v>
+        <v>45.99544855382827</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>49.05261749532336</v>
+        <v>48.90640121669757</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>13.8991935961866</v>
+        <v>12.32603435270171</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>40.64754054384736</v>
+        <v>36.74585282872955</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>52.1680488106439</v>
+        <v>47.35491172253109</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>15.74380036447399</v>
+        <v>20.13317204750604</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>67.68487560114274</v>
+        <v>64.44356139453642</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>72.81256602136958</v>
+        <v>67.57815692084867</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>72.89915364581358</v>
+        <v>69.4419192430078</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>83.14844415051701</v>
+        <v>77.68212379980065</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>87.70181610986586</v>
+        <v>81.29092824760325</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>37.36963033138004</v>
+        <v>33.26846366220129</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>85.24236408132543</v>
+        <v>81.00500237915648</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>84.99895254752499</v>
+        <v>79.24518720462606</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>15.75537146738683</v>
+        <v>16.02371490118195</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>41.49761402667033</v>
+        <v>41.8884379794512</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>42.01576140842653</v>
+        <v>43.08245608182403</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6.561774043289549</v>
+        <v>10.06248345618482</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>42.47505451521089</v>
+        <v>42.25722581843514</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>45.60635076491315</v>
+        <v>48.00628411971588</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6.662767404423722</v>
+        <v>9.963388243431901</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>59.59295347568273</v>
+        <v>61.50776658449834</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>58.44362847600105</v>
+        <v>59.57917433245456</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>53.55640090338768</v>
+        <v>49.67891367224402</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>58.7230962698662</v>
+        <v>51.77642903011275</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>58.60422203507196</v>
+        <v>56.91853971124864</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>16.55455484136959</v>
+        <v>17.15474125414487</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>59.48676786124388</v>
+        <v>60.20895153678261</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>64.60881379431012</v>
+        <v>65.24282393415598</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>16.80321445321101</v>
+        <v>15.14782452944078</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>38.16076922560348</v>
+        <v>39.12633985881681</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>43.23413526493228</v>
+        <v>42.07109385820651</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>7.615070039696079</v>
+        <v>10.2264753758418</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>34.38034603087458</v>
+        <v>34.29522651564218</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>43.73119110462345</v>
+        <v>41.414611944883</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>10.23556505914123</v>
+        <v>10.96672637536775</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>55.75682199794117</v>
+        <v>55.39571677288802</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>68.61200480547049</v>
+        <v>69.22685140435635</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>50.59293971173368</v>
+        <v>50.97458721413557</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>62.83398087940319</v>
+        <v>60.54544275673005</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>65.37133144417643</v>
+        <v>64.61146978388618</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>14.20123205373065</v>
+        <v>12.52825952009696</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>64.08070097851086</v>
+        <v>63.2977542039138</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>70.75659818198721</v>
+        <v>70.55489696020751</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>16.26801298767179</v>
+        <v>16.11075730129452</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>44.70800962777152</v>
+        <v>45.8224227142199</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>46.65588688912377</v>
+        <v>48.07211460650441</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>6.544021039191659</v>
+        <v>9.680275320030098</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>43.2132259668526</v>
+        <v>41.02521093954346</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>49.85483844478105</v>
+        <v>51.81310250569642</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>9.268452070194666</v>
+        <v>9.52019641406886</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>68.52236584293053</v>
+        <v>65.40208770760334</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>71.80670312498975</v>
+        <v>71.35247072224509</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>73.08015517650517</v>
+        <v>70.83281070808074</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>86.05465031513342</v>
+        <v>80.77698437126782</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>85.13802589906763</v>
+        <v>81.11230353166849</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>14.1139768197549</v>
+        <v>17.1711529400803</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>80.04118080204142</v>
+        <v>75.17611331332282</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>82.27281820995027</v>
+        <v>79.27000916164275</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>30.12895019664212</v>
+        <v>29.647065778251</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>42.25919969061231</v>
+        <v>41.00647307069166</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>43.3101761640892</v>
+        <v>41.18041732764115</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>12.27524407047689</v>
+        <v>11.0892168166042</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>45.50695970659383</v>
+        <v>43.78126413825208</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>48.06356214449612</v>
+        <v>45.73941975200882</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>12.29149553482402</v>
+        <v>12.11764299241271</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>64.7907880292791</v>
+        <v>63.73190481724573</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>59.18162875703504</v>
+        <v>58.60666126845319</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>55.15404238134204</v>
+        <v>51.64733017730495</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>64.66413128896735</v>
+        <v>65.08083387169059</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>63.66585392922171</v>
+        <v>62.5597729514795</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>33.32531319170794</v>
+        <v>31.96806851334549</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>62.30288281833573</v>
+        <v>62.66699513141853</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>66.34066772619192</v>
+        <v>65.37936238039069</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>26.30034628769909</v>
+        <v>27.38861365214877</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>44.53139834608337</v>
+        <v>40.76165776272813</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>46.57508760568604</v>
+        <v>42.60995866647636</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>10.34562326999025</v>
+        <v>10.16448705379845</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>41.33378294304455</v>
+        <v>38.46464879839147</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>44.59967176747074</v>
+        <v>42.18398943260203</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>11.33465046994908</v>
+        <v>11.3784025866378</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>63.41003526912336</v>
+        <v>60.67370197346175</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>68.26023766018173</v>
+        <v>69.5250465775207</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>55.69868103611147</v>
+        <v>53.70393439770866</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>66.31531634582875</v>
+        <v>62.94647721306708</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>65.09300292362749</v>
+        <v>64.34862118135244</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>28.38094826765713</v>
+        <v>29.10398768649661</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>67.29551179227244</v>
+        <v>64.71297471335758</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>68.25640980883236</v>
+        <v>67.25147954976788</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>33.31469780479743</v>
+        <v>35.32463596619234</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>51.04946324399049</v>
+        <v>48.62292906734798</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>51.2795583868019</v>
+        <v>47.20405552816761</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>11.71137795293211</v>
+        <v>11.14101308401039</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>50.48660431928051</v>
+        <v>48.21525438431992</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>51.10651629089168</v>
+        <v>49.11829880830977</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>13.3351803475179</v>
+        <v>12.04982343190905</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>74.79377565317104</v>
+        <v>68.29966685795662</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>71.73308748981427</v>
+        <v>67.1769560634695</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>78.38140753456435</v>
+        <v>72.49429185753914</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>84.53269821549068</v>
+        <v>73.92413614493356</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>86.83943983128164</v>
+        <v>77.86243438806366</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>35.8166496679909</v>
+        <v>36.78062286064527</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>83.82822912334476</v>
+        <v>76.36786301276904</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>84.63267048720869</v>
+        <v>76.85481328128039</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>21.25275990076804</v>
+        <v>20.19170728827208</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>19.384310071226</v>
+        <v>22.65494021695142</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>19.65115543775724</v>
+        <v>23.09666644023135</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>6.22310577412393</v>
+        <v>11.89709224877389</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>23.47924991081323</v>
+        <v>23.11480833657766</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>23.96373302987934</v>
+        <v>24.94860409342924</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>7.620969019358309</v>
+        <v>13.42832990937949</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>29.85041435706423</v>
+        <v>28.80107819626376</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>27.59313640620287</v>
+        <v>28.54782084468456</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>24.83221710374522</v>
+        <v>29.23211263488611</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>28.56198884106715</v>
+        <v>31.48183996916681</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>30.1589266885341</v>
+        <v>33.93639424936155</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>63.02730742070882</v>
+        <v>60.93400415036581</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>63.19507376572238</v>
+        <v>62.99018856092464</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>61.55597067424237</v>
+        <v>60.93786422935415</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>18.63653322517269</v>
+        <v>18.34758307052696</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>36.02850655855537</v>
+        <v>37.66478605435636</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>40.41357330878253</v>
+        <v>40.81260036761512</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>12.19642524695182</v>
+        <v>10.91936202393023</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>37.56146368329716</v>
+        <v>38.55391480251403</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>49.96105187829842</v>
+        <v>52.20425141082778</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>13.11950864054425</v>
+        <v>13.61002504749936</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>50.26419996275585</v>
+        <v>48.2893368558908</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>65.1645761024817</v>
+        <v>62.07712461057609</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>44.51754926203051</v>
+        <v>44.60267883671641</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>54.02216899307005</v>
+        <v>52.93395902928859</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>62.96466961230143</v>
+        <v>58.60160406126795</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>19.77114411467493</v>
+        <v>18.31482753403809</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>61.63379622227352</v>
+        <v>58.70909134104939</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>66.63490179771242</v>
+        <v>64.33668715833849</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>30.14082217368504</v>
+        <v>27.97990209545785</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>45.6788782454437</v>
+        <v>44.07748842737696</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>51.30921664782502</v>
+        <v>46.48962163929466</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>15.04182470078647</v>
+        <v>13.27612561026329</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>44.10842456192762</v>
+        <v>46.0999121996024</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>51.29375841280617</v>
+        <v>52.38161641701015</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>17.78900858118679</v>
+        <v>18.90813523134225</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>65.4081922974745</v>
+        <v>62.14455908260138</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>73.35130140929743</v>
+        <v>66.27686612667659</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>64.1324618959773</v>
+        <v>58.76612333782269</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>74.05288399797618</v>
+        <v>71.09685312022857</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>85.3105238428807</v>
+        <v>76.01954275412717</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>39.32219638380414</v>
+        <v>35.98849087957862</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>77.2910711624686</v>
+        <v>72.55792032238034</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>81.03076571842037</v>
+        <v>74.84463298613784</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>29.98923487527777</v>
+        <v>31.55385032794633</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>44.02883401010867</v>
+        <v>48.70028080973183</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>40.99228627707872</v>
+        <v>45.10362455788218</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>11.96136875216064</v>
+        <v>11.67267053478133</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>46.3223220549074</v>
+        <v>51.09469155990922</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>49.18529402424686</v>
+        <v>49.70737105938993</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>13.48243309962131</v>
+        <v>13.48390269737233</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>68.71580137955277</v>
+        <v>70.79289431889467</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>61.54538316591312</v>
+        <v>62.23410118688258</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>55.35423119541777</v>
+        <v>51.23039012611233</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>66.44574622946092</v>
+        <v>61.4120045107306</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>67.23417359154831</v>
+        <v>64.53141724229326</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>24.9684653387074</v>
+        <v>22.73079531766819</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>15.87379912667533</v>
+        <v>10.38454834575462</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>17.10804512041829</v>
+        <v>10.80935297023114</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>32.47419276110135</v>
+        <v>36.56047213022804</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>49.36336374375623</v>
+        <v>47.81980030650545</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>47.52180960507896</v>
+        <v>45.84606196089238</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>12.09327384220832</v>
+        <v>10.59403606461002</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>46.28641205675379</v>
+        <v>45.34630949568579</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>49.32926286496335</v>
+        <v>47.80821999558982</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>13.12480727141418</v>
+        <v>13.1506327543534</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>67.42371598489243</v>
+        <v>65.55767958667425</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>66.78020535534375</v>
+        <v>66.00241904680033</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>66.66151550069941</v>
+        <v>61.80798650949239</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>73.64896912776099</v>
+        <v>65.50160789619376</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>72.94066611404504</v>
+        <v>66.5105971144704</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>41.68883480579518</v>
+        <v>42.27028782188947</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>75.81405148917291</v>
+        <v>72.02694362411458</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>74.69161524014612</v>
+        <v>73.06864555049319</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>37.20446144712135</v>
+        <v>40.78215685793114</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>52.72936014837322</v>
+        <v>50.94696724018922</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>53.73132728496198</v>
+        <v>50.63986346694202</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>12.62116048134519</v>
+        <v>11.67279361668807</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>48.63548627127179</v>
+        <v>52.84875299815086</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>51.88997129754858</v>
+        <v>48.39760929135281</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>14.9670733504314</v>
+        <v>12.84041088775727</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>74.12001608913464</v>
+        <v>71.47088300767811</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>75.63425289257694</v>
+        <v>67.84750059897</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>82.16210138948847</v>
+        <v>74.23120501055989</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>85.65514970910542</v>
+        <v>78.92065332212061</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>88.52602992182842</v>
+        <v>79.16428103384696</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>52.93140895332306</v>
+        <v>51.88021302112937</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>88.91920752982553</v>
+        <v>81.81513016314754</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>83.35926952343206</v>
+        <v>78.46910163278879</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>23.6006919833467</v>
+        <v>30.75097508830574</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>36.47441848083327</v>
+        <v>38.29704877495796</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>40.19334362077121</v>
+        <v>42.56603706833096</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>10.49868721190344</v>
+        <v>10.81634779392793</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>44.30466162346978</v>
+        <v>46.5117982537222</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>47.47221831682548</v>
+        <v>52.09850749497605</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>10.88450167763541</v>
+        <v>10.56677011627811</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>67.32637238224115</v>
+        <v>69.17717755803295</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>62.89598656715453</v>
+        <v>63.64786998992732</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>57.54681291721083</v>
+        <v>55.04507175816569</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>62.31050255133987</v>
+        <v>57.16561243422883</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>63.89962346866078</v>
+        <v>57.64150194101783</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>18.01170256671404</v>
+        <v>23.22969409108983</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>11.24215360567568</v>
+        <v>10.63282651051842</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>10.40520824051002</v>
+        <v>9.763758354737089</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>28.34347525234364</v>
+        <v>31.37131929281514</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>48.44300237441819</v>
+        <v>47.14381565953043</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>49.90337287193782</v>
+        <v>48.77982555861374</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>10.90857054970322</v>
+        <v>10.33956334761675</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>46.15276751403457</v>
+        <v>40.21485323786406</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>49.5131457544049</v>
+        <v>47.77156022434554</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>12.46820158228098</v>
+        <v>12.2323230858215</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>68.25851260370524</v>
+        <v>65.0641931224488</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>70.35791356100641</v>
+        <v>68.67204312647084</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>54.11072213231728</v>
+        <v>53.47384722281531</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>68.5238518341919</v>
+        <v>65.32573675214138</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>70.45818277969815</v>
+        <v>70.13791105455707</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>26.62778499907111</v>
+        <v>29.72166468268226</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>73.95398764042574</v>
+        <v>72.20999709832506</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>76.895267111482</v>
+        <v>75.23911635625424</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>28.31879099212069</v>
+        <v>31.36047597008777</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>47.83354346315603</v>
+        <v>48.34572919479984</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>49.50645038921041</v>
+        <v>50.99898424620299</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>10.44516414757143</v>
+        <v>10.39931744584099</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>47.56320250448484</v>
+        <v>42.87940825123724</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>48.46631784055333</v>
+        <v>47.5692637783213</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>11.36203963262657</v>
+        <v>11.13361321931445</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>70.784921343608</v>
+        <v>66.87822329203287</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>68.47888307155594</v>
+        <v>67.83543050926103</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>71.78061725984281</v>
+        <v>68.7223573791301</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>79.22104922780267</v>
+        <v>74.45951557317601</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>80.15165774551838</v>
+        <v>75.73432009205538</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>26.81937320695723</v>
+        <v>28.68329227365584</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>80.57610359671833</v>
+        <v>73.09928924696514</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>79.93399693229705</v>
+        <v>76.73578464271752</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>13.97259846280375</v>
+        <v>16.97517484804545</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>12.08966257746515</v>
+        <v>18.45438470356247</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>14.71646677518654</v>
+        <v>17.41821703900288</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>4.530781408431903</v>
+        <v>11.43979098495141</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>17.50585014751939</v>
+        <v>19.36116288283693</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>20.07595565398</v>
+        <v>22.27149810823985</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>4.779105540687773</v>
+        <v>10.89662334024031</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>23.17910796986386</v>
+        <v>22.84240178447114</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>23.93803964363569</v>
+        <v>24.01212437661952</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>22.99700880306643</v>
+        <v>25.92508884876454</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>29.70552458994423</v>
+        <v>32.26819610769628</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>30.90206044844836</v>
+        <v>33.16482759339792</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>18.49343131527232</v>
+        <v>18.38197287719538</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>21.50264377180737</v>
+        <v>24.01813269061432</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>22.79696981762871</v>
+        <v>25.11702999849885</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>16.78009231824933</v>
+        <v>15.95670284341066</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>29.74968386720432</v>
+        <v>32.0862217116541</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>35.07657340669099</v>
+        <v>35.11476649427244</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>8.583689169263728</v>
+        <v>10.56932301000973</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>28.79473366345366</v>
+        <v>33.06423511129621</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>37.18788872475922</v>
+        <v>38.24864565088141</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>9.902141136309908</v>
+        <v>9.171661718723058</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>43.35436880815949</v>
+        <v>44.3972858708417</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>53.16343756440736</v>
+        <v>48.16437280628436</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>40.36034757735249</v>
+        <v>41.89968952123811</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>50.14654620426977</v>
+        <v>48.24836006609213</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>50.71961029157153</v>
+        <v>48.14977803645439</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>19.047540261667</v>
+        <v>17.19892977390675</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>49.48525627241246</v>
+        <v>47.15522656305349</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>51.94506072037738</v>
+        <v>46.73222582915446</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>21.49604402878392</v>
+        <v>26.59261155323473</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>39.16862731410795</v>
+        <v>36.78392075873864</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>42.71490084668417</v>
+        <v>44.97862728831294</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>11.7632706561307</v>
+        <v>11.32306093855152</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>41.16285073181709</v>
+        <v>43.16129715611616</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>46.76492803173149</v>
+        <v>47.42756268749213</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>14.4943070414579</v>
+        <v>12.69995021219847</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>63.11211326177033</v>
+        <v>60.0201393023568</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>63.84326314771315</v>
+        <v>59.44112431244959</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>67.15042081209447</v>
+        <v>60.04562917657788</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>74.59871327738109</v>
+        <v>66.73901704371445</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>76.32724482601637</v>
+        <v>70.01685190950764</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>34.58265150894215</v>
+        <v>36.61254973589508</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>75.82519296832666</v>
+        <v>69.56981320756981</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>80.66284385683133</v>
+        <v>73.34495268613708</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>17.67967567949918</v>
+        <v>16.16133501998383</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>14.15655762589749</v>
+        <v>15.87413513095881</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>14.4497478132428</v>
+        <v>14.2463829212994</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>3.918358283863558</v>
+        <v>9.942276166908297</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>16.51933178470595</v>
+        <v>17.19479026191816</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>19.48302610779155</v>
+        <v>21.09559810934991</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>3.862899658738467</v>
+        <v>10.82955426811364</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>18.32271435389551</v>
+        <v>17.61158412945761</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>14.98261557160426</v>
+        <v>17.04420680511281</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>13.08531423518374</v>
+        <v>19.08712367896405</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>15.34235361946114</v>
+        <v>19.9226586750488</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>12.67297945816518</v>
+        <v>18.80762359342653</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>17.14051456770444</v>
+        <v>16.68305033516975</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>16.62386188894154</v>
+        <v>16.10951367132329</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>17.60790604850076</v>
+        <v>15.42892914667309</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>9.376530455182422</v>
+        <v>10.0267727596309</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>12.58420499761892</v>
+        <v>13.53303486072278</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>14.91949346280972</v>
+        <v>15.0309311982664</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>2.502987522276104</v>
+        <v>7.526342591209556</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>13.83159744032114</v>
+        <v>14.87542457492848</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>18.16940314486008</v>
+        <v>17.23476153583222</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>1.259679639717678</v>
+        <v>6.715551536855816</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>17.34187161097052</v>
+        <v>17.3040447646641</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>25.03817920564708</v>
+        <v>21.86986469123773</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>12.67511200059891</v>
+        <v>13.15815715194579</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>24.394238007608</v>
+        <v>30.26594300460988</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>33.59929426142901</v>
+        <v>35.76008759663562</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>6.137421065320876</v>
+        <v>9.662088877389479</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>23.18091528074267</v>
+        <v>21.32663801710994</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>18.66324771997964</v>
+        <v>17.42864955534111</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>10.61732361835655</v>
+        <v>10.79546306275427</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>17.99586081569797</v>
+        <v>17.42260999649424</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>34.15355284480219</v>
+        <v>35.48008593447824</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>3.226562107031903</v>
+        <v>7.834832608574654</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>19.42235523353826</v>
+        <v>19.64891724283825</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>36.63067475359644</v>
+        <v>35.90274207217006</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>2.641968979240435</v>
+        <v>6.86111987278338</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>27.56937597521062</v>
+        <v>25.11214013727786</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>58.5685693624165</v>
+        <v>57.21231834824174</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>25.06967484948301</v>
+        <v>18.38318431395464</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>49.13279883154875</v>
+        <v>47.65168630774606</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>68.84606338307476</v>
+        <v>67.47764464529126</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>9.952520218897639</v>
+        <v>11.07485385700926</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>35.84828477971937</v>
+        <v>37.45857447233386</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>44.10500676134478</v>
+        <v>46.92964259957315</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>20.78440916916328</v>
+        <v>22.43009411646128</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>27.70111792539206</v>
+        <v>22.768916304667</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>40.18881293136497</v>
+        <v>36.3722340178703</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>11.73246636485703</v>
+        <v>11.73113165619442</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>45.95334354681869</v>
+        <v>41.95223338814692</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>50.75408017340065</v>
+        <v>43.75787683334568</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>13.2819867971558</v>
+        <v>17.9318819190521</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>64.35889163961195</v>
+        <v>59.82992317876294</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>65.46263502234142</v>
+        <v>58.94225732476265</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>60.06376023256231</v>
+        <v>54.37567269732143</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>69.62904535231665</v>
+        <v>62.60789703253295</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>68.80639662388111</v>
+        <v>59.51179421540326</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>35.62088842357802</v>
+        <v>37.18121698638503</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>57.19530258786152</v>
+        <v>55.90396449820804</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>72.7873147861557</v>
+        <v>67.22607534960284</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>23.00989702317809</v>
+        <v>24.5949808370129</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>36.45480349458258</v>
+        <v>34.33093931460342</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>39.96744014939293</v>
+        <v>35.82109887258456</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>9.077460251527548</v>
+        <v>10.3724925390293</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>35.60262860810111</v>
+        <v>34.76737341133575</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>38.19876429513334</v>
+        <v>35.64483393669956</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>10.69073030439237</v>
+        <v>11.30549646056922</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>53.95075252186305</v>
+        <v>49.55578714032115</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>58.1936643484967</v>
+        <v>51.27687172254868</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>47.65460386858722</v>
+        <v>42.27586444021127</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>54.69498642531155</v>
+        <v>47.9041856099484</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>54.07086325897744</v>
+        <v>48.85729742674849</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>29.86371945456592</v>
+        <v>32.31535480187429</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>60.63397222429078</v>
+        <v>53.54698635582043</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>60.76324016867595</v>
+        <v>53.60445407781557</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>23.57985840081339</v>
+        <v>27.19969859509908</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>39.23984463037603</v>
+        <v>36.37049385967379</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>42.97604398341061</v>
+        <v>43.95412387552314</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>10.9450512703494</v>
+        <v>10.71744353283061</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>45.12595303486469</v>
+        <v>44.06174312639857</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>46.42941227713534</v>
+        <v>46.78974496597164</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>13.31086630778268</v>
+        <v>12.01682952480239</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>66.76380942569602</v>
+        <v>62.22532773832006</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>65.76258462667741</v>
+        <v>62.67492111379445</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>69.31028566324558</v>
+        <v>63.68669391018344</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>75.17548912236843</v>
+        <v>68.88319359998107</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>75.75851237227552</v>
+        <v>68.85326381040511</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>35.11233927810578</v>
+        <v>37.09417430934862</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>74.50779699621765</v>
+        <v>66.61234755427866</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>79.89366802487064</v>
+        <v>71.24697539057794</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>11.95803899460087</v>
+        <v>15.36938968689512</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>16.38749880857716</v>
+        <v>16.45331820600357</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>16.26014415470831</v>
+        <v>16.605367419135</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>3.125504789760392</v>
+        <v>9.543593903329594</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>12.15391877073983</v>
+        <v>14.14809340380158</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>18.04429647021507</v>
+        <v>17.66093408279941</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>2.633440207941224</v>
+        <v>9.311278721893387</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>20.57853895077352</v>
+        <v>19.74433425162108</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>21.28817259131187</v>
+        <v>20.79655387892063</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>19.25392732194781</v>
+        <v>18.71521650687414</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>23.08957115492579</v>
+        <v>21.71658157285228</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>23.99976595267474</v>
+        <v>23.86669964022128</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>12.60163451031619</v>
+        <v>13.61882790512698</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>21.7811365773254</v>
+        <v>20.49783154856764</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>24.46895466480521</v>
+        <v>21.72899678609397</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>12.61365224148811</v>
+        <v>12.64736724595101</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>24.76711174127708</v>
+        <v>25.42124003409018</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>30.43699212247212</v>
+        <v>27.32948297297973</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>7.005290314742822</v>
+        <v>9.670737665197716</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>21.69178378801604</v>
+        <v>26.29910691868505</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>32.03919970871794</v>
+        <v>30.45680620071467</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>8.030640716822326</v>
+        <v>8.269942530720346</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>34.89399054908218</v>
+        <v>36.60738785055007</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>47.23908293128639</v>
+        <v>40.43290103906137</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>26.29444061649291</v>
+        <v>31.64150995695983</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>38.55225600093564</v>
+        <v>39.80541591422217</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>38.42803157556889</v>
+        <v>37.14568760662677</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>10.7668859718437</v>
+        <v>12.18621506890362</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>36.23239181374067</v>
+        <v>36.21378462853662</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>43.40285010362328</v>
+        <v>39.89489075720437</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>20.88924832178184</v>
+        <v>19.45482188853347</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>35.11400122091452</v>
+        <v>32.06773428790046</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>42.23832993758131</v>
+        <v>40.74188948953081</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>12.78138882529444</v>
+        <v>12.94766237394529</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>32.30693785598365</v>
+        <v>32.14206220448886</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>43.10532407108211</v>
+        <v>38.7172970976513</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>16.54213296310067</v>
+        <v>16.66837446469476</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>48.48880669443467</v>
+        <v>49.87099187200732</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>59.39006703307384</v>
+        <v>53.35797940899653</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>49.3399154451981</v>
+        <v>51.52144736209101</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>60.35228302696488</v>
+        <v>57.61886219580068</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>75.23749914547307</v>
+        <v>68.64761365115672</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>28.23564067299823</v>
+        <v>22.54653347529408</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>59.29916148392973</v>
+        <v>57.94497345698383</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>68.58431127018545</v>
+        <v>62.3420016416224</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>8.945002546240751</v>
+        <v>9.815370145445407</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>7.77808303087356</v>
+        <v>9.73494775645954</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>10.83399923928847</v>
+        <v>11.39528000273582</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>0.5973406156008529</v>
+        <v>7.689298788709515</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>8.576645260033494</v>
+        <v>10.26817433304147</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>14.20259575079401</v>
+        <v>14.2266198531091</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>-1.951565810533026</v>
+        <v>4.373269543433807</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>8.611872051429639</v>
+        <v>8.058299855140387</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>13.30006788698077</v>
+        <v>13.37547250229346</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>6.21569390334378</v>
+        <v>10.07722736551448</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>6.272584172676027</v>
+        <v>12.72099804835085</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>16.62955650727794</v>
+        <v>13.25910707106034</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>8.395846917951545</v>
+        <v>9.661963524214961</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>11.04234166622992</v>
+        <v>10.53689832307399</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>17.40096617250353</v>
+        <v>17.843047960398</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>22.19017458579354</v>
+        <v>24.17706310599642</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>37.76595195863322</v>
+        <v>34.55023184476012</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>38.38170322037207</v>
+        <v>35.27876748011404</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>9.956163149714104</v>
+        <v>10.18779958611732</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>36.22241223504101</v>
+        <v>35.02821464294599</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>38.41299836590372</v>
+        <v>38.61028691598737</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>10.58889190623979</v>
+        <v>9.343103921913738</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>53.82567577951411</v>
+        <v>46.95704044006623</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>55.38283621967163</v>
+        <v>50.6279282890425</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>46.43524803220419</v>
+        <v>47.29428971310318</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>53.74871768692581</v>
+        <v>47.91866213120667</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>54.38611087225001</v>
+        <v>49.7461511257751</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>22.14173307944071</v>
+        <v>24.76680542598206</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>57.52578185153935</v>
+        <v>51.76956129584306</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>57.99034945155461</v>
+        <v>52.26421369285214</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>25.45611531267692</v>
+        <v>27.21935041199383</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>43.2517009512904</v>
+        <v>39.12939976165189</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>45.36717204159207</v>
+        <v>46.12325543779269</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>10.62240982970486</v>
+        <v>10.8853604594569</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>47.07662149524946</v>
+        <v>46.69433638907168</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>49.67854505159846</v>
+        <v>51.14939779373759</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>10.91719094797268</v>
+        <v>10.02401544535497</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>67.91693858958121</v>
+        <v>61.68330222426031</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>65.35633545153816</v>
+        <v>63.22258861800214</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>73.4441379911859</v>
+        <v>68.86618128828474</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>81.51784225156136</v>
+        <v>74.36057872441586</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>80.2609605198171</v>
+        <v>75.38002939305352</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>27.17065542852637</v>
+        <v>30.51267216391834</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>79.71897203283825</v>
+        <v>74.0350553456154</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>77.50191118339131</v>
+        <v>70.89481564864951</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>14.89782457127506</v>
+        <v>17.55280835855186</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>18.61869207395991</v>
+        <v>20.0379294639351</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>20.28143529785986</v>
+        <v>19.2801296472026</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>2.524747564357085</v>
+        <v>8.670172857035855</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>17.43857136165194</v>
+        <v>18.93450299106637</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>21.14764554694074</v>
+        <v>21.0937688680662</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>2.640242761352788</v>
+        <v>8.206816507117917</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>22.98635686953493</v>
+        <v>21.39634995939565</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>26.0518001332493</v>
+        <v>23.84142412657874</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>21.75590191312345</v>
+        <v>21.44572704041782</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>24.50025783755006</v>
+        <v>28.63162201669696</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>27.67331663747332</v>
+        <v>27.47586919976609</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>15.80173524665276</v>
+        <v>14.98401316165678</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>26.20743233326044</v>
+        <v>24.81445118735359</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>29.21482234507977</v>
+        <v>26.2268705296233</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>10.36341436238873</v>
+        <v>9.808841066638468</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>16.96528072590769</v>
+        <v>14.83354065037738</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>23.50796897415767</v>
+        <v>22.63979454464701</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>2.034911961897592</v>
+        <v>8.279368222615112</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>13.02194572360256</v>
+        <v>14.44739356572005</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>21.97692926649942</v>
+        <v>24.64641972706317</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>1.472969504648926</v>
+        <v>8.027976869745469</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>20.0076072093391</v>
+        <v>18.57998201341016</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>33.8680970204584</v>
+        <v>34.63064825884841</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>14.4231255686325</v>
+        <v>16.15488531087972</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>23.61180772884618</v>
+        <v>28.41135778161946</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>29.47934003260547</v>
+        <v>31.43140358723183</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>7.706358163220035</v>
+        <v>9.662102665877505</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>22.94172397695793</v>
+        <v>26.96439243741025</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>29.82749118281902</v>
+        <v>32.34449151137601</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>22.60885858131138</v>
+        <v>21.06385255356579</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>31.89804574091731</v>
+        <v>28.7538751022704</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>37.28851970531135</v>
+        <v>36.43430637960583</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>7.110262619248388</v>
+        <v>10.12578380948784</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>26.99702624298105</v>
+        <v>24.84707961604004</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>32.58672482625368</v>
+        <v>32.09262137979884</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>11.39125437755123</v>
+        <v>15.20221225861233</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>44.63529693203186</v>
+        <v>41.28969095561356</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>51.4441846844849</v>
+        <v>49.85484170426126</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>48.04945346003758</v>
+        <v>44.4931003541764</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>55.56564579603322</v>
+        <v>52.17377178677378</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>62.9970555737339</v>
+        <v>56.38489790862059</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>29.09394946340797</v>
+        <v>31.84582994412068</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>51.09626847028947</v>
+        <v>47.4468366185493</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>53.45726233421344</v>
+        <v>51.90529948672834</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>10.01404379902629</v>
+        <v>10.39266257892302</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>11.1392617102199</v>
+        <v>12.53749849307959</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>11.27260491802699</v>
+        <v>11.49475450409672</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>1.631123478563111</v>
+        <v>7.789653489164522</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>8.969826930819849</v>
+        <v>10.41494661495608</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>11.34691408491835</v>
+        <v>12.80997234654344</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>1.872793987873528</v>
+        <v>6.092640749145371</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>10.10477068119987</v>
+        <v>9.266310539294423</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>11.06944096097111</v>
+        <v>13.06548002864097</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>7.649093275500562</v>
+        <v>10.29442448726052</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>6.688712695400884</v>
+        <v>12.06359466933803</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>9.890050373116054</v>
+        <v>13.14813531922778</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>11.20398257949711</v>
+        <v>9.191404308245502</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>14.54526557651775</v>
+        <v>10.84604811747343</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>16.99589824261182</v>
+        <v>14.08673773447173</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>8.527217274963768</v>
+        <v>9.826512013358808</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>11.148792914605</v>
+        <v>10.64586203350108</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>12.37702528859622</v>
+        <v>11.27660813985442</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>2.212051048183163</v>
+        <v>8.21070941317338</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>8.194480555293833</v>
+        <v>10.80228624667683</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>11.52486321256297</v>
+        <v>11.57496413396117</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>0.9101007395484828</v>
+        <v>8.00168302477481</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>10.45699178101255</v>
+        <v>10.84743953440849</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>12.94236049813749</v>
+        <v>12.8110656234061</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>7.62568571329539</v>
+        <v>11.10079760913322</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>10.5768821374739</v>
+        <v>13.54661342526895</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>9.156004331890205</v>
+        <v>13.16675258065494</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>3.659514181161747</v>
+        <v>8.485874778894182</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>11.21225244877879</v>
+        <v>11.53506898356055</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>12.41512720107734</v>
+        <v>12.37871088722738</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>21.47677274702063</v>
+        <v>24.40061363245566</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>26.2036924332612</v>
+        <v>26.1859291286148</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>29.56823366192694</v>
+        <v>27.39683880540306</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>7.476342966320544</v>
+        <v>11.00769413042364</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>21.06300306408951</v>
+        <v>21.89838705185182</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>24.8853563829331</v>
+        <v>25.28764561889014</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>10.45750477128164</v>
+        <v>16.33228847681448</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>31.50996234511652</v>
+        <v>30.17581555886688</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>34.68067901325315</v>
+        <v>32.26476772954653</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>38.10801688229775</v>
+        <v>37.68261816110495</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>43.78875004895892</v>
+        <v>40.29551870408985</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>41.99936879861697</v>
+        <v>41.74447229041823</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>25.92453739234656</v>
+        <v>27.152873524176</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>34.75956095066078</v>
+        <v>30.8234734244278</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>38.75007760615735</v>
+        <v>36.11726081278852</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>22.24941477370244</v>
+        <v>21.22315691535126</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>23.91987953084003</v>
+        <v>26.72789956269376</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>30.83423988882781</v>
+        <v>33.56315488818809</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>4.88538177410749</v>
+        <v>9.615262778549745</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>23.57367560769237</v>
+        <v>24.0435402322801</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>30.27685244480924</v>
+        <v>29.21874187618197</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>6.867519953329133</v>
+        <v>9.844212563089098</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>35.30402129408237</v>
+        <v>35.14725605935134</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>39.90294723604177</v>
+        <v>42.46728669756564</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>31.35266538604485</v>
+        <v>32.85438911965338</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>40.1269348117072</v>
+        <v>40.38482825419979</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>44.36819904250842</v>
+        <v>44.98063445586379</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>34.40256917620641</v>
+        <v>27.39615610864406</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>50.9213366174609</v>
+        <v>44.79444121152937</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>63.11666506179081</v>
+        <v>58.47790449421153</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>15.63941457285923</v>
+        <v>19.26334382803214</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>25.43248374938684</v>
+        <v>26.95805635566497</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>26.7602797732175</v>
+        <v>29.8486769976158</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>3.122557894894936</v>
+        <v>7.940095021399983</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>19.81435471901987</v>
+        <v>19.67174844216994</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>24.74191305358134</v>
+        <v>23.68868240956832</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>3.366872487246898</v>
+        <v>7.549873558297239</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>32.73075599563028</v>
+        <v>29.32261732726931</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>34.98108117075367</v>
+        <v>32.01327196956552</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>32.50400370793443</v>
+        <v>28.49713989584488</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>39.93880141285594</v>
+        <v>37.12236818057291</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>38.08157737253128</v>
+        <v>33.49564674760956</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>19.67977018465117</v>
+        <v>22.29804701088383</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>42.46493562632674</v>
+        <v>38.6373871594893</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>45.9601139832634</v>
+        <v>41.97375675234085</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>24.69356795373783</v>
+        <v>27.47385739833269</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>38.06109676490355</v>
+        <v>35.23686382162558</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>42.69137773304457</v>
+        <v>44.26278000872993</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>8.711829736062541</v>
+        <v>9.60779611713302</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>33.11947308669129</v>
+        <v>33.16179899964465</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>38.58085656702838</v>
+        <v>36.84872565971845</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>10.7569680095298</v>
+        <v>12.9119828263322</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>56.10509594610585</v>
+        <v>51.19192942335692</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>58.50007515514908</v>
+        <v>53.43842721765289</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>64.11392070494432</v>
+        <v>58.0804385099613</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>68.86321044302821</v>
+        <v>63.64405666614964</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>75.56333407717905</v>
+        <v>68.18479503939733</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>32.31644850126227</v>
+        <v>30.2139047946285</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>63.07202579307161</v>
+        <v>53.01387508106851</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>69.12992346289934</v>
+        <v>61.21596684012388</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>21.4090639146092</v>
+        <v>25.67890969138719</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>38.65808891340262</v>
+        <v>35.34891392009276</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>39.94512660540013</v>
+        <v>38.83312860175943</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>11.75782019371213</v>
+        <v>12.05204784720208</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>41.13062382640704</v>
+        <v>40.86470678781244</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>45.10497127274524</v>
+        <v>41.59550911871341</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>12.54398558022399</v>
+        <v>14.67061246986545</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>55.9338668826895</v>
+        <v>55.86931529315753</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>57.37675156684804</v>
+        <v>57.79949313166034</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>62.57678319285512</v>
+        <v>61.50549458605362</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>65.75980401793407</v>
+        <v>63.71736633273318</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>65.73440200266664</v>
+        <v>65.27387952674346</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>25.74114616055343</v>
+        <v>28.69783186451472</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>63.36226825821015</v>
+        <v>61.6252653241452</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>67.09360739633702</v>
+        <v>65.83779507561913</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>19.57262056983938</v>
+        <v>23.49573568098178</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>35.14269024658368</v>
+        <v>32.24391087959588</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>38.31776015953765</v>
+        <v>39.29478772882668</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>9.930431376854727</v>
+        <v>10.02420861183557</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>31.64077184178363</v>
+        <v>34.21797920818272</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>37.85313411169039</v>
+        <v>34.05330153692702</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>10.10205318621266</v>
+        <v>10.31728372489559</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>47.15131026745028</v>
+        <v>46.75302565318635</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>55.0258042596798</v>
+        <v>54.60707588532505</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>44.00758609933828</v>
+        <v>43.24250850333308</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>53.21407789903759</v>
+        <v>51.3057686882825</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>50.93857800684749</v>
+        <v>43.20050044335577</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>19.33115113671744</v>
+        <v>23.62700399440417</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>54.6229538849007</v>
+        <v>53.45962487157803</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>59.50085413731917</v>
+        <v>59.34967684879328</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>22.06941855952299</v>
+        <v>24.55079910273725</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>41.22996491381808</v>
+        <v>36.71918475715957</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>45.26010502954026</v>
+        <v>42.63664480528007</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>10.7655227872966</v>
+        <v>10.70241388216962</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>39.42919016038773</v>
+        <v>42.18228158030692</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>46.15288645524456</v>
+        <v>41.33997224359963</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>11.18608230861126</v>
+        <v>10.15805520058117</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>56.9815834355371</v>
+        <v>55.03054240975926</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>63.13499138483523</v>
+        <v>59.07279949652499</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>65.44205764473972</v>
+        <v>61.68729692711587</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>74.52990843261105</v>
+        <v>66.62187628476207</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>79.87507351157689</v>
+        <v>72.48182670311184</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>21.55061692007165</v>
+        <v>25.35975779439521</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>68.79156397495004</v>
+        <v>64.68907062521077</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>75.45840163687922</v>
+        <v>69.69727234993547</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>26.93553623433602</v>
+        <v>26.75649780220243</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>31.35394014435105</v>
+        <v>31.3664532832117</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>36.64301977616277</v>
+        <v>36.54239731114236</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>11.15324613307501</v>
+        <v>10.44576892430789</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>41.52865941756902</v>
+        <v>41.5600296141082</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>46.49143066336104</v>
+        <v>41.84122568993019</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>12.84060805449063</v>
+        <v>13.5265106040058</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>54.05102619399618</v>
+        <v>56.00783836633248</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>55.66701431366594</v>
+        <v>55.20285960841218</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>56.62374531609726</v>
+        <v>53.10700102884553</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>59.38650150811475</v>
+        <v>55.46441188332884</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>60.85470200003125</v>
+        <v>58.38460217494844</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>27.51730863709531</v>
+        <v>25.25256854690326</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>43.76183040141483</v>
+        <v>42.07239350598919</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>62.79448221248524</v>
+        <v>62.53795666719092</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>25.37081288226683</v>
+        <v>28.58390457323559</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>37.67464776044</v>
+        <v>36.60315663945781</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>39.718963793024</v>
+        <v>37.30331267383011</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>10.61511924912612</v>
+        <v>9.426081899155477</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>35.53849267985128</v>
+        <v>35.25185142887616</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>40.56653905009036</v>
+        <v>35.17823635117722</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>9.164281024186618</v>
+        <v>11.1746215059598</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>51.79804497676453</v>
+        <v>47.420029976534</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>58.22831000813757</v>
+        <v>55.63755143131687</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>50.91549397452641</v>
+        <v>48.49606106953088</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>56.50941396801126</v>
+        <v>50.34893927589339</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>56.55076795773189</v>
+        <v>49.5027356595766</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>26.63906386566985</v>
+        <v>27.72736221807727</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>61.78475608042933</v>
+        <v>57.3920943890575</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>64.31005813008088</v>
+        <v>59.47684721071792</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>28.12792029098816</v>
+        <v>29.73286231665139</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>43.5915615951976</v>
+        <v>39.24016176437058</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>46.69063854212372</v>
+        <v>43.03347378331362</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>11.71186356147624</v>
+        <v>10.14390156621694</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>43.1997936353803</v>
+        <v>40.65155036172276</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>48.92665925243038</v>
+        <v>43.23488128795347</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>10.29853899498957</v>
+        <v>10.69516820261363</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>65.38575666520536</v>
+        <v>57.56016615759098</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>68.17816381575651</v>
+        <v>59.39338232705074</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>74.0902031330174</v>
+        <v>64.54837444661493</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>78.74748721878007</v>
+        <v>70.69291468783877</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>81.1523583249662</v>
+        <v>72.21370907421399</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>29.2869294608496</v>
+        <v>29.13226535583363</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>74.72972009288013</v>
+        <v>65.69726431326342</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>77.68709355481211</v>
+        <v>67.41654651678552</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>24.70668071902475</v>
+        <v>25.86412297805302</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>25.8593122250973</v>
+        <v>29.52998725005394</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>30.12225277302435</v>
+        <v>34.05108371511494</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>16.32866157901526</v>
+        <v>16.58942549102006</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>54.98726865020964</v>
+        <v>57.8203032519821</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>54.43170391926612</v>
+        <v>56.27721143775598</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>11.59298466607612</v>
+        <v>13.52075792543327</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>55.44671808294004</v>
+        <v>57.56802065589041</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>51.94855436630489</v>
+        <v>53.35086479801493</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>58.49026242361303</v>
+        <v>56.67961712497696</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>61.64309641894191</v>
+        <v>58.84036121158322</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>60.43613857312371</v>
+        <v>60.99944433519495</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>29.61662029487501</v>
+        <v>23.13326758626633</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>43.4911961001694</v>
+        <v>38.50373610096716</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>58.058529466254</v>
+        <v>55.69204874557259</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>25.90054546326548</v>
+        <v>29.31002344490009</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>34.6807538848206</v>
+        <v>36.05390272821673</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>36.74848890041526</v>
+        <v>37.05726085472941</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>35.9150683734421</v>
+        <v>38.81303257589289</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>50.72461859967919</v>
+        <v>51.69144019471858</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>55.38954051001325</v>
+        <v>51.42788811787622</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>10.69487990981212</v>
+        <v>11.12210142629386</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>50.37824024465979</v>
+        <v>49.74509499973947</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>55.71056198770189</v>
+        <v>52.63761566707456</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>49.12163980852301</v>
+        <v>44.07203403280842</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>56.10895337626266</v>
+        <v>51.58711606591116</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>53.96896096974476</v>
+        <v>48.46899770289656</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>30.98040157893585</v>
+        <v>31.21397678037904</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>59.15847690887156</v>
+        <v>52.65890040590659</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>62.11306844462321</v>
+        <v>57.41650339872577</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>30.27307111477889</v>
+        <v>31.88907509967616</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>42.83693425527724</v>
+        <v>38.23727680619675</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>45.18792516647924</v>
+        <v>41.26159557920717</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>37.40418707827433</v>
+        <v>40.10283729535151</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>56.12851970156336</v>
+        <v>56.55437670118759</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>58.74458770745796</v>
+        <v>52.58952301587969</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>12.03942034249484</v>
+        <v>10.2534654145883</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>64.24475566221359</v>
+        <v>59.73290942855397</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>65.28421532686119</v>
+        <v>57.12591959871409</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>77.85956527756542</v>
+        <v>71.35090569759322</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>77.72209680526427</v>
+        <v>71.8989746330935</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>82.53583719200608</v>
+        <v>74.90841755468554</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>38.62397066333698</v>
+        <v>37.35856389029804</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>74.63808385418886</v>
+        <v>68.71001350860224</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>78.95820348691632</v>
+        <v>69.85141630177142</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>19.55897440174555</v>
+        <v>20.73220948236971</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>31.70291585690395</v>
+        <v>32.68632382178198</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>37.0589486081341</v>
+        <v>36.47444751937963</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>5.641921761599335</v>
+        <v>8.955247590225415</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>24.10782562110547</v>
+        <v>23.769031433903</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>41.63954220498821</v>
+        <v>41.95858681272471</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>6.54685873127519</v>
+        <v>8.90934394310981</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>49.52048336577222</v>
+        <v>49.80720572482289</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>54.82108521150402</v>
+        <v>56.3964462595554</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>55.50540612309742</v>
+        <v>53.15585853684851</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>59.10102345410651</v>
+        <v>57.00207139964657</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>61.32455444518558</v>
+        <v>61.65390802184197</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>17.45318645647789</v>
+        <v>16.84021771152861</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>57.7348537330581</v>
+        <v>60.0664033387972</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>64.70419886618109</v>
+        <v>63.44927270467106</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>17.08913676097486</v>
+        <v>17.38003652021958</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>33.20407972594069</v>
+        <v>33.31976843885652</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>35.56011429585596</v>
+        <v>34.42741087012146</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>4.531125733946574</v>
+        <v>7.600199045703917</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>28.23800286030835</v>
+        <v>30.82742144475689</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>33.07702494952041</v>
+        <v>30.40401627402239</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>4.689611077688241</v>
+        <v>8.565861124194022</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>45.25786698579218</v>
+        <v>44.31575826085</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>51.74478801231007</v>
+        <v>49.59060632657334</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>40.92975243683163</v>
+        <v>41.80350765771266</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>48.88000688493923</v>
+        <v>48.33147064833187</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>47.96750169894877</v>
+        <v>46.06229431103004</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>10.15275773430939</v>
+        <v>13.05808389344548</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>39.95021244197181</v>
+        <v>33.61850211701593</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>54.44856838860713</v>
+        <v>54.24597301183294</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>17.98111922865027</v>
+        <v>17.5318954557899</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>36.75402285349402</v>
+        <v>35.52009184464843</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>42.03932156843932</v>
+        <v>39.16683602290038</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>5.1966547955045</v>
+        <v>8.664272368912087</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>36.80108862823955</v>
+        <v>37.17175815108477</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>43.87391661599264</v>
+        <v>41.23606156173658</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>5.206618402925724</v>
+        <v>8.458521226976405</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>53.88710200334019</v>
+        <v>51.65160204472791</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>61.60110477190008</v>
+        <v>56.22042457303233</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>61.51197269235874</v>
+        <v>58.3499892576415</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>72.60424235701882</v>
+        <v>62.52033802855102</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>77.89556992870857</v>
+        <v>70.34894431611659</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>9.37422906608446</v>
+        <v>9.33203572633429</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>64.95880631179199</v>
+        <v>60.21861483440843</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>73.71025397611223</v>
+        <v>67.8656319730934</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>18.57190974665786</v>
+        <v>19.16638344638633</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>18.15429479351158</v>
+        <v>21.25726903339508</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>19.81604414495312</v>
+        <v>20.25823837291296</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>8.48969423668424</v>
+        <v>11.19192644646408</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>20.57841549079236</v>
+        <v>21.37925257962812</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>23.58292360457919</v>
+        <v>22.68966274616382</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>10.77102657831314</v>
+        <v>12.50372723389475</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>28.24605232486169</v>
+        <v>26.50506960266256</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>29.22414080991373</v>
+        <v>28.54944362932581</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>23.97923672426126</v>
+        <v>26.59120710001831</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>28.44872657149271</v>
+        <v>30.63897189170644</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>30.25290662445174</v>
+        <v>33.85188645029039</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>22.35065472663049</v>
+        <v>22.40288707843128</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>25.308822552045</v>
+        <v>26.41216188830739</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>30.37855131831797</v>
+        <v>27.77362947508792</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>18.03280458059771</v>
+        <v>16.33448545830463</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>30.9173687609847</v>
+        <v>31.6846949688448</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>36.30643164860854</v>
+        <v>35.46565571412872</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>11.80134259055514</v>
+        <v>10.60248039054224</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>31.54761417810992</v>
+        <v>34.81264592780799</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>40.25926411586785</v>
+        <v>38.97536258670895</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>12.57551040306045</v>
+        <v>10.88396796272623</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>45.84852851715478</v>
+        <v>46.90824254074091</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>56.3129858706008</v>
+        <v>54.31682261655028</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>43.18711103911132</v>
+        <v>44.45899382125364</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>47.74285148832399</v>
+        <v>48.21521112315457</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>54.63484403328053</v>
+        <v>49.81881575632537</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>17.28708980664388</v>
+        <v>16.0245269306026</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>46.96630874003972</v>
+        <v>45.77525739940785</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>54.26663439339178</v>
+        <v>53.6527248061562</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>22.87701567607814</v>
+        <v>21.16992441251862</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>36.74135960038249</v>
+        <v>36.52284852379645</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>44.42508034122126</v>
+        <v>43.01601954383162</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>11.06964655929202</v>
+        <v>12.49475938105303</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>35.23105222252831</v>
+        <v>38.86156744686519</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>46.28104382772504</v>
+        <v>44.86807773900009</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>16.10168831436904</v>
+        <v>16.05167100880264</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>54.76685307917867</v>
+        <v>52.59210114947616</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>65.95407213269695</v>
+        <v>62.51476027168518</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>54.98320887479863</v>
+        <v>51.59535441635646</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>59.77670175307625</v>
+        <v>54.43629520420176</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>77.6580731091651</v>
+        <v>71.25463641586713</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>25.63217800019419</v>
+        <v>30.73026647569547</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>54.4893180132796</v>
+        <v>53.27865361021024</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>73.14636633787181</v>
+        <v>65.20414837876663</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>17.13268671195673</v>
+        <v>19.77321580326736</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>16.01583590667974</v>
+        <v>21.53465953155086</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>18.73633584452806</v>
+        <v>23.07494748917177</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>2.313873465069115</v>
+        <v>8.946590134075354</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>27.48707348561117</v>
+        <v>28.55456292712105</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>28.96424809541013</v>
+        <v>29.24790313603616</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>2.637186408289526</v>
+        <v>8.844498538798927</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>35.32331779851314</v>
+        <v>36.06772167605379</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>33.51069644803768</v>
+        <v>34.28566364989777</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>31.3933508569143</v>
+        <v>34.67781399273282</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>39.76787966619359</v>
+        <v>39.46844823000245</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>42.72899054959019</v>
+        <v>42.18398769770424</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>22.12270658021198</v>
+        <v>21.43371546729557</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>38.73720529015295</v>
+        <v>41.93590473823564</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>47.52186957673116</v>
+        <v>46.19392147335992</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>9.56607443572522</v>
+        <v>11.77884293997123</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>18.85571320936889</v>
+        <v>23.55048664511868</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>29.20823481715914</v>
+        <v>33.2919776626465</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>9.309268257426687</v>
+        <v>9.689671517318381</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>22.0578838069006</v>
+        <v>21.27967082608605</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>47.46255944523056</v>
+        <v>48.12309112113093</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>-0.3562443276801091</v>
+        <v>7.267297569673524</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>30.99683858681875</v>
+        <v>29.00379862656114</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>49.462127957135</v>
+        <v>48.65423924231049</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>31.62421255840774</v>
+        <v>29.48205333318954</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>42.18416386969762</v>
+        <v>41.78391532955492</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>50.95133124154972</v>
+        <v>50.01223893587151</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>11.9841622080513</v>
+        <v>11.32974603906013</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>43.78234152248648</v>
+        <v>39.89469355302393</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>55.08203271525043</v>
+        <v>52.52444387535614</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>20.67906203571431</v>
+        <v>19.23375953624424</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>30.00238904136936</v>
+        <v>29.7381057238162</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>39.50722897314353</v>
+        <v>38.26154448354713</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>9.858037984389622</v>
+        <v>10.20441521994119</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>26.50238174124505</v>
+        <v>25.15395364243251</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>42.92932078641468</v>
+        <v>40.21571268748948</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>2.43552109890334</v>
+        <v>8.405858341514048</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>42.13194554713279</v>
+        <v>36.42200640965673</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>57.1330419066246</v>
+        <v>55.50443691121676</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>58.36941339497954</v>
+        <v>54.76738238770299</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>58.61711228106778</v>
+        <v>55.42600204687919</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>71.16631720591946</v>
+        <v>69.29377872467347</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>17.80697348256555</v>
+        <v>16.94726068299941</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>50.24229783328985</v>
+        <v>42.82612979402188</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>67.95826154998534</v>
+        <v>62.24815807440769</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>24.31752634344295</v>
+        <v>28.32967989193611</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>31.57384256824652</v>
+        <v>32.01975564713769</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>35.41553393923913</v>
+        <v>35.52480509910448</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>11.37751620626609</v>
+        <v>11.34842438288975</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>44.2524400660209</v>
+        <v>44.43669422451854</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>45.71594826896911</v>
+        <v>43.07605984520728</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>13.53383191447321</v>
+        <v>15.06280549701282</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>57.517521147943</v>
+        <v>57.56251845928271</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>55.02823995088066</v>
+        <v>55.42729115087614</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>56.2976851460845</v>
+        <v>48.58395055281151</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>61.32038075528409</v>
+        <v>55.4818491158573</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>63.03237080341455</v>
+        <v>57.31753161539781</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>32.08320738796622</v>
+        <v>33.28416663248824</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>43.3653054843212</v>
+        <v>44.28364160237518</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>66.26159805076827</v>
+        <v>65.9025669498958</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>27.26948654942166</v>
+        <v>29.4926441711844</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>39.42627745036844</v>
+        <v>36.49483739474909</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>39.24937655363314</v>
+        <v>37.13624382420156</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>10.36823221338979</v>
+        <v>10.37768637323799</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>36.93691722538538</v>
+        <v>37.64749005651468</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>38.02787704836141</v>
+        <v>35.36643525582061</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>10.76445394503833</v>
+        <v>9.864069990488556</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>52.84015135604601</v>
+        <v>51.13169808505223</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>52.17569983641661</v>
+        <v>50.29740196488733</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>50.00174029883394</v>
+        <v>47.97186394612519</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>55.01761638920094</v>
+        <v>49.4604065547192</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>53.13388683586072</v>
+        <v>51.49227663048043</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>29.15147854097643</v>
+        <v>30.28880137603612</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>57.00512389495293</v>
+        <v>54.89190902134008</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>57.28972211304885</v>
+        <v>54.32827085393227</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>26.9567735006078</v>
+        <v>27.78407946130199</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>41.42493189634187</v>
+        <v>37.29542269277664</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>43.92223854597848</v>
+        <v>39.87515149446082</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>10.81195279476823</v>
+        <v>10.91098975276647</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>42.6743637766298</v>
+        <v>43.33460571730048</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>44.33542504713154</v>
+        <v>40.27655400683683</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>10.92833210780624</v>
+        <v>9.7324093117751</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>63.25900582728536</v>
+        <v>60.11130422248019</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>61.12443136297885</v>
+        <v>60.3500431955715</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>71.77755982116082</v>
+        <v>67.48696788260435</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>72.63350715716049</v>
+        <v>68.22609943913939</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>75.5476678661008</v>
+        <v>68.30133426960188</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>33.04124317339126</v>
+        <v>35.39583047435892</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>67.48857388457846</v>
+        <v>61.70837362974329</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>73.1436000728975</v>
+        <v>65.70184312821078</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>20.03652435637683</v>
+        <v>20.64422341310516</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>32.12214861625489</v>
+        <v>35.06994431923009</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>36.05145226678175</v>
+        <v>35.40257577565769</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>7.849223034396122</v>
+        <v>9.972113843264751</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>32.39173064407083</v>
+        <v>35.26464860249722</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>42.42683909975722</v>
+        <v>41.48213499925185</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>7.445024276555042</v>
+        <v>8.717980203172413</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>50.62855136474084</v>
+        <v>50.70837807910765</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>53.247953920642</v>
+        <v>53.87742274468619</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>52.95027221824028</v>
+        <v>49.65694743472806</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>59.98780087216626</v>
+        <v>58.47424358460184</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>58.68151469969703</v>
+        <v>57.29366769778556</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>17.1826163046472</v>
+        <v>16.6569124451269</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>55.0750148128014</v>
+        <v>56.02898966417602</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>63.42710269314726</v>
+        <v>61.70333866728826</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>18.09764504530531</v>
+        <v>16.6749445355681</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>34.72934463271496</v>
+        <v>32.0589566124536</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>36.16352667513631</v>
+        <v>33.93929361527707</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>7.593066118893468</v>
+        <v>7.9075508055057</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>32.99534239656629</v>
+        <v>29.99788842663552</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>36.00644672981424</v>
+        <v>31.78707179510301</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>8.078178150112507</v>
+        <v>7.942253773140092</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>49.27874954171757</v>
+        <v>41.69043724992887</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>54.02235829248682</v>
+        <v>48.76705806677424</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>46.06479477066458</v>
+        <v>44.0644507656659</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>53.72884895315459</v>
+        <v>48.0548461101763</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>52.59347286011911</v>
+        <v>49.41463198067053</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>14.42138313222267</v>
+        <v>14.14666566021954</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>55.49483709652414</v>
+        <v>52.5467165489197</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>57.78227102428225</v>
+        <v>53.54017253737071</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>16.81301764536816</v>
+        <v>17.16169443465537</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>34.02084636671068</v>
+        <v>34.01272479327017</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>40.02379056246016</v>
+        <v>39.57197164837781</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>5.826394297377703</v>
+        <v>9.305164600648041</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>35.563774087623</v>
+        <v>37.08010597454381</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>42.66353228322747</v>
+        <v>41.35001800438073</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>5.809312850913184</v>
+        <v>8.569629772946115</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>49.93436091345357</v>
+        <v>47.93343529283663</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>59.66624722679834</v>
+        <v>57.94092144387245</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>55.81553910942884</v>
+        <v>52.26813017609783</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>66.73861985294943</v>
+        <v>59.30832572974323</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>74.68516134893076</v>
+        <v>69.24737005573189</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>12.30168653780751</v>
+        <v>13.80049345374246</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>59.20830154453714</v>
+        <v>54.29509831630517</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>70.52408897902529</v>
+        <v>63.59341898064333</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/ligand/LOO_XPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/ligand/LOO_XPhos/results.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.521</v>
+        <v>0.546</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.151</v>
+        <v>17.46</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.541</v>
+        <v>-0.873</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.756</v>
+        <v>23.985</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.994</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.292</v>
+        <v>4.912</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>20.54377353571471</v>
+        <v>18.53632919557169</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>20.91835737542046</v>
+        <v>15.95491687447524</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>20.68638834218754</v>
+        <v>19.12175990683322</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>11.67366296402083</v>
+        <v>3.646360212538216</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>22.16572370506536</v>
+        <v>19.76229920451296</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>25.54733953679325</v>
+        <v>23.09583963518048</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>13.46983743884741</v>
+        <v>4.593432774996593</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>29.19762709164622</v>
+        <v>26.90390542909977</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>28.67994013614168</v>
+        <v>27.06399352427773</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>26.40508613433235</v>
+        <v>22.53891814548749</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>31.42114361654553</v>
+        <v>29.90819411374514</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>31.10850747957092</v>
+        <v>28.98939566767532</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>18.40819402567249</v>
+        <v>19.19689566605695</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>27.05550282498876</v>
+        <v>25.29689045286482</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>28.760172783803</v>
+        <v>29.56687780003595</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>21.66031101497639</v>
+        <v>20.19507062455863</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>36.92460442745153</v>
+        <v>35.44558611187388</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>40.60498319397823</v>
+        <v>42.60324935187152</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>10.45389939578805</v>
+        <v>9.612656001096404</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>33.01575805780515</v>
+        <v>30.81483689557375</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>40.87686515470018</v>
+        <v>46.08307080130732</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>11.79057617735315</v>
+        <v>9.279342662828604</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>45.68346784075055</v>
+        <v>47.70146795555425</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>62.82498322611252</v>
+        <v>64.95996665039938</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>48.77035319336731</v>
+        <v>48.90333103431884</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>58.40325993225638</v>
+        <v>60.60165002758576</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>61.21676101754694</v>
+        <v>68.13562496186879</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>20.56319136441072</v>
+        <v>22.40717022794506</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>60.20654070014465</v>
+        <v>65.81036500737504</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>68.19692834212957</v>
+        <v>73.30731343245776</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>30.54378635570011</v>
+        <v>27.97742143296009</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>45.99544855382827</v>
+        <v>46.25028880882415</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>48.90640121669757</v>
+        <v>51.69924289265575</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>12.32603435270171</v>
+        <v>12.46956185930304</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>36.74585282872955</v>
+        <v>40.36651608149671</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>47.35491172253109</v>
+        <v>52.29921458409123</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>20.13317204750604</v>
+        <v>12.7732723507081</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>64.44356139453642</v>
+        <v>65.75643335978097</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>67.57815692084867</v>
+        <v>74.14407784909159</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>69.4419192430078</v>
+        <v>73.67419330046154</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>77.68212379980065</v>
+        <v>86.09633501693411</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>81.29092824760325</v>
+        <v>90.9749208509219</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>33.26846366220129</v>
+        <v>36.59447043076386</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>81.00500237915648</v>
+        <v>85.61397534084028</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>79.24518720462606</v>
+        <v>87.65160073468003</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>16.02371490118195</v>
+        <v>12.4172901979629</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>41.8884379794512</v>
+        <v>37.98815819453717</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>43.08245608182403</v>
+        <v>41.71927887903804</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>10.06248345618482</v>
+        <v>3.942946099309548</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>42.25722581843514</v>
+        <v>42.93588399604526</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>48.00628411971588</v>
+        <v>47.07561921702976</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>9.963388243431901</v>
+        <v>5.315422170556491</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>61.50776658449834</v>
+        <v>62.16500107388594</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>59.57917433245456</v>
+        <v>61.28691011179432</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>49.67891367224402</v>
+        <v>54.89981400412385</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>51.77642903011275</v>
+        <v>62.42505909753791</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>56.91853971124864</v>
+        <v>61.06827022026582</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>17.15474125414487</v>
+        <v>14.69228416706718</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>60.20895153678261</v>
+        <v>60.74216542261003</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>65.24282393415598</v>
+        <v>67.90902011725004</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>15.14782452944078</v>
+        <v>15.48251974051882</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>39.12633985881681</v>
+        <v>39.00563945490224</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>42.07109385820651</v>
+        <v>45.25290468347927</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>10.2264753758418</v>
+        <v>4.055157328636724</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>34.29522651564218</v>
+        <v>33.41725637926876</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>41.414611944883</v>
+        <v>43.57969166867787</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>10.96672637536775</v>
+        <v>7.49982520239444</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>55.39571677288802</v>
+        <v>56.12845119886849</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>69.22685140435635</v>
+        <v>70.641127149326</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>50.97458721413557</v>
+        <v>51.79798180239571</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>60.54544275673005</v>
+        <v>65.27685811684424</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>64.61146978388618</v>
+        <v>67.23482268465031</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>12.52825952009696</v>
+        <v>13.32378131437816</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>63.2977542039138</v>
+        <v>66.82167095966065</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>70.55489696020751</v>
+        <v>73.39463895198615</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>16.11075730129452</v>
+        <v>14.70503868584851</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>45.8224227142199</v>
+        <v>44.68954741828978</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>48.07211460650441</v>
+        <v>48.07666238852607</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>9.680275320030098</v>
+        <v>3.24558775544611</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>41.02521093954346</v>
+        <v>43.73264631748435</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>51.81310250569642</v>
+        <v>50.82712119299443</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>9.52019641406886</v>
+        <v>6.665510488246596</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>65.40208770760334</v>
+        <v>70.02940013542792</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>71.35247072224509</v>
+        <v>74.55305739116235</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>70.83281070808074</v>
+        <v>74.8318976501387</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>80.77698437126782</v>
+        <v>89.23389971805786</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>81.11230353166849</v>
+        <v>88.81781937223103</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>17.1711529400803</v>
+        <v>15.43185046373386</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>75.17611331332282</v>
+        <v>83.07700965449413</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>79.27000916164275</v>
+        <v>86.23917826743971</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>29.647065778251</v>
+        <v>26.36941963027014</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>41.00647307069166</v>
+        <v>41.63581530842667</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>41.18041732764115</v>
+        <v>44.36629261666225</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>11.0892168166042</v>
+        <v>10.78668629222796</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>43.78126413825208</v>
+        <v>45.98604868873613</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>45.73941975200882</v>
+        <v>49.03654587290741</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>12.11764299241271</v>
+        <v>10.94804946033114</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>63.73190481724573</v>
+        <v>65.67856086517992</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>58.60666126845319</v>
+        <v>60.32046901808172</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>51.64733017730495</v>
+        <v>55.2881070137994</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>65.08083387169059</v>
+        <v>66.59635032644485</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>62.5597729514795</v>
+        <v>64.97355603370912</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>31.96806851334549</v>
+        <v>28.79212554993613</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>62.66699513141853</v>
+        <v>62.92686283903511</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>65.37936238039069</v>
+        <v>68.0679712642976</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>27.38861365214877</v>
+        <v>26.65062574515376</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>40.76165776272813</v>
+        <v>46.42882741072202</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>42.60995866647636</v>
+        <v>48.85814933314137</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>10.16448705379845</v>
+        <v>8.71921759955206</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>38.46464879839147</v>
+        <v>42.18057754300197</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>42.18398943260203</v>
+        <v>45.27164395109791</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>11.3784025866378</v>
+        <v>9.859571118822174</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>60.67370197346175</v>
+        <v>65.23231960641064</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>69.5250465775207</v>
+        <v>70.55807358263951</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>53.70393439770866</v>
+        <v>58.09825954354268</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>62.94647721306708</v>
+        <v>69.1762709649025</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>64.34862118135244</v>
+        <v>67.37320696761428</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>29.10398768649661</v>
+        <v>28.7745468672814</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>64.71297471335758</v>
+        <v>70.27707451887147</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>67.25147954976788</v>
+        <v>71.1729409777268</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>35.32463596619234</v>
+        <v>31.58292373042196</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>48.62292906734798</v>
+        <v>51.96470320518021</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>47.20405552816761</v>
+        <v>53.53609695360568</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>11.14101308401039</v>
+        <v>10.44755639923383</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>48.21525438431992</v>
+        <v>51.34508165439087</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>49.11829880830977</v>
+        <v>52.67545029911014</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>12.04982343190905</v>
+        <v>11.67931445309863</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>68.29966685795662</v>
+        <v>76.91540518221569</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>67.1769560634695</v>
+        <v>75.02812820458675</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>72.49429185753914</v>
+        <v>81.06152161302968</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>73.92413614493356</v>
+        <v>87.48713903246714</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>77.86243438806366</v>
+        <v>89.9789248742385</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>36.78062286064527</v>
+        <v>35.59117048944152</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>76.36786301276904</v>
+        <v>87.30436446375268</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>76.85481328128039</v>
+        <v>89.11218197529396</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>20.19170728827208</v>
+        <v>20.3898826353888</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>22.65494021695142</v>
+        <v>20.44145986148968</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>23.09666644023135</v>
+        <v>21.3589842345651</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>11.89709224877389</v>
+        <v>5.278489161753608</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>23.11480833657766</v>
+        <v>23.38445530218952</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>24.94860409342924</v>
+        <v>24.25117498470044</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>13.42832990937949</v>
+        <v>7.312570566067386</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>28.80107819626376</v>
+        <v>30.55923236873934</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>28.54782084468456</v>
+        <v>28.55767782008036</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>29.23211263488611</v>
+        <v>25.23780012804809</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>31.48183996916681</v>
+        <v>30.15107556216288</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>33.93639424936155</v>
+        <v>31.93568209531695</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>60.93400415036581</v>
+        <v>60.91564978662839</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>62.99018856092464</v>
+        <v>61.0804654512313</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>60.93786422935415</v>
+        <v>65.23493494346968</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>18.34758307052696</v>
+        <v>17.58921766532097</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>37.66478605435636</v>
+        <v>37.59671387139235</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>40.81260036761512</v>
+        <v>42.00010114330844</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>10.91936202393023</v>
+        <v>9.147919481187483</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>38.55391480251403</v>
+        <v>34.19819656108472</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>52.20425141082778</v>
+        <v>48.38630875583274</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>13.61002504749936</v>
+        <v>9.245643763369401</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>48.2893368558908</v>
+        <v>47.60777291537783</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>62.07712461057609</v>
+        <v>64.43948640237451</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>44.60267883671641</v>
+        <v>40.61394841026464</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>52.93395902928859</v>
+        <v>51.23331258701062</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>58.60160406126795</v>
+        <v>62.02860073779755</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>18.31482753403809</v>
+        <v>21.91138590391288</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>58.70909134104939</v>
+        <v>63.83198319453023</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>64.33668715833849</v>
+        <v>69.84481992046568</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>27.97990209545785</v>
+        <v>30.29807210847084</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>44.07748842737696</v>
+        <v>47.02079795141105</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>46.48962163929466</v>
+        <v>53.3955354568008</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>13.27612561026329</v>
+        <v>12.60938496495271</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>46.0999121996024</v>
+        <v>41.6631137382998</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>52.38161641701015</v>
+        <v>50.98559149133413</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>18.90813523134225</v>
+        <v>14.8578957042601</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>62.14455908260138</v>
+        <v>62.08607488616816</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>66.27686612667659</v>
+        <v>73.60828818434663</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>58.76612333782269</v>
+        <v>64.34389153952721</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>71.09685312022857</v>
+        <v>76.75641902549131</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>76.01954275412717</v>
+        <v>87.57856598155098</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>35.98849087957862</v>
+        <v>40.4347929755081</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>72.55792032238034</v>
+        <v>80.23291781067829</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>74.84463298613784</v>
+        <v>83.64946224637757</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>31.55385032794633</v>
+        <v>27.66762147520704</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>48.70028080973183</v>
+        <v>45.01355666668002</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>45.10362455788218</v>
+        <v>43.81165276718687</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>11.67267053478133</v>
+        <v>11.11199900877914</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>51.09469155990922</v>
+        <v>48.45625569548681</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>49.70737105938993</v>
+        <v>51.50980683129147</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>13.48390269737233</v>
+        <v>14.11217695430304</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>70.79289431889467</v>
+        <v>69.43696765437102</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>62.23410118688258</v>
+        <v>63.91931360119198</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>51.23039012611233</v>
+        <v>55.33122461255213</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>61.4120045107306</v>
+        <v>66.78792437502676</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>64.53141724229326</v>
+        <v>65.26427834265472</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>22.73079531766819</v>
+        <v>26.507571678277</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>10.38454834575462</v>
+        <v>22.13917421206808</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>10.80935297023114</v>
+        <v>28.54515824325562</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>36.56047213022804</v>
+        <v>33.2803232008457</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>47.81980030650545</v>
+        <v>56.10436861599956</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>45.84606196089238</v>
+        <v>53.091440291422</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>10.59403606461002</v>
+        <v>10.1151520532462</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>45.34630949568579</v>
+        <v>46.70899419986295</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>47.80821999558982</v>
+        <v>51.12512821918575</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>13.1506327543534</v>
+        <v>12.43910299915032</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>65.55767958667425</v>
+        <v>70.20162160428389</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>66.00241904680033</v>
+        <v>72.72086483351848</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>61.80798650949239</v>
+        <v>68.2497731830716</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>65.50160789619376</v>
+        <v>76.33722318685611</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>66.5105971144704</v>
+        <v>76.08177776132527</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>42.27028782188947</v>
+        <v>43.09382989816479</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>72.02694362411458</v>
+        <v>79.06694697106566</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>73.06864555049319</v>
+        <v>77.9115158100052</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>40.78215685793114</v>
+        <v>36.96327066056513</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>50.94696724018922</v>
+        <v>56.16109259594358</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>50.63986346694202</v>
+        <v>56.54586939719695</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>11.67279361668807</v>
+        <v>11.17159142584086</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>52.84875299815086</v>
+        <v>48.84341405279216</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>48.39760929135281</v>
+        <v>51.91900633626339</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>12.84041088775727</v>
+        <v>13.57646951279222</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>71.47088300767811</v>
+        <v>75.15348523085436</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>67.84750059897</v>
+        <v>77.71852036690908</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>74.23120501055989</v>
+        <v>83.1816061739293</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>78.92065332212061</v>
+        <v>89.72948465169463</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>79.16428103384696</v>
+        <v>91.31409035473777</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>51.88021302112937</v>
+        <v>49.31109781390194</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>81.81513016314754</v>
+        <v>90.47004479882597</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>78.46910163278879</v>
+        <v>86.0416271374652</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>30.75097508830574</v>
+        <v>17.94037449933221</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>38.29704877495796</v>
+        <v>34.61561103816125</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>42.56603706833096</v>
+        <v>38.76578581415779</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>10.81634779392793</v>
+        <v>9.533311963870354</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>46.5117982537222</v>
+        <v>45.41540426741962</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>52.09850749497605</v>
+        <v>48.39072005672556</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>10.56677011627811</v>
+        <v>11.08885920513074</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>69.17717755803295</v>
+        <v>69.23843620389484</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>63.64786998992732</v>
+        <v>64.81853016331306</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>55.04507175816569</v>
+        <v>59.98686474028693</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>57.16561243422883</v>
+        <v>67.29507269519023</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>57.64150194101783</v>
+        <v>68.26870702068646</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>23.22969409108983</v>
+        <v>18.29756784040909</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>10.63282651051842</v>
+        <v>11.49076792980221</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>9.763758354737089</v>
+        <v>14.6313066832013</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>31.37131929281514</v>
+        <v>28.42208255535131</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>47.14381565953043</v>
+        <v>52.90954720228987</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>48.77982555861374</v>
+        <v>53.60670006349645</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>10.33956334761675</v>
+        <v>8.829562838640495</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>40.21485323786406</v>
+        <v>47.10013564496036</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>47.77156022434554</v>
+        <v>50.39962655696564</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>12.2323230858215</v>
+        <v>10.80335453422185</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>65.0641931224488</v>
+        <v>71.63427817938177</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>68.67204312647084</v>
+        <v>72.79132782566401</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>53.47384722281531</v>
+        <v>57.25519381559756</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>65.32573675214138</v>
+        <v>71.30656560345059</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>70.13791105455707</v>
+        <v>72.70037515273731</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>29.72166468268226</v>
+        <v>27.47413954536845</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>72.20999709832506</v>
+        <v>77.73547231237177</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>75.23911635625424</v>
+        <v>79.91895700056338</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>31.36047597008777</v>
+        <v>28.36757610955157</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>48.34572919479984</v>
+        <v>50.46296348170151</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>50.99898424620299</v>
+        <v>53.34823058502437</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>10.39931744584099</v>
+        <v>7.053185232059537</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>42.87940825123724</v>
+        <v>48.36889043878206</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>47.5692637783213</v>
+        <v>49.90218189471616</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>11.13361321931445</v>
+        <v>10.27157751565361</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>66.87822329203287</v>
+        <v>73.54889743679283</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>67.83543050926103</v>
+        <v>73.08957731425603</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>68.7223573791301</v>
+        <v>74.76024153935469</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>74.45951557317601</v>
+        <v>86.41077719292805</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>75.73432009205538</v>
+        <v>84.77507496787783</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>28.68329227365584</v>
+        <v>27.20382524019613</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>73.09928924696514</v>
+        <v>84.77984646619097</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>76.73578464271752</v>
+        <v>83.68027775485228</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>16.97517484804545</v>
+        <v>13.07671955969372</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>18.45438470356247</v>
+        <v>9.90839180200113</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>17.41821703900288</v>
+        <v>13.56365395014129</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>11.43979098495141</v>
+        <v>2.355497931391199</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>19.36116288283693</v>
+        <v>14.59731270933088</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>22.27149810823985</v>
+        <v>17.33820881179545</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>10.89662334024031</v>
+        <v>2.741265988695226</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>22.84240178447114</v>
+        <v>22.99208544118663</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>24.01212437661952</v>
+        <v>22.67947691657815</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>25.92508884876454</v>
+        <v>22.70889167138902</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>32.26819610769628</v>
+        <v>30.22555548345287</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>33.16482759339792</v>
+        <v>31.43259329158926</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>18.38197287719538</v>
+        <v>15.09951581766318</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>24.01813269061432</v>
+        <v>19.91199637767496</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>25.11702999849885</v>
+        <v>21.64468445951811</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>15.95670284341066</v>
+        <v>15.84865910181534</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>32.0862217116541</v>
+        <v>29.89975040781665</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>35.11476649427244</v>
+        <v>35.67553774028642</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>10.56932301000973</v>
+        <v>6.015151216522508</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>33.06423511129621</v>
+        <v>28.21125956260753</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>38.24864565088141</v>
+        <v>37.21008847474504</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>9.171661718723058</v>
+        <v>7.98241052852028</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>44.3972858708417</v>
+        <v>43.69143955141959</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>48.16437280628436</v>
+        <v>54.80080504360112</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>41.89968952123811</v>
+        <v>40.19709431761241</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>48.24836006609213</v>
+        <v>51.40615549360975</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>48.14977803645439</v>
+        <v>53.21334184143701</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>17.19892977390675</v>
+        <v>17.84542213283272</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>47.15522656305349</v>
+        <v>52.28513442050594</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>46.73222582915446</v>
+        <v>53.2907848692726</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>26.59261155323473</v>
+        <v>20.90932335865625</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>36.78392075873864</v>
+        <v>40.07961016923404</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>44.97862728831294</v>
+        <v>45.2531181529849</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>11.32306093855152</v>
+        <v>9.2104977868666</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>43.16129715611616</v>
+        <v>40.86131455949838</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>47.42756268749213</v>
+        <v>48.08861451049921</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>12.69995021219847</v>
+        <v>12.61961275306297</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>60.0201393023568</v>
+        <v>64.29946707527719</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>59.44112431244959</v>
+        <v>68.02570200410219</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>60.04562917657788</v>
+        <v>69.38189666542684</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>66.73901704371445</v>
+        <v>77.64252638350889</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>70.01685190950764</v>
+        <v>78.9766568277532</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>36.61254973589508</v>
+        <v>33.16585858878629</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>69.56981320756981</v>
+        <v>79.04021953365972</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>73.34495268613708</v>
+        <v>82.9212560503324</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>16.16133501998383</v>
+        <v>15.24042251523347</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>15.87413513095881</v>
+        <v>13.23819582995533</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>14.2463829212994</v>
+        <v>12.74638180663357</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>9.942276166908297</v>
+        <v>2.382446672714263</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>17.19479026191816</v>
+        <v>14.59384760250027</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>21.09559810934991</v>
+        <v>16.46993406278998</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>10.82955426811364</v>
+        <v>-0.2586273900449676</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>17.61158412945761</v>
+        <v>17.54675346485305</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>17.04420680511281</v>
+        <v>13.83444190574141</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>19.08712367896405</v>
+        <v>11.42213221786922</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>19.9226586750488</v>
+        <v>14.95425436369082</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>18.80762359342653</v>
+        <v>11.97836532562168</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>16.68305033516975</v>
+        <v>15.87858692706321</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>16.10951367132329</v>
+        <v>16.41002257627545</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>15.42892914667309</v>
+        <v>18.52509135709214</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>10.0267727596309</v>
+        <v>8.056696304124255</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>13.53303486072278</v>
+        <v>12.25322049663923</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>15.0309311982664</v>
+        <v>15.32547524125818</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>7.526342591209556</v>
+        <v>-0.4418333875820188</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>14.87542457492848</v>
+        <v>8.796679488094302</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>17.23476153583222</v>
+        <v>15.30865041278599</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>6.715551536855816</v>
+        <v>-0.8224811023497764</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>17.3040447646641</v>
+        <v>16.85087872291104</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>21.86986469123773</v>
+        <v>29.82106753404257</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>13.15815715194579</v>
+        <v>13.2398626601186</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>30.26594300460988</v>
+        <v>23.12033333569405</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>35.76008759663562</v>
+        <v>31.18835415348086</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>9.662088877389479</v>
+        <v>5.935199724041553</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>21.32663801710994</v>
+        <v>22.66661374062312</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>17.42864955534111</v>
+        <v>18.15798639215935</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>10.79546306275427</v>
+        <v>9.517254436255111</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>17.42260999649424</v>
+        <v>15.23756202559148</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>35.48008593447824</v>
+        <v>33.69353540888853</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>7.834832608574654</v>
+        <v>1.155730836203446</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>19.64891724283825</v>
+        <v>16.58145159436172</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>35.90274207217006</v>
+        <v>34.45901997676965</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>6.86111987278338</v>
+        <v>0.5797533951491403</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>25.11214013727786</v>
+        <v>27.57506885698193</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>57.21231834824174</v>
+        <v>58.28795363912351</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>18.38318431395464</v>
+        <v>28.04786337972828</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>47.65168630774606</v>
+        <v>49.88978213374295</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>67.47764464529126</v>
+        <v>70.05583382525582</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>11.07485385700926</v>
+        <v>9.88589536668967</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>37.45857447233386</v>
+        <v>34.31008827330998</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>46.92964259957315</v>
+        <v>42.95471081287647</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>22.43009411646128</v>
+        <v>15.92791005479356</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>22.768916304667</v>
+        <v>26.94580684737173</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>36.3722340178703</v>
+        <v>39.34001856484333</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>11.73113165619442</v>
+        <v>7.10987420549468</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>41.95223338814692</v>
+        <v>45.989778157787</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>43.75787683334568</v>
+        <v>51.73274540018296</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>17.9318819190521</v>
+        <v>9.185916467049584</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>59.82992317876294</v>
+        <v>66.5384023927881</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>58.94225732476265</v>
+        <v>67.92799100678714</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>54.37567269732143</v>
+        <v>61.27973709636606</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>62.60789703253295</v>
+        <v>73.34939173159682</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>59.51179421540326</v>
+        <v>70.72595237842614</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>37.18121698638503</v>
+        <v>29.6345496125169</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>55.90396449820804</v>
+        <v>54.56159346152997</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>67.22607534960284</v>
+        <v>72.51807160803746</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>24.5949808370129</v>
+        <v>21.64883784728805</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>34.33093931460342</v>
+        <v>36.63988279793158</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>35.82109887258456</v>
+        <v>39.75339746579085</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>10.3724925390293</v>
+        <v>3.589203451036809</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>34.76737341133575</v>
+        <v>34.63068184317087</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>35.64483393669956</v>
+        <v>36.02266261852218</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>11.30549646056922</v>
+        <v>5.889389983191201</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>49.55578714032115</v>
+        <v>55.38929552239507</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>51.27687172254868</v>
+        <v>59.67957746788782</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>42.27586444021127</v>
+        <v>47.46251565758607</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>47.9041856099484</v>
+        <v>56.381205727409</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>48.85729742674849</v>
+        <v>54.77425402625562</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>32.31535480187429</v>
+        <v>28.85392142989865</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>53.54698635582043</v>
+        <v>62.69466047441998</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>53.60445407781557</v>
+        <v>62.44935645212781</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>27.19969859509908</v>
+        <v>23.29221391302048</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>36.37049385967379</v>
+        <v>39.08506116142286</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>43.95412387552314</v>
+        <v>44.09124077149707</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>10.71744353283061</v>
+        <v>8.887184966106577</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>44.06174312639857</v>
+        <v>45.25576107165829</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>46.78974496597164</v>
+        <v>47.17917467584698</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>12.01682952480239</v>
+        <v>11.49433896424972</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>62.22532773832006</v>
+        <v>68.88728261885461</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>62.67492111379445</v>
+        <v>69.62599231998857</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>63.68669391018344</v>
+        <v>71.30649592686618</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>68.88319359998107</v>
+        <v>77.56708723985008</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>68.85326381040511</v>
+        <v>78.82236125872618</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>37.09417430934862</v>
+        <v>34.56141244216769</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>66.61234755427866</v>
+        <v>77.10615756158052</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>71.24697539057794</v>
+        <v>83.73147376019614</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>15.36938968689512</v>
+        <v>10.57211041013791</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>16.45331820600357</v>
+        <v>12.95907858811158</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>16.605367419135</v>
+        <v>15.68338725225196</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>9.543593903329594</v>
+        <v>1.610475964953071</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>14.14809340380158</v>
+        <v>9.443205124645349</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>17.66093408279941</v>
+        <v>15.1084199191483</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>9.311278721893387</v>
+        <v>1.416915906500826</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>19.74433425162108</v>
+        <v>19.11411392778332</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>20.79655387892063</v>
+        <v>20.69809894490859</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>18.71521650687414</v>
+        <v>18.03052047801481</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>21.71658157285228</v>
+        <v>23.54806499662472</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>23.86669964022128</v>
+        <v>23.73336025356097</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>13.61882790512698</v>
+        <v>12.36082525033317</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>20.49783154856764</v>
+        <v>20.28225574700308</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>21.72899678609397</v>
+        <v>23.77512622718901</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>12.64736724595101</v>
+        <v>11.39948300955484</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>25.42124003409018</v>
+        <v>23.57077184463338</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>27.32948297297973</v>
+        <v>31.26833705101215</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>9.670737665197716</v>
+        <v>5.805221252945351</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>26.29910691868505</v>
+        <v>19.56689000295025</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>30.45680620071467</v>
+        <v>32.00969268874391</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>8.269942530720346</v>
+        <v>6.590107589887591</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>36.60738785055007</v>
+        <v>32.34529341657439</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>40.43290103906137</v>
+        <v>48.87021115372393</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>31.64150995695983</v>
+        <v>24.66339008036273</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>39.80541591422217</v>
+        <v>37.97194664845416</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>37.14568760662677</v>
+        <v>39.03128838890689</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>12.18621506890362</v>
+        <v>10.44651277333103</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>36.21378462853662</v>
+        <v>37.47601656168506</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>39.89489075720437</v>
+        <v>45.4072837981392</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>19.45482188853347</v>
+        <v>19.69714624619918</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>32.06773428790046</v>
+        <v>33.0209060611109</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>40.74188948953081</v>
+        <v>44.24736663188206</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>12.94766237394529</v>
+        <v>9.340367885021958</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>32.14206220448886</v>
+        <v>29.1493685861407</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>38.7172970976513</v>
+        <v>44.1209973040002</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>16.66837446469476</v>
+        <v>13.96148095306165</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>49.87099187200732</v>
+        <v>46.71284707997055</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>53.35797940899653</v>
+        <v>62.72902981233177</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>51.52144736209101</v>
+        <v>47.90618974969443</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>57.61886219580068</v>
+        <v>58.9551658456941</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>68.64761365115672</v>
+        <v>76.28190324286237</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>22.54653347529408</v>
+        <v>28.00462311817849</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>57.94497345698383</v>
+        <v>59.8440013400259</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>62.3420016416224</v>
+        <v>72.44393703401565</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>9.815370145445407</v>
+        <v>6.359852186384963</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>9.73494775645954</v>
+        <v>6.057246181312895</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>11.39528000273582</v>
+        <v>8.580554800253655</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>7.689298788709515</v>
+        <v>-1.309374661722288</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>10.26817433304147</v>
+        <v>8.655758066607355</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>14.2266198531091</v>
+        <v>12.92490180122832</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>4.373269543433807</v>
+        <v>-4.127441100458512</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>8.058299855140387</v>
+        <v>14.72746918210938</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>13.37547250229346</v>
+        <v>12.57005303940981</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>10.07722736551448</v>
+        <v>4.038717819037348</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>12.72099804835085</v>
+        <v>5.471091829387106</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>13.25910707106034</v>
+        <v>15.019146760324</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>9.661963524214961</v>
+        <v>5.825943010724739</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>10.53689832307399</v>
+        <v>9.710710639655201</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>17.843047960398</v>
+        <v>15.78045483011086</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>24.17706310599642</v>
+        <v>20.99409689711326</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>34.55023184476012</v>
+        <v>38.39741836617109</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>35.27876748011404</v>
+        <v>38.79033176302804</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>10.18779958611732</v>
+        <v>8.300533324540591</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>35.02821464294599</v>
+        <v>35.87854983835872</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>38.61028691598737</v>
+        <v>38.17279337703252</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>9.343103921913738</v>
+        <v>8.939058837995653</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>46.95704044006623</v>
+        <v>55.26679062646936</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>50.6279282890425</v>
+        <v>56.74583534355499</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>47.29428971310318</v>
+        <v>47.23922819363382</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>47.91866213120667</v>
+        <v>55.1659218851138</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>49.7461511257751</v>
+        <v>54.68083776025993</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>24.76680542598206</v>
+        <v>21.48158943196201</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>51.76956129584306</v>
+        <v>60.54986378584359</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>52.26421369285214</v>
+        <v>60.26335269109906</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>27.21935041199383</v>
+        <v>23.73959838179816</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>39.12939976165189</v>
+        <v>44.04464726174675</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>46.12325543779269</v>
+        <v>46.90719141265467</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>10.8853604594569</v>
+        <v>9.356020376696669</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>46.69433638907168</v>
+        <v>48.13924755666389</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>51.14939779373759</v>
+        <v>51.2814946715237</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>10.02401544535497</v>
+        <v>9.57150682298472</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>61.68330222426031</v>
+        <v>69.47744009960238</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>63.22258861800214</v>
+        <v>67.77918933213947</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>68.86618128828474</v>
+        <v>75.67150007262867</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>74.36057872441586</v>
+        <v>84.33582822546776</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>75.38002939305352</v>
+        <v>81.84330656715585</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>30.51267216391834</v>
+        <v>27.05291348556878</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>74.0350553456154</v>
+        <v>82.75519713948586</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>70.89481564864951</v>
+        <v>81.28729602974155</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>17.55280835855186</v>
+        <v>12.31413238266365</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>20.0379294639351</v>
+        <v>14.1906260107011</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>19.2801296472026</v>
+        <v>18.72402324286193</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>8.670172857035855</v>
+        <v>0.5107572170372165</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>18.93450299106637</v>
+        <v>13.77516266258405</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>21.0937688680662</v>
+        <v>18.29907223238054</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>8.206816507117917</v>
+        <v>0.8442152903609887</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>21.39634995939565</v>
+        <v>22.41839999246329</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>23.84142412657874</v>
+        <v>24.72151996457145</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>21.44572704041782</v>
+        <v>18.87144417223075</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>28.63162201669696</v>
+        <v>24.10628851562798</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>27.47586919976609</v>
+        <v>27.08637460813514</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>14.98401316165678</v>
+        <v>14.83706200176958</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>24.81445118735359</v>
+        <v>25.04599707759176</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>26.2268705296233</v>
+        <v>29.17206552756731</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>9.808841066638468</v>
+        <v>8.93408327822392</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>14.83354065037738</v>
+        <v>14.10175381442224</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>22.63979454464701</v>
+        <v>21.59264541089006</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>8.279368222615112</v>
+        <v>0.0456682671812878</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>14.44739356572005</v>
+        <v>9.92998554219793</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>24.64641972706317</v>
+        <v>20.23432323492025</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>8.027976869745469</v>
+        <v>-0.3215696659310758</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>18.57998201341016</v>
+        <v>18.80066145472779</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>34.63064825884841</v>
+        <v>33.89280525025174</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>16.15488531087972</v>
+        <v>12.99498610545551</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>28.41135778161946</v>
+        <v>23.00063518946383</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>31.43140358723183</v>
+        <v>28.95315446694099</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>9.662102665877505</v>
+        <v>6.196730217883136</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>26.96439243741025</v>
+        <v>22.9150610223174</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>32.34449151137601</v>
+        <v>29.91243276534889</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>21.06385255356579</v>
+        <v>22.12043603934191</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>28.7538751022704</v>
+        <v>31.257898770325</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>36.43430637960583</v>
+        <v>37.86479005810047</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>10.12578380948784</v>
+        <v>4.541347758779889</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>24.84707961604004</v>
+        <v>25.7351902367021</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>32.09262137979884</v>
+        <v>32.09465756539712</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>15.20221225861233</v>
+        <v>9.215924897638772</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>41.28969095561356</v>
+        <v>44.44659392766618</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>49.85484170426126</v>
+        <v>52.45514670989639</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>44.4931003541764</v>
+        <v>48.05980748231222</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>52.17377178677378</v>
+        <v>54.80427873536277</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>56.38489790862059</v>
+        <v>63.42177139076974</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>31.84582994412068</v>
+        <v>26.03669180544565</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>47.4468366185493</v>
+        <v>50.02908948002345</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>51.90529948672834</v>
+        <v>53.82585140852557</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>10.39266257892302</v>
+        <v>7.909379310702551</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>12.53749849307959</v>
+        <v>5.855455473648405</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>11.49475450409672</v>
+        <v>6.092533392989559</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>7.789653489164522</v>
+        <v>-0.809603212011428</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>10.41494661495608</v>
+        <v>3.975313254842096</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>12.80997234654344</v>
+        <v>5.850992770943655</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>6.092640749145371</v>
+        <v>0.370813859986221</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>9.266310539294423</v>
+        <v>8.139659656736967</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>13.06548002864097</v>
+        <v>5.692918322040416</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>10.29442448726052</v>
+        <v>1.524661685484244</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>12.06359466933803</v>
+        <v>1.543140743889733</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>13.14813531922778</v>
+        <v>4.885928388488335</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>9.191404308245502</v>
+        <v>9.190951625452279</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>10.84604811747343</v>
+        <v>12.38212120116878</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>14.08673773447173</v>
+        <v>15.56541904369183</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>9.826512013358808</v>
+        <v>7.046603556917709</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>10.64586203350108</v>
+        <v>9.169227334474339</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>11.27660813985442</v>
+        <v>8.599397074584282</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>8.21070941317338</v>
+        <v>-0.03052707440885882</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>10.80228624667683</v>
+        <v>4.498348070368166</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>11.57496413396117</v>
+        <v>7.526370367288795</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>8.00168302477481</v>
+        <v>-1.25019000171519</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>10.84743953440849</v>
+        <v>8.421299717426805</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>12.8110656234061</v>
+        <v>11.37944825568191</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>11.10079760913322</v>
+        <v>6.092154382079539</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>13.54661342526895</v>
+        <v>9.254875769422238</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>13.16675258065494</v>
+        <v>5.590485092598858</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>8.485874778894182</v>
+        <v>1.994527110710973</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>11.53506898356055</v>
+        <v>9.851076314840011</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>12.37871088722738</v>
+        <v>11.15647714728076</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>24.40061363245566</v>
+        <v>21.23128166946881</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>26.1859291286148</v>
+        <v>25.05606537404122</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>27.39683880540306</v>
+        <v>28.45386283364402</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>11.00769413042364</v>
+        <v>5.322252457736269</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>21.89838705185182</v>
+        <v>19.1457350678925</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>25.28764561889014</v>
+        <v>23.32673457084044</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>16.33228847681448</v>
+        <v>8.920485361182333</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>30.17581555886688</v>
+        <v>30.8219422504072</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>32.26476772954653</v>
+        <v>34.40392302285652</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>37.68261816110495</v>
+        <v>37.15029597909529</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>40.29551870408985</v>
+        <v>42.77059797872037</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>41.74447229041823</v>
+        <v>40.82051633780198</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>27.152873524176</v>
+        <v>24.99800218806954</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>30.8234734244278</v>
+        <v>34.27037876033204</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>36.11726081278852</v>
+        <v>39.02983415422663</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>21.22315691535126</v>
+        <v>20.00351987341102</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>26.72789956269376</v>
+        <v>23.72040893224703</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>33.56315488818809</v>
+        <v>31.6330934053075</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>9.615262778549745</v>
+        <v>2.636012793160898</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>24.0435402322801</v>
+        <v>22.62238207079671</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>29.21874187618197</v>
+        <v>29.19715739749655</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>9.844212563089098</v>
+        <v>4.039123023093563</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>35.14725605935134</v>
+        <v>35.39771058790421</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>42.46728669756564</v>
+        <v>40.2272655070275</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>32.85438911965338</v>
+        <v>32.11032255066737</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>40.38482825419979</v>
+        <v>41.96298494708196</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>44.98063445586379</v>
+        <v>44.8320653169102</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>27.39615610864406</v>
+        <v>34.09938722895112</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>44.79444121152937</v>
+        <v>50.94246620127247</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>58.47790449421153</v>
+        <v>61.74500836844551</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>19.26334382803214</v>
+        <v>14.57920433633791</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>26.95805635566497</v>
+        <v>25.35893653570644</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>29.8486769976158</v>
+        <v>26.49705957499687</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>7.940095021399983</v>
+        <v>-0.582007708989952</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>19.67174844216994</v>
+        <v>15.92053404898783</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>23.68868240956832</v>
+        <v>22.10806149577568</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>7.549873558297239</v>
+        <v>0.3192755015206998</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>29.32261732726931</v>
+        <v>31.57914223882649</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>32.01327196956552</v>
+        <v>37.9002008751144</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>28.49713989584488</v>
+        <v>30.83529547509159</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>37.12236818057291</v>
+        <v>38.47652211025402</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>33.49564674760956</v>
+        <v>37.91568751577765</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>22.29804701088383</v>
+        <v>19.49350691430983</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>38.6373871594893</v>
+        <v>43.00743441845864</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>41.97375675234085</v>
+        <v>46.51737571983993</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>27.47385739833269</v>
+        <v>24.23627518708616</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>35.23686382162558</v>
+        <v>38.03372476893151</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>44.26278000872993</v>
+        <v>42.89332650422415</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>9.60779611713302</v>
+        <v>6.580983545522219</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>33.16179899964465</v>
+        <v>31.98446210264606</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>36.84872565971845</v>
+        <v>37.72302904206895</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>12.9119828263322</v>
+        <v>7.962157043418287</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>51.19192942335692</v>
+        <v>54.69448579525744</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>53.43842721765289</v>
+        <v>59.11309110639478</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>58.0804385099613</v>
+        <v>65.51003118212236</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>63.64405666614964</v>
+        <v>70.56006570452487</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>68.18479503939733</v>
+        <v>77.09507853477091</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>30.2139047946285</v>
+        <v>32.31864038647748</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>53.01387508106851</v>
+        <v>65.01954079385848</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>61.21596684012388</v>
+        <v>70.46403809085157</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>25.67890969138719</v>
+        <v>20.07638194809478</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>35.34891392009276</v>
+        <v>38.82845002163087</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>38.83312860175943</v>
+        <v>42.63039491722816</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>12.05204784720208</v>
+        <v>10.88634988397104</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>40.86470678781244</v>
+        <v>41.70178365092659</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>41.59550911871341</v>
+        <v>46.248480112359</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>14.67061246986545</v>
+        <v>12.23183430463891</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>55.86931529315753</v>
+        <v>58.62511782768513</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>57.79949313166034</v>
+        <v>59.50529135255287</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>61.50549458605362</v>
+        <v>65.35682502009314</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>63.71736633273318</v>
+        <v>69.52122484145305</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>65.27387952674346</v>
+        <v>68.49979494589172</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>28.69783186451472</v>
+        <v>25.53665968827974</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>61.6252653241452</v>
+        <v>65.23046220922947</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>65.83779507561913</v>
+        <v>70.63255553605217</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>23.49573568098178</v>
+        <v>18.65012943073438</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>32.24391087959588</v>
+        <v>36.15890660462986</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>39.29478772882668</v>
+        <v>40.69479998615564</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>10.02420861183557</v>
+        <v>7.477444094766312</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>34.21797920818272</v>
+        <v>30.59116268442426</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>34.05330153692702</v>
+        <v>37.77542615042628</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>10.31728372489559</v>
+        <v>8.036513825579199</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>46.75302565318635</v>
+        <v>47.6931691116477</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>54.60707588532505</v>
+        <v>58.55123355744495</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>43.24250850333308</v>
+        <v>46.06520818266907</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>51.3057686882825</v>
+        <v>55.61730004829148</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>43.20050044335577</v>
+        <v>54.10280398674978</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>23.62700399440417</v>
+        <v>18.37522586034282</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>53.45962487157803</v>
+        <v>57.53092143262549</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>59.34967684879328</v>
+        <v>62.81205477010077</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>24.55079910273725</v>
+        <v>21.13397868988029</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>36.71918475715957</v>
+        <v>41.23025958314703</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>42.63664480528007</v>
+        <v>47.41015471905679</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>10.70241388216962</v>
+        <v>6.916243541294808</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>42.18228158030692</v>
+        <v>38.93383666485947</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>41.33997224359963</v>
+        <v>46.64632396375327</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>10.15805520058117</v>
+        <v>8.191968729708186</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>55.03054240975926</v>
+        <v>58.22543357286916</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>59.07279949652499</v>
+        <v>65.92591627499976</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>61.68729692711587</v>
+        <v>66.88741548945015</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>66.62187628476207</v>
+        <v>76.96564529164417</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>72.48182670311184</v>
+        <v>82.29165755148914</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>25.35975779439521</v>
+        <v>19.95191370704823</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>64.68907062521077</v>
+        <v>71.6789301712755</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>69.69727234993547</v>
+        <v>78.72869453770855</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>26.75649780220243</v>
+        <v>23.89240030818764</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>31.3664532832117</v>
+        <v>31.90427590219115</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>36.54239731114236</v>
+        <v>38.33539404066046</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>10.44576892430789</v>
+        <v>9.265821072498987</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>41.5600296141082</v>
+        <v>42.6653207070906</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>41.84122568993019</v>
+        <v>47.3860761892315</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>13.5265106040058</v>
+        <v>11.66911220013765</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>56.00783836633248</v>
+        <v>56.76405701299736</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>55.20285960841218</v>
+        <v>57.86247736880828</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>53.10700102884553</v>
+        <v>56.6072285471067</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>55.46441188332884</v>
+        <v>62.82576354703061</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>58.38460217494844</v>
+        <v>62.08172056896488</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>25.25256854690326</v>
+        <v>28.01436225171483</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>42.07239350598919</v>
+        <v>44.09467595485023</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>62.53795666719092</v>
+        <v>62.35459486765728</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>28.58390457323559</v>
+        <v>25.04711802186207</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>36.60315663945781</v>
+        <v>40.12488386612617</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>37.30331267383011</v>
+        <v>41.14914948722146</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>9.426081899155477</v>
+        <v>7.3358043901098</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>35.25185142887616</v>
+        <v>34.97683534712881</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>35.17823635117722</v>
+        <v>39.63789810243646</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>11.1746215059598</v>
+        <v>7.006719579709024</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>47.420029976534</v>
+        <v>53.53479276530189</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>55.63755143131687</v>
+        <v>60.95315208272485</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>48.49606106953088</v>
+        <v>50.84072200977153</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>50.34893927589339</v>
+        <v>58.31773952588031</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>49.5027356595766</v>
+        <v>57.90426912035021</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>27.72736221807727</v>
+        <v>24.67423857274246</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>57.3920943890575</v>
+        <v>63.34993502651336</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>59.47684721071792</v>
+        <v>66.53246249099273</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>29.73286231665139</v>
+        <v>27.37018552460772</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>39.24016176437058</v>
+        <v>44.2415286919826</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>43.03347378331362</v>
+        <v>47.90306578910882</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>10.14390156621694</v>
+        <v>9.375363379738509</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>40.65155036172276</v>
+        <v>42.26284816178018</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>43.23488128795347</v>
+        <v>47.79898884653903</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>10.69516820261363</v>
+        <v>7.723271555580791</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>57.56016615759098</v>
+        <v>64.70521091985026</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>59.39338232705074</v>
+        <v>69.67958908589974</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>64.54837444661493</v>
+        <v>75.33293939142959</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>70.69291468783877</v>
+        <v>81.49882310929573</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>72.21370907421399</v>
+        <v>83.22917505027002</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>29.13226535583363</v>
+        <v>28.55140666078567</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>65.69726431326342</v>
+        <v>75.55126225579639</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>67.41654651678552</v>
+        <v>79.63513076168478</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>25.86412297805302</v>
+        <v>22.63943996072311</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>29.52998725005394</v>
+        <v>31.40858389674965</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>34.05108371511494</v>
+        <v>34.34874180776522</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>16.58942549102006</v>
+        <v>15.16967370347869</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>57.8203032519821</v>
+        <v>55.44280831925636</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>56.27721143775598</v>
+        <v>55.19365350171441</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>13.52075792543327</v>
+        <v>10.56784746921154</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>57.56802065589041</v>
+        <v>58.02427752143199</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>53.35086479801493</v>
+        <v>54.73839955627147</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>56.67961712497696</v>
+        <v>55.64268413648536</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>58.84036121158322</v>
+        <v>61.68615081255334</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>60.99944433519495</v>
+        <v>60.35598143727088</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>23.13326758626633</v>
+        <v>33.23991524129073</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>38.50373610096716</v>
+        <v>47.00897929092429</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>55.69204874557259</v>
+        <v>61.26426420400274</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>29.31002344490009</v>
+        <v>25.23913932173864</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>36.05390272821673</v>
+        <v>39.13383901382971</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>37.05726085472941</v>
+        <v>38.94904995312579</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>38.81303257589289</v>
+        <v>33.1740796000059</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>51.69144019471858</v>
+        <v>51.74714397495137</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>51.42788811787622</v>
+        <v>57.98477170537015</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>11.12210142629386</v>
+        <v>8.936802947906283</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>49.74509499973947</v>
+        <v>52.40154474294894</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>52.63761566707456</v>
+        <v>59.11195085918688</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>44.07203403280842</v>
+        <v>48.81501813414505</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>51.58711606591116</v>
+        <v>56.74937806499533</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>48.46899770289656</v>
+        <v>54.73571717105392</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>31.21397678037904</v>
+        <v>31.74251058513504</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>52.65890040590659</v>
+        <v>61.5165718636765</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>57.41650339872577</v>
+        <v>64.66919629168217</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>31.88907509967616</v>
+        <v>30.73270454887293</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>38.23727680619675</v>
+        <v>44.15128001379274</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>41.26159557920717</v>
+        <v>46.30907933675444</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>40.10283729535151</v>
+        <v>35.831071672285</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>56.55437670118759</v>
+        <v>57.64478892456891</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>52.58952301587969</v>
+        <v>59.57069846912471</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>10.2534654145883</v>
+        <v>10.60820393477173</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>59.73290942855397</v>
+        <v>63.32568046981193</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>57.12591959871409</v>
+        <v>66.34004875133085</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>71.35090569759322</v>
+        <v>78.48844045033776</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>71.8989746330935</v>
+        <v>80.5258755878726</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>74.90841755468554</v>
+        <v>84.59276586628741</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>37.35856389029804</v>
+        <v>39.83682540929284</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>68.71001350860224</v>
+        <v>77.1095115366133</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>69.85141630177142</v>
+        <v>81.29065070830283</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>20.73220948236971</v>
+        <v>16.22783234227358</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>32.68632382178198</v>
+        <v>31.97974637154086</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>36.47444751937963</v>
+        <v>38.17068030081767</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>8.955247590225415</v>
+        <v>3.390357151982688</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>23.769031433903</v>
+        <v>29.92875839521071</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>41.95858681272471</v>
+        <v>41.71523150655248</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>8.90934394310981</v>
+        <v>4.628654553072046</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>49.80720572482289</v>
+        <v>52.56877231656784</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>56.3964462595554</v>
+        <v>56.29119548109084</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>53.15585853684851</v>
+        <v>57.45607496148776</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>57.00207139964657</v>
+        <v>62.03419426278789</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>61.65390802184197</v>
+        <v>63.66251992695913</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>16.84021771152861</v>
+        <v>15.66169683690629</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>60.0664033387972</v>
+        <v>57.27652548232794</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>63.44927270467106</v>
+        <v>66.26331301013963</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>17.38003652021958</v>
+        <v>16.30636264641923</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>33.31976843885652</v>
+        <v>34.54697263641374</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>34.42741087012146</v>
+        <v>36.78932057228626</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>7.600199045703917</v>
+        <v>1.351032021419456</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>30.82742144475689</v>
+        <v>28.38107901191111</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>30.40401627402239</v>
+        <v>32.55561285814695</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>8.565861124194022</v>
+        <v>1.745752938151426</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>44.31575826085</v>
+        <v>46.18069267136619</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>49.59060632657334</v>
+        <v>54.2152944878674</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>41.80350765771266</v>
+        <v>42.51248106829749</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>48.33147064833187</v>
+        <v>51.68669522458278</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>46.06229431103004</v>
+        <v>49.37640160963446</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>13.05808389344548</v>
+        <v>9.106367672629659</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>33.61850211701593</v>
+        <v>47.41135078198707</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>54.24597301183294</v>
+        <v>56.75702734496282</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>17.5318954557899</v>
+        <v>17.05203928815873</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>35.52009184464843</v>
+        <v>36.14837267275946</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>39.16683602290038</v>
+        <v>43.02430734461235</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>8.664272368912087</v>
+        <v>1.977984298768984</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>37.17175815108477</v>
+        <v>35.86101982985894</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>41.23606156173658</v>
+        <v>43.48505503827685</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>8.458521226976405</v>
+        <v>2.698925639265475</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>51.65160204472791</v>
+        <v>54.01615474524796</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>56.22042457303233</v>
+        <v>63.13100312605555</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>58.3499892576415</v>
+        <v>62.76905863344978</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>62.52033802855102</v>
+        <v>73.91257250245346</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>70.34894431611659</v>
+        <v>80.37632860530732</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>9.33203572633429</v>
+        <v>11.11203257403054</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>60.21861483440843</v>
+        <v>67.18830443488316</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>67.8656319730934</v>
+        <v>77.06378221250833</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>19.16638344638633</v>
+        <v>17.88819335835758</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>21.25726903339508</v>
+        <v>17.20511153807409</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>20.25823837291296</v>
+        <v>19.92998711438438</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>11.19192644646408</v>
+        <v>6.838857537240663</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>21.37925257962812</v>
+        <v>19.77851485831971</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>22.68966274616382</v>
+        <v>23.14042689559579</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>12.50372723389475</v>
+        <v>9.509611077254817</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>26.50506960266256</v>
+        <v>28.56823765136113</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>28.54944362932581</v>
+        <v>29.92605727420364</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>26.59120710001831</v>
+        <v>24.01346584291891</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>30.63897189170644</v>
+        <v>29.27851394902251</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>33.85188645029039</v>
+        <v>31.14115817979858</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>22.40288707843128</v>
+        <v>22.11264433068988</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>26.41216188830739</v>
+        <v>25.79471673868419</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>27.77362947508792</v>
+        <v>31.03405724641028</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>16.33448545830463</v>
+        <v>17.30530127424959</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>31.6846949688448</v>
+        <v>32.55470222209546</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>35.46565571412872</v>
+        <v>37.97750671885395</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>10.60248039054224</v>
+        <v>9.739302369069037</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>34.81264592780799</v>
+        <v>31.25620097353012</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>38.97536258670895</v>
+        <v>41.11183487190456</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>10.88396796272623</v>
+        <v>9.850970245375041</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>46.90824254074091</v>
+        <v>44.17209651978041</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>54.31682261655028</v>
+        <v>57.34711746026817</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>44.45899382125364</v>
+        <v>42.53805313760988</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>48.21521112315457</v>
+        <v>48.21376636662792</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>49.81881575632537</v>
+        <v>56.29833187424812</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>16.0245269306026</v>
+        <v>16.27643103555332</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>45.77525739940785</v>
+        <v>48.87306269923632</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>53.6527248061562</v>
+        <v>57.61675272313734</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>21.16992441251862</v>
+        <v>21.81038343048706</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>36.52284852379645</v>
+        <v>38.13746100386327</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>43.01601954383162</v>
+        <v>47.09202079771394</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>12.49475938105303</v>
+        <v>8.388887525990583</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>38.86156744686519</v>
+        <v>34.84334128425363</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>44.86807773900009</v>
+        <v>47.62015171345164</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>16.05167100880264</v>
+        <v>12.57689695201498</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>52.59210114947616</v>
+        <v>55.35708262749498</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>62.51476027168518</v>
+        <v>68.21965241501857</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>51.59535441635646</v>
+        <v>56.31877139015045</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>54.43629520420176</v>
+        <v>61.84437132417729</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>71.25463641586713</v>
+        <v>80.02372953483393</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>30.73026647569547</v>
+        <v>23.92927008690295</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>53.27865361021024</v>
+        <v>57.62726611357555</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>65.20414837876663</v>
+        <v>75.81877373245278</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>19.77321580326736</v>
+        <v>16.12591440621102</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>21.53465953155086</v>
+        <v>19.89972420859289</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>23.07494748917177</v>
+        <v>23.50013720134895</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>8.946590134075354</v>
+        <v>-0.08527759752274378</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>28.55456292712105</v>
+        <v>28.88290473997463</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>29.24790313603616</v>
+        <v>31.98807136659599</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>8.844498538798927</v>
+        <v>2.084561028034475</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>36.06772167605379</v>
+        <v>38.21832742550895</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>34.28566364989777</v>
+        <v>37.92928885918917</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>34.67781399273282</v>
+        <v>30.64288039365783</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>39.46844823000245</v>
+        <v>39.67066903760048</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>42.18398769770424</v>
+        <v>42.69403437607801</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>21.43371546729557</v>
+        <v>21.15528288498312</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>41.93590473823564</v>
+        <v>36.1822354350337</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>46.19392147335992</v>
+        <v>49.12838150273097</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>11.77884293997123</v>
+        <v>9.476451858512167</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>23.55048664511868</v>
+        <v>21.97585598681781</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>33.2919776626465</v>
+        <v>29.80782146412367</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>9.689671517318381</v>
+        <v>5.964163820691574</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>21.27967082608605</v>
+        <v>21.93785197998748</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>48.12309112113093</v>
+        <v>43.99077228339015</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>7.267297569673524</v>
+        <v>-2.944906868928754</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>29.00379862656114</v>
+        <v>32.4231974679936</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>48.65423924231049</v>
+        <v>50.55417401956965</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>29.48205333318954</v>
+        <v>30.37224076926093</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>41.78391532955492</v>
+        <v>40.63039727462201</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>50.01223893587151</v>
+        <v>48.01818044596469</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>11.32974603906013</v>
+        <v>10.61434564939146</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>39.89469355302393</v>
+        <v>44.43152424569281</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>52.52444387535614</v>
+        <v>55.68298221951385</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>19.23375953624424</v>
+        <v>19.29755347348252</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>29.7381057238162</v>
+        <v>29.65936613052011</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>38.26154448354713</v>
+        <v>39.18672502439476</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>10.20441521994119</v>
+        <v>7.51943285752828</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>25.15395364243251</v>
+        <v>26.13220981269605</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>40.21571268748948</v>
+        <v>41.43951512096103</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>8.405858341514048</v>
+        <v>-0.5126068179975007</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>36.42200640965673</v>
+        <v>42.68788270246227</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>55.50443691121676</v>
+        <v>57.17348949382151</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>54.76738238770299</v>
+        <v>58.56581055103401</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>55.42600204687919</v>
+        <v>61.93883490092949</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>69.29377872467347</v>
+        <v>72.35801754078051</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>16.94726068299941</v>
+        <v>17.77935839027867</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>42.82612979402188</v>
+        <v>52.99859067046403</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>62.24815807440769</v>
+        <v>69.32804221253809</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>28.32967989193611</v>
+        <v>23.63625523352631</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>32.01975564713769</v>
+        <v>32.45308717301852</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>35.52480509910448</v>
+        <v>37.24495831111673</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>11.34842438288975</v>
+        <v>9.954909589182847</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>44.43669422451854</v>
+        <v>44.24814986110604</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>43.07605984520728</v>
+        <v>47.51839024162928</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>15.06280549701282</v>
+        <v>11.62542305039008</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>57.56251845928271</v>
+        <v>59.11935082296378</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>55.42729115087614</v>
+        <v>57.06823548733116</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>48.58395055281151</v>
+        <v>60.13760004228942</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>55.4818491158573</v>
+        <v>62.79199960665716</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>57.31753161539781</v>
+        <v>65.86501142817738</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>33.28416663248824</v>
+        <v>27.6711605245834</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>44.28364160237518</v>
+        <v>40.01692611151712</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>65.9025669498958</v>
+        <v>68.10389609221779</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>29.4926441711844</v>
+        <v>27.39636903438211</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>36.49483739474909</v>
+        <v>40.84134450809182</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>37.13624382420156</v>
+        <v>40.63579652476996</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>10.37768637323799</v>
+        <v>8.565238871739506</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>37.64749005651468</v>
+        <v>37.2607595168551</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>35.36643525582061</v>
+        <v>39.18902593250406</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>9.864069990488556</v>
+        <v>9.148354268681359</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>51.13169808505223</v>
+        <v>54.05796701803171</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>50.29740196488733</v>
+        <v>55.87561833754557</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>47.97186394612519</v>
+        <v>51.38534662683897</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>49.4604065547192</v>
+        <v>56.46420670116579</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>51.49227663048043</v>
+        <v>55.62385447956174</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>30.28880137603612</v>
+        <v>28.98200331938335</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>54.89190902134008</v>
+        <v>59.00569140330889</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>54.32827085393227</v>
+        <v>61.37575466518967</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>27.78407946130199</v>
+        <v>27.53005307155532</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>37.29542269277664</v>
+        <v>42.13132458791453</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>39.87515149446082</v>
+        <v>45.1789929259992</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>10.91098975276647</v>
+        <v>9.214420680368978</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>43.33460571730048</v>
+        <v>43.21971431895861</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>40.27655400683683</v>
+        <v>44.92610394859234</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>9.7324093117751</v>
+        <v>8.961767622177192</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>60.11130422248019</v>
+        <v>64.15326720484214</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>60.3500431955715</v>
+        <v>63.68443746452264</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>67.48696788260435</v>
+        <v>75.2046888408006</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>68.22609943913939</v>
+        <v>75.03648446123836</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>68.30133426960188</v>
+        <v>78.85615649694742</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>35.39583047435892</v>
+        <v>33.47679370744528</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>61.70837362974329</v>
+        <v>70.38889043394822</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>65.70184312821078</v>
+        <v>77.22374703213761</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>20.64422341310516</v>
+        <v>16.38502246097751</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>35.06994431923009</v>
+        <v>32.40058155410151</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>35.40257577565769</v>
+        <v>36.98327045817884</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>9.972113843264751</v>
+        <v>5.020206592155425</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>35.26464860249722</v>
+        <v>35.80435749747701</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>41.48213499925185</v>
+        <v>42.81077556999082</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>8.717980203172413</v>
+        <v>4.917701802366032</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>50.70837807910765</v>
+        <v>53.05898979597163</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>53.87742274468619</v>
+        <v>54.355610087592</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>49.65694743472806</v>
+        <v>53.94130180478132</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>58.47424358460184</v>
+        <v>62.60909522704416</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>57.29366769778556</v>
+        <v>60.87997542594955</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>16.6569124451269</v>
+        <v>15.17697907148855</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>56.02898966417602</v>
+        <v>56.13736213846711</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>61.70333866728826</v>
+        <v>63.61891567578933</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>16.6749445355681</v>
+        <v>17.43274712386163</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>32.0589566124536</v>
+        <v>36.18245001872978</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>33.93929361527707</v>
+        <v>37.21994223310455</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>7.9075508055057</v>
+        <v>4.31742501902896</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>29.99788842663552</v>
+        <v>32.82019019700311</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>31.78707179510301</v>
+        <v>35.47127805115209</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>7.942253773140092</v>
+        <v>4.916344552730827</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>41.69043724992887</v>
+        <v>49.50622121933323</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>48.76705806677424</v>
+        <v>55.93585143906483</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>44.0644507656659</v>
+        <v>46.31244665591831</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>48.0548461101763</v>
+        <v>55.68689263162948</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>49.41463198067053</v>
+        <v>53.62082511431623</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>14.14666566021954</v>
+        <v>13.55017674920471</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>52.5467165489197</v>
+        <v>57.51510963624887</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>53.54017253737071</v>
+        <v>59.78587727491399</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>17.16169443465537</v>
+        <v>15.73396879264718</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>34.01272479327017</v>
+        <v>32.77576648902632</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>39.57197164837781</v>
+        <v>40.47493653068412</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>9.305164600648041</v>
+        <v>2.834294531559273</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>37.08010597454381</v>
+        <v>34.81214239564383</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>41.35001800438073</v>
+        <v>42.49651066560652</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>8.569629772946115</v>
+        <v>3.621791874848668</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>47.93343529283663</v>
+        <v>49.78715756944848</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>57.94092144387245</v>
+        <v>61.19694711533673</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>52.26813017609783</v>
+        <v>57.40460128720605</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>59.30832572974323</v>
+        <v>67.94608698149722</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>69.24737005573189</v>
+        <v>76.44332397778813</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>13.80049345374246</v>
+        <v>11.55027657027944</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>54.29509831630517</v>
+        <v>60.65345027224878</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>63.59341898064333</v>
+        <v>72.69042320792222</v>
       </c>
     </row>
   </sheetData>
